--- a/financial_models/opportunities/0179.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0179.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB9F2EE5-0E53-4324-95AB-81A9B42328BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{538CCDB6-9D50-458F-A392-6DC7C7A7B3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -934,6 +931,10 @@
   </si>
   <si>
     <t>Base Case Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1517,7 +1518,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2153,6 +2154,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3567,7 +3571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3581,12 +3585,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>260</v>
@@ -3594,7 +3598,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>261</v>
@@ -3618,7 +3622,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
@@ -3627,7 +3631,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>262</v>
@@ -3635,7 +3639,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>934412034</v>
@@ -3643,7 +3647,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>263</v>
@@ -3667,7 +3671,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45565</v>
@@ -3675,10 +3679,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3692,7 +3696,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
         <v>264</v>
@@ -3701,16 +3705,16 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>265</v>
@@ -3719,7 +3723,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
         <v>265</v>
@@ -3728,7 +3732,7 @@
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
         <v>264</v>
@@ -3737,7 +3741,7 @@
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
         <v>266</v>
@@ -3871,7 +3875,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>31560</v>
@@ -4131,7 +4135,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <f>0.0564+0.0218</f>
@@ -4153,15 +4157,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.2909337897721065E-3</v>
+        <v>5.6349448604348255E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.4248985914462384E-3</v>
+        <v>4.7126009446603279E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4202,13 +4206,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4550,7 +4554,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4568,7 +4572,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4576,7 +4580,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>267</v>
@@ -4586,16 +4590,16 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45016</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4604,10 +4608,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4656,7 +4660,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4677,7 +4681,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4695,7 +4699,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4752,7 +4756,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4839,7 +4843,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4880,19 +4884,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>0179.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>10.8</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4900,42 +4904,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>JOHNSON ELECTRIC</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>934412034</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>13810.609613005068</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>10091.649967200001</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4958,16 +4962,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4982,7 +4986,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1</v>
+        <v>7.782276789347331</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4992,40 +4996,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5038,29 +5042,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5070,12 +5074,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5085,7 +5089,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5093,7 +5097,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5107,7 +5111,7 @@
         <v>0.77696054205677556</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5115,7 +5119,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5126,14 +5130,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>1.0871617989521474E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5145,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5161,16 +5165,16 @@
         <v>8.274315042185636E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>9.9499228383517976E-3</v>
+        <v>259</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>9.436760724083042</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5193,11 +5197,11 @@
         <v>4.8035946952446888E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.2909337897721065E-3</v>
+        <v>5.6349448604348255E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5214,12 +5218,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>259</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>258</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5227,42 +5231,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.75176045747951226</v>
+        <v>8.625518092046546</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.4861463222883138</v>
+        <v>17.051684300215591</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.88442406762295556</v>
-      </c>
-      <c r="G29" s="272">
+        <v>10.147668343584172</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.2923011498159251</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>14.827551565404864</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5272,7 +5276,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5283,14 +5287,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5300,7 +5304,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5310,14 +5314,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5327,7 +5331,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5342,14 +5346,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6334,16 +6338,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6361,7 +6365,7 @@
         <v>45016</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6394,7 +6398,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6761,7 +6765,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6812,7 +6816,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6863,7 +6867,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6914,7 +6918,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7016,7 +7020,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7169,7 +7173,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8240,7 +8244,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8309,7 +8313,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8513,7 +8517,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10411,7 +10415,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11463,11 +11467,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11478,11 +11482,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11494,11 +11498,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11712,19 +11716,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45016</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11734,18 +11738,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11822,7 +11826,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11882,7 +11886,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11945,7 +11949,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11975,7 +11979,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12108,28 +12112,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.9499228383517976E-3</v>
+        <v>0.10596856582873344</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.9499228383517976E-3</v>
+        <v>0.10596856582873344</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.9499228383517976E-3</v>
+        <v>0.10596856582873344</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12159,21 +12163,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.2909337897721065E-3</v>
+        <v>5.6349448604348255E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.2909337897721065E-3</v>
+        <v>5.6349448604348255E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.2909337897721065E-3</v>
+        <v>5.6349448604348255E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12204,15 +12208,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12229,24 +12233,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>2.3412587053233653</v>
+        <v>28.692658810399795</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>2.3412587053233653</v>
+        <v>28.692658810399795</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12254,18 +12258,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>1.2165267050994684</v>
+        <v>12.128512508068681</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>1.2165267050994684</v>
+        <v>12.128512508068681</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12284,14 +12288,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12308,21 +12312,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1087673.6974204953</v>
+        <v>13329688.951576982</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.1640193596013717</v>
+        <v>14.265322434382284</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>1.1640193596013717</v>
+        <v>14.265322434382284</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>1.7008396897925011</v>
+        <v>20.844177877242394</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12371,27 +12375,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1087673.6974204953</v>
+        <v>13329688.951576982</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.98941645566116609</v>
+        <v>12.125524069224941</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.1640193596013717</v>
+        <v>14.265322434382284</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.1640193596013719</v>
+        <v>14.265322434382284</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.1640193596013719</v>
+        <v>14.265322434382284</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>1.7008396897925011</v>
+        <v>20.844177877242394</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12408,14 +12412,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12432,27 +12436,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>565159.28647174349</v>
+        <v>5634517.8829948129</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.51410445929785831</v>
+        <v>5.1255121148681519</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.60482877564453918</v>
+        <v>6.030014252786061</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.60482877564453918</v>
+        <v>6.030014252786061</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.60482877564453918</v>
+        <v>6.030014252786061</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.88376260983934918</v>
+        <v>8.8109252535673352</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12462,21 +12466,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12489,31 +12493,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>826416.49194611935</v>
+        <v>9482103.4172858968</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.75176045747951226</v>
+        <v>8.625518092046546</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.88442406762295545</v>
+        <v>10.147668343584172</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.88442406762295556</v>
+        <v>10.147668343584172</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.88442406762295556</v>
+        <v>10.147668343584172</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.2923011498159251</v>
+        <v>14.827551565404864</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0179.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0179.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{538CCDB6-9D50-458F-A392-6DC7C7A7B3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36EC925B-F2FF-4780-8075-329E03CB7B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -960,6 +957,10 @@
   </si>
   <si>
     <t>Avg</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3585,28 +3586,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45593</v>
@@ -3614,7 +3615,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
@@ -3622,24 +3623,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="268"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="194">
         <v>934412034</v>
@@ -3647,15 +3648,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45016</v>
@@ -3663,7 +3664,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000</v>
@@ -3671,7 +3672,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45565</v>
@@ -3679,15 +3680,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
@@ -3696,61 +3697,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3799,7 +3800,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>3814213</v>
@@ -3819,7 +3820,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>2963493</v>
@@ -3839,7 +3840,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <v>541794</v>
@@ -3859,7 +3860,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151"/>
       <c r="D28" s="151"/>
@@ -3875,7 +3876,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" s="151">
         <v>31560</v>
@@ -3895,7 +3896,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>3110</v>
@@ -3915,7 +3916,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151">
         <v>-70259</v>
@@ -3935,7 +3936,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151">
         <v>274900</v>
@@ -3955,7 +3956,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151">
         <v>184900</v>
@@ -3975,7 +3976,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151"/>
@@ -3991,7 +3992,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151"/>
@@ -4007,7 +4008,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151"/>
@@ -4023,7 +4024,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151"/>
@@ -4039,7 +4040,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151"/>
@@ -4055,7 +4056,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151"/>
@@ -4071,7 +4072,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151"/>
@@ -4087,7 +4088,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151"/>
@@ -4103,7 +4104,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151"/>
@@ -4119,7 +4120,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151"/>
@@ -4135,7 +4136,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <f>0.0564+0.0218</f>
@@ -4157,15 +4158,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.6349448604348255E-2</v>
+        <v>5.5731917592049811E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.7126009446603279E-2</v>
+        <v>4.6609557679284631E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4206,21 +4207,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4230,7 +4231,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4240,7 +4241,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4251,7 +4252,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4261,7 +4262,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4271,7 +4272,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4282,7 +4283,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4292,7 +4293,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4303,7 +4304,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4311,24 +4312,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4339,7 +4340,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="196">
@@ -4350,7 +4351,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4361,7 +4362,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4372,7 +4373,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4383,7 +4384,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4394,7 +4395,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4404,31 +4405,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4436,12 +4437,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4452,7 +4453,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4463,7 +4464,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4473,7 +4474,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4484,7 +4485,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248"/>
       <c r="D72" s="249">
@@ -4494,85 +4495,85 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4580,15 +4581,15 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4596,10 +4597,10 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4609,19 +4610,19 @@
         <v>(Numbers in 1000USD)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4639,7 +4640,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4660,7 +4661,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4681,7 +4682,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4699,7 +4700,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4720,7 +4721,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4738,7 +4739,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4756,7 +4757,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4884,7 +4885,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -4896,15 +4897,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.8</v>
+        <v>10.92</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -4913,7 +4914,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -4924,7 +4925,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -4933,11 +4934,11 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>10091.649967200001</v>
+        <v>10203.77941128</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4945,7 +4946,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -4960,7 +4961,7 @@
         <v>45016</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -4971,7 +4972,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4983,10 +4984,10 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.782276789347331</v>
+        <v>7.7825133005777998</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4996,40 +4997,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5042,29 +5043,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5074,12 +5075,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5089,29 +5090,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.77696054205677556</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5119,7 +5120,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5130,26 +5131,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>1.0871617989521474E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5158,30 +5159,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>8.274315042185636E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.436760724083042</v>
+        <v>9.5413236505808818</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>2.3595955443495159E-2</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
@@ -5190,61 +5191,61 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>4.8035946952446888E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.6349448604348255E-2</v>
+        <v>5.5731917592049811E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.625518092046546</v>
+        <v>8.5865332302456583</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>17.051684300215591</v>
+        <v>16.974615589812071</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.147668343584172</v>
+        <v>10.101803800289009</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>14.827551565404864</v>
+        <v>14.760535295488758</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -5252,21 +5253,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5276,7 +5277,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5287,14 +5288,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5304,7 +5305,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5314,14 +5315,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5331,7 +5332,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5346,14 +5347,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6333,21 +6334,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6358,14 +6359,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45016</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6387,7 +6388,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6398,7 +6399,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6409,7 +6410,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6459,7 +6460,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6510,7 +6511,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6561,7 +6562,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6612,7 +6613,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6663,7 +6664,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6714,7 +6715,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6765,7 +6766,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6816,7 +6817,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6867,7 +6868,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6918,7 +6919,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6969,7 +6970,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7020,7 +7021,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7071,7 +7072,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7122,7 +7123,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7173,7 +7174,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7224,7 +7225,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7275,7 +7276,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7326,7 +7327,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7377,7 +7378,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7428,7 +7429,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7479,7 +7480,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7530,7 +7531,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7581,7 +7582,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7632,7 +7633,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7683,7 +7684,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7734,7 +7735,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7785,7 +7786,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7836,7 +7837,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7887,7 +7888,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7938,7 +7939,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -7989,7 +7990,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8040,7 +8041,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8091,7 +8092,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8142,7 +8143,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8193,7 +8194,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8244,7 +8245,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8262,7 +8263,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8313,7 +8314,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8364,7 +8365,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8415,7 +8416,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8466,7 +8467,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8517,7 +8518,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8568,7 +8569,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8619,7 +8620,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8637,7 +8638,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8688,7 +8689,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8739,7 +8740,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8756,7 +8757,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8806,7 +8807,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8856,7 +8857,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8906,7 +8907,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -10265,7 +10266,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10275,12 +10276,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10294,7 +10295,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10304,7 +10305,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10322,10 +10323,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10335,7 +10336,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
@@ -10349,7 +10350,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10360,7 +10361,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10372,7 +10373,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10390,7 +10391,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10409,32 +10410,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10451,7 +10452,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10462,7 +10463,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10479,7 +10480,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10490,7 +10491,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10507,7 +10508,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10518,7 +10519,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10535,7 +10536,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10546,7 +10547,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10563,7 +10564,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10573,7 +10574,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10595,7 +10596,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10617,7 +10618,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10638,7 +10639,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10663,7 +10664,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10690,7 +10691,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10711,7 +10712,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10728,7 +10729,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10740,13 +10741,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10768,7 +10769,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10788,7 +10789,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10797,7 +10798,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10817,7 +10818,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10830,7 +10831,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10850,7 +10851,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10863,7 +10864,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10880,7 +10881,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10896,7 +10897,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10905,7 +10906,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10921,7 +10922,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10931,7 +10932,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -10948,7 +10949,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -10958,7 +10959,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -10975,7 +10976,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -10985,7 +10986,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11005,7 +11006,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11015,7 +11016,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11032,7 +11033,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11042,7 +11043,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11068,7 +11069,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11095,7 +11096,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11122,7 +11123,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11143,7 +11144,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11164,7 +11165,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11185,7 +11186,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11206,7 +11207,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11223,7 +11224,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11241,7 +11242,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11260,7 +11261,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11279,7 +11280,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11296,7 +11297,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11309,7 +11310,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11326,7 +11327,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11339,7 +11340,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11356,7 +11357,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11366,7 +11367,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11383,7 +11384,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11399,14 +11400,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11418,12 +11419,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11453,7 +11454,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11464,7 +11465,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11479,7 +11480,7 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11490,12 +11491,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11519,11 +11520,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11533,7 +11534,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11554,7 +11555,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11575,7 +11576,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11596,7 +11597,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11611,7 +11612,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11642,11 +11643,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11656,7 +11657,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11677,7 +11678,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11692,7 +11693,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11714,7 +11715,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11722,15 +11723,15 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11739,22 +11740,22 @@
         <v>(Numbers in 1000USD)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11775,7 +11776,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11805,7 +11806,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11826,7 +11827,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11856,7 +11857,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11886,7 +11887,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11917,7 +11918,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -11944,12 +11945,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11979,7 +11980,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12009,7 +12010,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12039,7 +12040,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12060,7 +12061,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12091,7 +12092,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12112,28 +12113,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10596856582873344</v>
+        <v>0.10480726119579009</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10596856582873344</v>
+        <v>0.10480726119579009</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10596856582873344</v>
+        <v>0.10480726119579009</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12163,21 +12164,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6349448604348255E-2</v>
+        <v>5.5731917592049811E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6349448604348255E-2</v>
+        <v>5.5731917592049811E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6349448604348255E-2</v>
+        <v>5.5731917592049811E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12194,27 +12195,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
@@ -12233,24 +12234,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>28.692658810399795</v>
+        <v>28.543200924560558</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>28.692658810399795</v>
+        <v>28.543200924560558</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12258,18 +12259,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>12.128512508068681</v>
+        <v>12.093470436291659</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.128512508068681</v>
+        <v>12.093470436291659</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12288,51 +12289,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13329688.951576982</v>
+        <v>13260255.611754349</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.265322434382284</v>
+        <v>14.191015450636147</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.265322434382284</v>
+        <v>14.191015450636147</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>20.844177877242394</v>
+        <v>20.735602133942493</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
@@ -12350,7 +12351,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12371,31 +12372,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>13329688.951576982</v>
+        <v>13260255.611754349</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.125524069224941</v>
+        <v>12.062363133040725</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>14.265322434382284</v>
+        <v>14.191015450636147</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.265322434382284</v>
+        <v>14.191015450636147</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.265322434382284</v>
+        <v>14.191015450636147</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>20.844177877242394</v>
+        <v>20.735602133942493</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12405,58 +12406,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>5634517.8829948129</v>
+        <v>5618238.4604396168</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.1255121148681519</v>
+        <v>5.1107033274505911</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.030014252786061</v>
+        <v>6.012592149941872</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.030014252786061</v>
+        <v>6.012592149941872</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.030014252786061</v>
+        <v>6.012592149941872</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.8109252535673352</v>
+        <v>8.7854684570350248</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12466,58 +12467,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9482103.4172858968</v>
+        <v>9439247.0360969827</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>8.625518092046546</v>
+        <v>8.5865332302456583</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>10.147668343584172</v>
+        <v>10.101803800289009</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>10.147668343584172</v>
+        <v>10.101803800289009</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>10.147668343584172</v>
+        <v>10.101803800289009</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>14.827551565404864</v>
+        <v>14.760535295488758</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12526,7 +12527,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0179.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0179.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36EC925B-F2FF-4780-8075-329E03CB7B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A831E02-5EB9-46AB-A5FE-2D8552B4ACD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4162,11 +4162,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.5731917592049811E-2</v>
+        <v>5.5732537931575003E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.6609557679284631E-2</v>
+        <v>4.6610076479859402E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4807,7 +4807,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4987,7 +4987,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7825133005777998</v>
+        <v>7.782599925994873</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.5413236505808818</v>
+        <v>9.5412174494207918</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.5731917592049811E-2</v>
+        <v>5.5732537931575003E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5232,20 +5232,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.5865332302456583</v>
+        <v>8.5866681552378736</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>16.974615589812071</v>
+        <v>16.974882321427138</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.101803800289009</v>
+        <v>10.10196253557397</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>14.760535295488758</v>
+        <v>14.760767236023598</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12117,17 +12117,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10480726119579009</v>
+        <v>0.10480842778200238</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10480726119579009</v>
+        <v>0.10480842778200238</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10480726119579009</v>
+        <v>0.10480842778200238</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12168,17 +12168,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5731917592049811E-2</v>
+        <v>5.5732537931575003E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5731917592049811E-2</v>
+        <v>5.5732537931575003E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5731917592049811E-2</v>
+        <v>5.5732537931575003E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12238,14 +12238,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>28.543200924560558</v>
+        <v>28.543669330991541</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>28.543200924560558</v>
+        <v>28.543669330991541</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12263,14 +12263,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>12.093470436291659</v>
+        <v>12.093640576573303</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.093470436291659</v>
+        <v>12.093640576573303</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12313,21 +12313,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13260255.611754349</v>
+        <v>13260473.218357809</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.191015450636147</v>
+        <v>14.191248331416297</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.191015450636147</v>
+        <v>14.191248331416297</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>20.735602133942493</v>
+        <v>20.735942414257075</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12376,27 +12376,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>13260255.611754349</v>
+        <v>13260473.218357809</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.062363133040725</v>
+        <v>12.062561081703851</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>14.191015450636147</v>
+        <v>14.191248331416297</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.191015450636147</v>
+        <v>14.191248331416297</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.191015450636147</v>
+        <v>14.191248331416299</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>20.735602133942493</v>
+        <v>20.735942414257075</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12437,27 +12437,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>5618238.4604396168</v>
+        <v>5618317.5021571331</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.1107033274505911</v>
+        <v>5.1107752287718959</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.012592149941872</v>
+        <v>6.012676739731643</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.012592149941872</v>
+        <v>6.012676739731643</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.012592149941872</v>
+        <v>6.012676739731643</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.7854684570350248</v>
+        <v>8.7855920577901223</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12498,27 +12498,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9439247.0360969827</v>
+        <v>9439395.360257471</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>8.5865332302456583</v>
+        <v>8.5866681552378736</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>10.101803800289009</v>
+        <v>10.10196253557397</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>10.101803800289009</v>
+        <v>10.10196253557397</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>10.101803800289009</v>
+        <v>10.101962535573971</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>14.760535295488758</v>
+        <v>14.760767236023598</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0179.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0179.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A831E02-5EB9-46AB-A5FE-2D8552B4ACD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{098BFE2D-D66C-445B-ABA3-C49144AB59BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4162,11 +4162,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.5732537931575003E-2</v>
+        <v>5.5529420297511289E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.6610076479859402E-2</v>
+        <v>4.6440205721959574E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4897,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.92</v>
+        <v>10.96</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>10203.77941128</v>
+        <v>10241.155892640001</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4987,7 +4987,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.782599925994873</v>
+        <v>7.7826399803161621</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.5412174494207918</v>
+        <v>9.5761176789573241</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.5732537931575003E-2</v>
+        <v>5.5529420297511289E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5232,20 +5232,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.5866681552378736</v>
+        <v>8.5738359791371774</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>16.974882321427138</v>
+        <v>16.949514544857795</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.10196253557397</v>
+        <v>10.086865857808444</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>14.760767236023598</v>
+        <v>14.738708299876345</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12117,17 +12117,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10480842778200238</v>
+        <v>0.10442645271553126</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10480842778200238</v>
+        <v>0.10442645271553126</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10480842778200238</v>
+        <v>0.10442645271553126</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12168,17 +12168,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5732537931575003E-2</v>
+        <v>5.5529420297511289E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5732537931575003E-2</v>
+        <v>5.5529420297511289E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5732537931575003E-2</v>
+        <v>5.5529420297511289E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12238,14 +12238,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>28.543669330991541</v>
+        <v>28.494506829055528</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>28.543669330991541</v>
+        <v>28.494506829055528</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12263,14 +12263,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>12.093640576573303</v>
+        <v>12.082073455847194</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.093640576573303</v>
+        <v>12.082073455847194</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12313,21 +12313,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13260473.218357809</v>
+        <v>13237633.896870779</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.191248331416297</v>
+        <v>14.166805879204654</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.191248331416297</v>
+        <v>14.166805879204654</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>20.735942414257075</v>
+        <v>20.700227636410379</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12376,27 +12376,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>13260473.218357809</v>
+        <v>13237633.896870779</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.062561081703851</v>
+        <v>12.041784997323955</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>14.191248331416297</v>
+        <v>14.166805879204654</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.191248331416297</v>
+        <v>14.166805879204654</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.191248331416299</v>
+        <v>14.166805879204654</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>20.735942414257075</v>
+        <v>20.700227636410379</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12437,27 +12437,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>5618317.5021571331</v>
+        <v>5612943.7888891073</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.1107752287718959</v>
+        <v>5.1058869609504001</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.012676739731643</v>
+        <v>6.0069258364122353</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.012676739731643</v>
+        <v>6.0069258364122353</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.012676739731643</v>
+        <v>6.0069258364122353</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.7855920577901223</v>
+        <v>8.7771889633423115</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12498,27 +12498,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9439395.360257471</v>
+        <v>9425288.8428799435</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>8.5866681552378736</v>
+        <v>8.5738359791371774</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>10.10196253557397</v>
+        <v>10.086865857808444</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>10.10196253557397</v>
+        <v>10.086865857808444</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>10.101962535573971</v>
+        <v>10.086865857808444</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>14.760767236023598</v>
+        <v>14.738708299876345</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0179.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0179.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{098BFE2D-D66C-445B-ABA3-C49144AB59BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C124AFCF-B9FA-40FD-87A4-DCC1D7E054DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4162,11 +4162,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.5529420297511289E-2</v>
+        <v>5.5527803094427647E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.6440205721959574E-2</v>
+        <v>4.6438853227309063E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4987,7 +4987,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7826399803161621</v>
+        <v>7.7824133237202959</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.5761176789573241</v>
+        <v>9.5763965757653509</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.5529420297511289E-2</v>
+        <v>5.5527803094427647E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5232,20 +5232,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.5738359791371774</v>
+        <v>8.5734838282390147</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>16.949514544857795</v>
+        <v>16.948818381928518</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.086865857808444</v>
+        <v>10.086451562634135</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>14.738708299876345</v>
+        <v>14.738102940807408</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12117,17 +12117,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10442645271553126</v>
+        <v>0.10442341146675825</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10442645271553126</v>
+        <v>0.10442341146675825</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10442645271553126</v>
+        <v>0.10442341146675825</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12168,17 +12168,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5529420297511289E-2</v>
+        <v>5.5527803094427647E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5529420297511289E-2</v>
+        <v>5.5527803094427647E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5529420297511289E-2</v>
+        <v>5.5527803094427647E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12238,14 +12238,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>28.494506829055528</v>
+        <v>28.493284661689376</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>28.494506829055528</v>
+        <v>28.493284661689376</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12263,14 +12263,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>12.082073455847194</v>
+        <v>12.081629032060162</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.082073455847194</v>
+        <v>12.081629032060162</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12313,21 +12313,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13237633.896870779</v>
+        <v>13237066.11711411</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.166805879204654</v>
+        <v>14.166198246023562</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.166805879204654</v>
+        <v>14.166198246023562</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>20.700227636410379</v>
+        <v>20.699339776064491</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12376,27 +12376,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>13237633.896870779</v>
+        <v>13237066.11711411</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.041784997323955</v>
+        <v>12.041268509120027</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>14.166805879204654</v>
+        <v>14.166198246023562</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.166805879204654</v>
+        <v>14.166198246023562</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.166805879204654</v>
+        <v>14.166198246023562</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>20.700227636410379</v>
+        <v>20.699339776064491</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12437,27 +12437,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>5612943.7888891073</v>
+        <v>5612737.3238527728</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.1058869609504001</v>
+        <v>5.1056991473580027</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.0069258364122353</v>
+        <v>6.0067048792447091</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.0069258364122353</v>
+        <v>6.0067048792447091</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.0069258364122353</v>
+        <v>6.0067048792447091</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.7771889633423115</v>
+        <v>8.7768661055503241</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12498,27 +12498,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9425288.8428799435</v>
+        <v>9424901.7204834409</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>8.5738359791371774</v>
+        <v>8.5734838282390147</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>10.086865857808444</v>
+        <v>10.086451562634135</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>10.086865857808444</v>
+        <v>10.086451562634135</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>10.086865857808444</v>
+        <v>10.086451562634135</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>14.738708299876345</v>
+        <v>14.738102940807408</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0179.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0179.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C124AFCF-B9FA-40FD-87A4-DCC1D7E054DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{964D7A91-BE82-4D3C-B587-8111FC390692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4162,11 +4162,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.5527803094427647E-2</v>
+        <v>5.5529039245452314E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.6438853227309063E-2</v>
+        <v>4.6439887041593117E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4599,7 +4599,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -4987,7 +4987,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7824133237202959</v>
+        <v>7.7825865745544434</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.5763965757653509</v>
+        <v>9.576183392310341</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.5527803094427647E-2</v>
+        <v>5.5529039245452314E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5232,20 +5232,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.5734838282390147</v>
+        <v>8.573753003260066</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>16.948818381928518</v>
+        <v>16.949350510831554</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.086451562634135</v>
+        <v>10.086768239129489</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>14.738102940807408</v>
+        <v>14.738565661592657</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12117,17 +12117,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10442341146675825</v>
+        <v>0.10442573612395502</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10442341146675825</v>
+        <v>0.10442573612395502</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10442341146675825</v>
+        <v>0.10442573612395502</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12168,17 +12168,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5527803094427647E-2</v>
+        <v>5.5529039245452314E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5527803094427647E-2</v>
+        <v>5.5529039245452314E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5527803094427647E-2</v>
+        <v>5.5529039245452314E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12238,14 +12238,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>28.493284661689376</v>
+        <v>28.494218854494235</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>28.493284661689376</v>
+        <v>28.494218854494235</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12263,14 +12263,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>12.081629032060162</v>
+        <v>12.081968738345385</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.081629032060162</v>
+        <v>12.081968738345385</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12313,21 +12313,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13237066.11711411</v>
+        <v>13237500.113126533</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.166198246023562</v>
+        <v>14.166662704952421</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.166198246023562</v>
+        <v>14.166662704952421</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>20.699339776064491</v>
+        <v>20.700018433317023</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12376,27 +12376,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>13237066.11711411</v>
+        <v>13237500.113126533</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.041268509120027</v>
+        <v>12.041663299209556</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>14.166198246023562</v>
+        <v>14.166662704952421</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.166198246023562</v>
+        <v>14.166662704952421</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.166198246023562</v>
+        <v>14.166662704952421</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>20.699339776064491</v>
+        <v>20.700018433317023</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12437,27 +12437,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>5612737.3238527728</v>
+        <v>5612895.1404966358</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.1056991473580027</v>
+        <v>5.1058427073105737</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.0067048792447091</v>
+        <v>6.0068737733065571</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.0067048792447091</v>
+        <v>6.0068737733065571</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.0067048792447091</v>
+        <v>6.0068737733065571</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.7768661055503241</v>
+        <v>8.7771128898682917</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12498,27 +12498,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9424901.7204834409</v>
+        <v>9425197.6268115845</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>8.5734838282390147</v>
+        <v>8.573753003260066</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>10.086451562634135</v>
+        <v>10.086768239129489</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>10.086451562634135</v>
+        <v>10.086768239129489</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>10.086451562634135</v>
+        <v>10.086768239129489</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>14.738102940807408</v>
+        <v>14.738565661592657</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0179.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0179.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{964D7A91-BE82-4D3C-B587-8111FC390692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16437AF5-B078-474E-BB08-60B8DC244936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4162,11 +4162,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.5529039245452314E-2</v>
+        <v>5.5528801087915448E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.6439887041593117E-2</v>
+        <v>4.6439687866364085E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4987,7 +4987,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7825865745544434</v>
+        <v>7.7825531959533691</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5036,7 +5036,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5083,7 +5083,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.576183392310341</v>
+        <v>9.5762244636139631</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.5529039245452314E-2</v>
+        <v>5.5528801087915448E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5232,20 +5232,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.573753003260066</v>
+        <v>8.7730895422210722</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>16.949350510831554</v>
+        <v>17.465955508257466</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.086768239129489</v>
+        <v>10.321281814377732</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>14.738565661592657</v>
+        <v>15.187787398484755</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12117,17 +12117,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10442573612395502</v>
+        <v>0.10442528825421986</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10442573612395502</v>
+        <v>0.10442528825421986</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10442573612395502</v>
+        <v>0.10442528825421986</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12168,17 +12168,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5529039245452314E-2</v>
+        <v>5.5528801087915448E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5529039245452314E-2</v>
+        <v>5.5528801087915448E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5529039245452314E-2</v>
+        <v>5.5528801087915448E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12227,7 +12227,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12238,14 +12238,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>28.494218854494235</v>
+        <v>29.15669093793063</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>28.494218854494235</v>
+        <v>29.15669093793063</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12263,14 +12263,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>12.081968738345385</v>
+        <v>12.362877785192744</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.081968738345385</v>
+        <v>12.362877785192744</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12313,21 +12313,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13237500.113126533</v>
+        <v>13545263.393959526</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.166662704952421</v>
+        <v>14.496028412621584</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.166662704952421</v>
+        <v>14.496028412621584</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>20.700018433317023</v>
+        <v>21.330935596255163</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12376,27 +12376,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>13237500.113126533</v>
+        <v>13545263.393959526</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.041663299209556</v>
+        <v>12.321624150728345</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>14.166662704952421</v>
+        <v>14.496028412621584</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.166662704952421</v>
+        <v>14.496028412621584</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.166662704952421</v>
+        <v>14.496028412621584</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>20.700018433317023</v>
+        <v>21.330935596255163</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12437,27 +12437,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>5612895.1404966358</v>
+        <v>5743396.4733602898</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.1058427073105737</v>
+        <v>5.2245549337137991</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.0068737733065571</v>
+        <v>6.1465352161338815</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.0068737733065571</v>
+        <v>6.1465352161338815</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.0068737733065571</v>
+        <v>6.1465352161338815</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.7771128898682917</v>
+        <v>9.0446392007143448</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12498,27 +12498,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9425197.6268115845</v>
+        <v>9644329.9336599056</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>8.573753003260066</v>
+        <v>8.7730895422210722</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>10.086768239129489</v>
+        <v>10.321281814377732</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>10.086768239129489</v>
+        <v>10.321281814377732</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>10.086768239129489</v>
+        <v>10.321281814377732</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>14.738565661592657</v>
+        <v>15.187787398484755</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0179.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0179.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16437AF5-B078-474E-BB08-60B8DC244936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A208F6C8-B39F-43A6-AEDD-930121F1B905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,7 +967,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -980,6 +980,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1519,7 +1520,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1819,9 +1820,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2156,6 +2154,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3593,7 +3597,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3601,7 +3605,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3609,7 +3613,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45593</v>
       </c>
     </row>
@@ -3617,7 +3621,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3625,16 +3629,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3642,7 +3646,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>934412034</v>
       </c>
     </row>
@@ -3650,101 +3654,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45016</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45565</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>255</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>265</v>
       </c>
       <c r="D22" s="24"/>
@@ -3802,405 +3806,405 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>3814213</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>3646119</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>2963493</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>2930208</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>541794</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>556427</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>31560</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>21677</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>3110</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>3460</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151">
+      <c r="C31" s="150">
         <v>-70259</v>
       </c>
-      <c r="D31" s="151">
+      <c r="D31" s="150">
         <v>-27525</v>
       </c>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151">
+      <c r="C32" s="150">
         <v>274900</v>
       </c>
-      <c r="D32" s="151">
+      <c r="D32" s="150">
         <v>274200</v>
       </c>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151">
+      <c r="C33" s="150">
         <v>184900</v>
       </c>
-      <c r="D33" s="151">
+      <c r="D33" s="150">
         <v>226600</v>
       </c>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <f>0.0564+0.0218</f>
         <v>7.8199999999999992E-2</v>
       </c>
-      <c r="D44" s="251">
+      <c r="D44" s="250">
         <f>0.0436+0.0218</f>
         <v>6.54E-2</v>
       </c>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.5528801087915448E-2</v>
-      </c>
-      <c r="D45" s="153">
+        <v>5.634809631477166E-2</v>
+      </c>
+      <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.6439687866364085E-2</v>
-      </c>
-      <c r="E45" s="153" t="str">
+        <v>4.7124878503658152E-2</v>
+      </c>
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4209,10 +4213,10 @@
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4311,7 +4315,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4323,7 +4327,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4343,7 +4347,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4411,7 +4415,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4423,7 +4427,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4436,7 +4440,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4484,14 +4488,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248"/>
-      <c r="D72" s="249">
-        <v>0</v>
-      </c>
-      <c r="E72" s="250"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="248">
+        <v>0</v>
+      </c>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4575,7 +4579,7 @@
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4583,19 +4587,20 @@
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>266</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45016</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4609,14 +4614,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4628,12 +4633,12 @@
         <f>C25</f>
         <v>3814213</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>3814213</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>3814213</v>
       </c>
@@ -4646,15 +4651,15 @@
         <f>C26</f>
         <v>2963493</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.77696054205677556</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>2963493</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>2963493</v>
       </c>
@@ -4667,15 +4672,15 @@
         <f>C27+C28</f>
         <v>541794</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.14204607870614464</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>541794</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>541794</v>
       </c>
@@ -4688,12 +4693,12 @@
         <f>C29</f>
         <v>31560</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>8.274315042185636E-3</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>31560</v>
       </c>
@@ -4706,15 +4711,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>90000</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>2.3595955443495159E-2</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>90000</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>90000</v>
       </c>
@@ -4727,12 +4732,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4745,12 +4750,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>4146.666666666667</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>1.0871617989521474E-3</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>4146.666666666667</v>
       </c>
@@ -4759,16 +4764,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>7.8199999999999992E-2</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>7.8199999999999992E-2</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>7.8199999999999992E-2</v>
       </c>
@@ -4887,17 +4892,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>0179.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.96</v>
+        <v>10.8</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4907,40 +4912,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>JOHNSON ELECTRIC</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>934412034</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>10241.155892640001</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>10091.649967200001</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4948,11 +4953,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45808</v>
       </c>
@@ -4963,22 +4968,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>Y</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0006</v>
       </c>
@@ -4987,7 +4992,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7825531959533691</v>
+        <v>7.7820900281270342</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5007,7 +5012,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5018,7 +5023,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5032,11 +5037,11 @@
       <c r="B12" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5045,7 +5050,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5056,7 +5061,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5067,10 +5072,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -5082,10 +5087,10 @@
       <c r="B17" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5107,14 +5112,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.77696054205677556</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5122,7 +5127,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.14204607870614464</v>
       </c>
@@ -5133,7 +5138,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>1.0871617989521474E-3</v>
       </c>
@@ -5145,14 +5150,14 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178" t="e">
+      <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5161,30 +5166,30 @@
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>8.274315042185636E-3</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>258</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.5762244636139631</v>
+        <v>9.4369871954990874</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>2.3595955443495159E-2</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0.53175626341324955</v>
       </c>
@@ -5193,16 +5198,16 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>4.8035946952446888E-2</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.5528801087915448E-2</v>
+        <v>5.634809631477166E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5221,10 +5226,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>257</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5232,22 +5237,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.7730895422210722</v>
+        <v>8.6252249897718976</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>17.465955508257466</v>
+        <v>17.05110486980902</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.321281814377732</v>
-      </c>
-      <c r="G29" s="273">
+        <v>10.147323517378704</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>15.187787398484755</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>14.827047712877409</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5259,17 +5264,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -5279,7 +5284,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="e">
+      <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -5287,17 +5292,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5307,24 +5312,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -5334,7 +5339,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -5353,10 +5358,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -6338,16 +6343,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6361,11 +6366,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45016</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6398,7 +6403,7 @@
         <f>Dashboard!G6</f>
         <v>USD</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6462,47 +6467,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>3814213</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>3646119</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6564,47 +6569,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>2963493</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>2930208</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6615,47 +6620,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>850720</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>715911</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6666,47 +6671,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>541794</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>556427</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6717,47 +6722,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6768,47 +6773,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>4146.666666666667</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>4613.333333333333</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6816,50 +6821,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>7.9906217438127689E-2</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>4.2475483292417682E-2</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6867,50 +6872,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>304779.33333333331</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>154870.66666666666</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6918,50 +6923,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.96796036262515817</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6972,47 +6977,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200">
+      <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-70259</v>
       </c>
-      <c r="D16" s="200">
+      <c r="D16" s="199">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>-27525</v>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7023,47 +7028,47 @@
       <c r="B17" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>31560</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>21677</v>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7074,47 +7079,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153">
+      <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>7.2072535015742428E-2</v>
       </c>
-      <c r="D18" s="153">
+      <c r="D18" s="152">
         <f t="shared" si="6"/>
         <v>7.5203250360177498E-2</v>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7125,47 +7130,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200">
+      <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>274900</v>
       </c>
-      <c r="D19" s="200">
+      <c r="D19" s="199">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>274200</v>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7176,47 +7181,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>4.8476579572247276E-2</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>6.2148273273582126E-2</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7227,47 +7232,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200">
+      <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>184900</v>
       </c>
-      <c r="D21" s="200">
+      <c r="D21" s="199">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>226600</v>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7278,47 +7283,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>183219.33333333331</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>85593.666666666657</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7329,47 +7334,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>3.6026960214335171E-2</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>1.7606460458366825E-2</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7380,7 +7385,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>137414.5</v>
       </c>
@@ -7428,50 +7433,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>1.1405711481768512</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7588,43 +7593,43 @@
         <f>Fin_Analysis!C28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7639,43 +7644,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7690,43 +7695,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7741,43 +7746,43 @@
         <f>Fin_Analysis!I28</f>
         <v>0</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7792,43 +7797,43 @@
         <f>Fin_Analysis!I48</f>
         <v>0</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7843,43 +7848,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7894,43 +7899,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7996,43 +8001,43 @@
         <f>Fin_Analysis!D3</f>
         <v>0</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8047,43 +8052,43 @@
         <f>Fin_Analysis!D4</f>
         <v>0</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8098,43 +8103,43 @@
         <f>Fin_Analysis!C63</f>
         <v>0</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8196,47 +8201,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156" t="e">
+      <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8265,47 +8270,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.77696054205677556</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.80365122476803419</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8316,47 +8321,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.14204607870614464</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.15260801965048315</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8367,47 +8372,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8418,47 +8423,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>8.274315042185636E-3</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>5.9452255946665479E-3</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8469,47 +8474,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.0871617989521474E-3</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>1.2652722890649846E-3</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8520,47 +8525,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>2.3595955443495159E-2</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>1.3054977086595363E-2</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8571,47 +8576,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>4.8035946952446888E-2</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>2.347528061115577E-2</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8640,47 +8645,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8691,47 +8696,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8759,47 +8764,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157" t="e">
+      <c r="C53" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8809,47 +8814,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158" t="str">
+      <c r="C54" s="157" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8859,47 +8864,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.17225256432181468</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>0.25325471900179536</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8909,47 +8914,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159" t="e">
+      <c r="C56" s="158" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10247,8 +10252,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10297,7 +10302,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>0</v>
       </c>
@@ -10394,7 +10399,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45565</v>
       </c>
@@ -10441,7 +10446,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10469,7 +10474,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10497,7 +10502,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10525,7 +10530,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10538,7 +10543,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10553,7 +10558,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10580,7 +10585,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10602,7 +10607,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10624,7 +10629,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10645,7 +10650,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10670,7 +10675,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10697,7 +10702,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10718,7 +10723,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10883,7 +10888,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10912,7 +10917,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10938,7 +10943,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10965,7 +10970,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10992,7 +10997,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11008,7 +11013,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11022,7 +11027,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11049,7 +11054,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11075,7 +11080,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11102,7 +11107,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11129,7 +11134,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11150,7 +11155,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11171,7 +11176,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11192,7 +11197,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11213,7 +11218,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11359,7 +11364,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>0</v>
       </c>
@@ -11468,11 +11473,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11483,11 +11488,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11499,11 +11504,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11599,8 +11604,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11680,8 +11685,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>0</v>
@@ -11717,19 +11722,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45016</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11739,18 +11744,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11761,17 +11766,17 @@
         <f>Data!C6</f>
         <v>3814213</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>3814213</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>3814213</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11782,23 +11787,23 @@
         <f>Data!C8</f>
         <v>2963493</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.77696054205677556</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>2963493</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.77696054205677556</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>2963493</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.77696054205677556</v>
       </c>
@@ -11808,21 +11813,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>850720</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>850720</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>850720</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11833,23 +11838,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>541794</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.14204607870614464</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>541794</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.14204607870614464</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>541794</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.14204607870614464</v>
       </c>
@@ -11863,54 +11868,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>4146.666666666667</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>1.0871617989521474E-3</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>4146.666666666667</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>1.0871617989521474E-3</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>4146.666666666667</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>1.0871617989521474E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>304779.33333333331</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>7.9906217438127689E-2</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>304779.33333333331</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>7.9906217438127689E-2</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>304779.33333333331</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>7.9906217438127689E-2</v>
       </c>
@@ -11924,27 +11929,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11956,23 +11961,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>31560</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>8.274315042185636E-3</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>31560</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>8.274315042185636E-3</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>31560</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>8.274315042185636E-3</v>
       </c>
@@ -11986,23 +11991,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>90000</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>2.3595955443495159E-2</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>90000</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>2.3595955443495159E-2</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>90000</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>2.3595955443495159E-2</v>
       </c>
@@ -12012,27 +12017,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>183219.33333333331</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>4.8035946952446888E-2</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>183219.33333333331</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>4.8035946952446888E-2</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>183219.33333333331</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>4.8035946952446888E-2</v>
       </c>
@@ -12042,49 +12047,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>137414.5</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>3.6026960214335171E-2</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>137414.5</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>3.6026960214335171E-2</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>137414.5</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>3.6026960214335171E-2</v>
       </c>
@@ -12094,69 +12099,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.14705985689392354</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.14705985689392354</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.14705985689392354</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10442528825421986</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>0.10596602276592509</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10442528825421986</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>0.10596602276592509</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10442528825421986</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>0.10596602276592509</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>7.8199999999999992E-2</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>0.53175626341324955</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>7.8199999999999992E-2</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0.53175626341324955</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>7.8199999999999992E-2</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0.53175626341324955</v>
       </c>
@@ -12166,21 +12171,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5528801087915448E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>5.634809631477166E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5528801087915448E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>5.634809631477166E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5528801087915448E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>5.634809631477166E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12202,22 +12207,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12227,9 +12232,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12237,15 +12242,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>29.15669093793063</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>28.691640366181996</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>29.15669093793063</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>28.691640366181996</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12253,24 +12258,27 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>12.362877785192744</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>12.128143814952864</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.362877785192744</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>12.128143814952864</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12291,14 +12299,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12313,21 +12321,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13545263.393959526</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>13329215.815060513</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.496028412621584</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>14.264816087610996</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.496028412621584</v>
+        <v>14.264816087610996</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>21.330935596255163</v>
+        <v>20.843438014388479</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12339,14 +12347,14 @@
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12357,17 +12365,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12376,27 +12384,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>13545263.393959526</v>
+        <v>13329215.815060513</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.321624150728345</v>
+        <v>12.125093674469346</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>14.496028412621584</v>
+        <v>14.264816087610996</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.496028412621584</v>
+        <v>14.264816087610996</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.496028412621584</v>
+        <v>14.264816087610996</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>21.330935596255163</v>
+        <v>20.843438014388479</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12415,14 +12423,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12437,27 +12445,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>5743396.4733602898</v>
+        <v>5634346.5999992248</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.2245549337137991</v>
+        <v>5.1253563050744493</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.1465352161338815</v>
+        <v>6.0298309471464115</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.1465352161338815</v>
+        <v>6.0298309471464115</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.1465352161338815</v>
+        <v>6.0298309471464115</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.0446392007143448</v>
+        <v>8.8106574113663392</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12476,14 +12484,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12498,27 +12506,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9644329.9336599056</v>
+        <v>9481781.2075298689</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>8.7730895422210722</v>
+        <v>8.6252249897718976</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>10.321281814377732</v>
+        <v>10.147323517378704</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>10.321281814377732</v>
+        <v>10.147323517378704</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>10.321281814377732</v>
+        <v>10.147323517378704</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>15.187787398484755</v>
+        <v>14.827047712877409</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0179.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0179.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A208F6C8-B39F-43A6-AEDD-930121F1B905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF93D05E-8517-4503-AEBD-A09DF52C6039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
@@ -939,6 +939,9 @@
   </si>
   <si>
     <t>JOHNSON ELECTRIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
   </si>
   <si>
     <t>C0006</t>
@@ -3577,7 +3580,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3630,7 +3633,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3639,7 +3642,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3655,7 +3658,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3704,7 +3707,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3722,7 +3725,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3731,7 +3734,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3740,7 +3743,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3749,7 +3752,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4166,11 +4169,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.634809631477166E-2</v>
+        <v>5.6247072381438543E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.7124878503658152E-2</v>
+        <v>4.7040390457111017E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4588,9 +4591,11 @@
         <v>248</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>266</v>
-      </c>
-      <c r="D87" s="269"/>
+        <v>267</v>
+      </c>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4902,10 +4907,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.8</v>
+        <v>10.82</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4943,7 +4948,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>10091.649967200001</v>
+        <v>10110.33820788</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4981,7 +4986,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>Y</v>
+        <v xml:space="preserve">Superior Cycl. </v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
@@ -4992,7 +4997,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7820900281270342</v>
+        <v>7.782523314158122</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5038,10 +5043,10 @@
         <v>253</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5088,7 +5093,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5175,7 +5180,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.4369871954990874</v>
+        <v>9.4539367277136428</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5207,7 +5212,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.634809631477166E-2</v>
+        <v>5.6247072381438543E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5237,20 +5242,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.6252249897718976</v>
+        <v>8.6192743858136662</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>17.05110486980902</v>
+        <v>15.527076631268542</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.147323517378704</v>
+        <v>10.140322806839608</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>14.827047712877409</v>
+        <v>13.501805766320473</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12122,17 +12127,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10596602276592509</v>
+        <v>0.1057760411140219</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10596602276592509</v>
+        <v>0.1057760411140219</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10596602276592509</v>
+        <v>0.1057760411140219</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12173,17 +12178,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.634809631477166E-2</v>
+        <v>5.6247072381438543E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.634809631477166E-2</v>
+        <v>5.6247072381438543E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.634809631477166E-2</v>
+        <v>5.6247072381438543E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12232,7 +12237,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12243,14 +12248,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>28.691640366181996</v>
+        <v>28.668601838170385</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>28.691640366181996</v>
+        <v>28.668601838170385</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12264,21 +12269,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.128143814952864</v>
+        <v>12.123020484043641</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.128143814952864</v>
+        <v>12.123020484043641</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12321,21 +12326,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13329215.815060513</v>
+        <v>13318512.853918908</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.264816087610996</v>
+        <v>14.253361867468104</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.264816087610996</v>
+        <v>14.253361867468104</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>20.843438014388479</v>
+        <v>18.978303464050377</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12384,27 +12389,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>13329215.815060513</v>
+        <v>13318512.853918908</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.125093674469346</v>
+        <v>12.115357587347889</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>14.264816087610996</v>
+        <v>14.253361867468104</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.264816087610996</v>
+        <v>14.253361867468104</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.264816087610996</v>
+        <v>14.253361867468104</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>20.843438014388479</v>
+        <v>18.978303464050377</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12445,27 +12450,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>5634346.5999992248</v>
+        <v>5631966.4647922637</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.1253563050744493</v>
+        <v>5.1231911842794444</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.0298309471464115</v>
+        <v>6.0272837462111113</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.0298309471464115</v>
+        <v>6.0272837462111113</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.0298309471464115</v>
+        <v>6.0272837462111113</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.8106574113663392</v>
+        <v>8.0253080685905669</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12506,27 +12511,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9481781.2075298689</v>
+        <v>9475239.6593555864</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>8.6252249897718976</v>
+        <v>8.6192743858136662</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>10.147323517378704</v>
+        <v>10.140322806839608</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>10.147323517378704</v>
+        <v>10.140322806839608</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>10.147323517378704</v>
+        <v>10.140322806839608</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>14.827047712877409</v>
+        <v>13.501805766320473</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0179.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0179.HK_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF93D05E-8517-4503-AEBD-A09DF52C6039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97866A24-B69E-7B41-B675-33459DB5F17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -938,9 +949,6 @@
     <t>0179.HK</t>
   </si>
   <si>
-    <t>JOHNSON ELECTRIC</t>
-  </si>
-  <si>
     <t xml:space="preserve">Superior Cycl. </t>
   </si>
   <si>
@@ -964,6 +972,9 @@
   <si>
     <t>HKD</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>德昌電機</t>
   </si>
 </sst>
 </file>
@@ -971,19 +982,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="13">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
-    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="175" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1520,7 +1531,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="287">
@@ -1576,8 +1587,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1600,14 +1611,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1637,7 +1648,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1739,7 +1750,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1767,7 +1778,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1820,10 +1831,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1859,7 +1870,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1889,16 +1900,16 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1919,7 +1930,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1941,10 +1952,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1953,10 +1964,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1973,7 +1984,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1985,13 +1996,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2029,7 +2040,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2073,19 +2084,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2110,7 +2121,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2122,10 +2133,10 @@
     <xf numFmtId="3" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2156,19 +2167,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2177,7 +2188,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2191,7 +2202,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2204,14 +2215,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -2407,7 +2418,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2469,7 +2480,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2681,10 +2692,10 @@
                   <c:v>8.274315042185636E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3595955443495159E-2</c:v>
+                  <c:v>1.8876764354796127E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8035946952446888E-2</c:v>
+                  <c:v>5.275513804114592E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2741,7 +2752,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2771,7 +2782,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3579,24 +3590,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
@@ -3604,15 +3615,15 @@
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
@@ -3620,7 +3631,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
@@ -3628,24 +3639,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E8" s="267"/>
     </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
@@ -3653,15 +3664,15 @@
         <v>934412034</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
@@ -3669,7 +3680,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
@@ -3677,7 +3688,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
@@ -3685,7 +3696,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="218" t="s">
         <v>255</v>
       </c>
@@ -3693,7 +3704,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
@@ -3702,16 +3713,16 @@
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
@@ -3720,43 +3731,43 @@
       </c>
       <c r="D18" s="24"/>
     </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" ht="84" x14ac:dyDescent="0.15">
       <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B24" s="115" t="s">
         <v>133</v>
       </c>
@@ -3805,7 +3816,7 @@
         <v>41364</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
@@ -3825,7 +3836,7 @@
       <c r="L25" s="149"/>
       <c r="M25" s="149"/>
     </row>
-    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
@@ -3845,7 +3856,7 @@
       <c r="L26" s="150"/>
       <c r="M26" s="150"/>
     </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
@@ -3865,7 +3876,7 @@
       <c r="L27" s="150"/>
       <c r="M27" s="150"/>
     </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
@@ -3881,7 +3892,7 @@
       <c r="L28" s="150"/>
       <c r="M28" s="150"/>
     </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B29" s="97" t="s">
         <v>256</v>
       </c>
@@ -3901,7 +3912,7 @@
       <c r="L29" s="150"/>
       <c r="M29" s="150"/>
     </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
@@ -3921,7 +3932,7 @@
       <c r="L30" s="150"/>
       <c r="M30" s="150"/>
     </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
@@ -3941,7 +3952,7 @@
       <c r="L31" s="150"/>
       <c r="M31" s="150"/>
     </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
@@ -3961,7 +3972,7 @@
       <c r="L32" s="150"/>
       <c r="M32" s="150"/>
     </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
@@ -3981,7 +3992,7 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
@@ -3997,7 +4008,7 @@
       <c r="L34" s="150"/>
       <c r="M34" s="150"/>
     </row>
-    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
@@ -4013,7 +4024,7 @@
       <c r="L35" s="150"/>
       <c r="M35" s="150"/>
     </row>
-    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
@@ -4029,7 +4040,7 @@
       <c r="L36" s="150"/>
       <c r="M36" s="150"/>
     </row>
-    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
@@ -4045,7 +4056,7 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
@@ -4061,7 +4072,7 @@
       <c r="L38" s="150"/>
       <c r="M38" s="150"/>
     </row>
-    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
@@ -4077,7 +4088,7 @@
       <c r="L39" s="150"/>
       <c r="M39" s="150"/>
     </row>
-    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
@@ -4093,7 +4104,7 @@
       <c r="L40" s="150"/>
       <c r="M40" s="150"/>
     </row>
-    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
@@ -4109,7 +4120,7 @@
       <c r="L41" s="150"/>
       <c r="M41" s="150"/>
     </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
@@ -4125,7 +4136,7 @@
       <c r="L42" s="150"/>
       <c r="M42" s="150"/>
     </row>
-    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
@@ -4141,7 +4152,7 @@
       <c r="L43" s="150"/>
       <c r="M43" s="150"/>
     </row>
-    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
@@ -4163,7 +4174,7 @@
       <c r="L44" s="250"/>
       <c r="M44" s="250"/>
     </row>
-    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B45" s="74" t="s">
         <v>252</v>
       </c>
@@ -4212,7 +4223,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
@@ -4226,7 +4237,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
         <v>37</v>
       </c>
@@ -4236,7 +4247,7 @@
       </c>
       <c r="E48" s="112"/>
     </row>
-    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>135</v>
       </c>
@@ -4246,7 +4257,7 @@
       </c>
       <c r="E49" s="112"/>
     </row>
-    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>116</v>
       </c>
@@ -4257,7 +4268,7 @@
       </c>
       <c r="E50" s="112"/>
     </row>
-    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="3" t="s">
         <v>41</v>
       </c>
@@ -4267,7 +4278,7 @@
       </c>
       <c r="E51" s="112"/>
     </row>
-    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>43</v>
       </c>
@@ -4277,7 +4288,7 @@
       </c>
       <c r="E52" s="112"/>
     </row>
-    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>158</v>
       </c>
@@ -4288,7 +4299,7 @@
       </c>
       <c r="E53" s="112"/>
     </row>
-    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>117</v>
       </c>
@@ -4298,7 +4309,7 @@
       </c>
       <c r="E54" s="112"/>
     </row>
-    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
         <v>46</v>
       </c>
@@ -4309,7 +4320,7 @@
       </c>
       <c r="E55" s="112"/>
     </row>
-    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>47</v>
       </c>
@@ -4322,7 +4333,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>119</v>
       </c>
@@ -4334,7 +4345,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>49</v>
       </c>
@@ -4345,7 +4356,7 @@
       </c>
       <c r="E58" s="112"/>
     </row>
-    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B59" s="35" t="s">
         <v>50</v>
       </c>
@@ -4356,7 +4367,7 @@
       </c>
       <c r="E59" s="112"/>
     </row>
-    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>60</v>
       </c>
@@ -4367,7 +4378,7 @@
       </c>
       <c r="E60" s="112"/>
     </row>
-    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>62</v>
       </c>
@@ -4378,7 +4389,7 @@
       </c>
       <c r="E61" s="112"/>
     </row>
-    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>64</v>
       </c>
@@ -4389,7 +4400,7 @@
       </c>
       <c r="E62" s="112"/>
     </row>
-    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>159</v>
       </c>
@@ -4400,7 +4411,7 @@
       </c>
       <c r="E63" s="112"/>
     </row>
-    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
         <v>67</v>
       </c>
@@ -4410,7 +4421,7 @@
       </c>
       <c r="E64" s="112"/>
     </row>
-    <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>69</v>
       </c>
@@ -4422,7 +4433,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>71</v>
       </c>
@@ -4434,7 +4445,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>48</v>
       </c>
@@ -4447,7 +4458,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>118</v>
       </c>
@@ -4458,7 +4469,7 @@
       </c>
       <c r="E68" s="112"/>
     </row>
-    <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B69" s="3" t="s">
         <v>72</v>
       </c>
@@ -4469,7 +4480,7 @@
       </c>
       <c r="E69" s="112"/>
     </row>
-    <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B70" s="3" t="s">
         <v>73</v>
       </c>
@@ -4479,7 +4490,7 @@
       </c>
       <c r="E70" s="112"/>
     </row>
-    <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
         <v>74</v>
       </c>
@@ -4490,7 +4501,7 @@
       </c>
       <c r="E71" s="112"/>
     </row>
-    <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
@@ -4500,85 +4511,85 @@
       </c>
       <c r="E72" s="249"/>
     </row>
-    <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C74" s="59"/>
     </row>
-    <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B75" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B76" s="86" t="s">
         <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
-    <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="83"/>
     </row>
-    <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B78" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B79" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
-    <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B80" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B81" s="86" t="s">
         <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B82" s="80" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="83"/>
     </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B83" s="73" t="s">
         <v>220</v>
       </c>
       <c r="C83" s="59"/>
     </row>
-    <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B84" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B85" s="20" t="s">
         <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
@@ -4586,18 +4597,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
@@ -4614,7 +4625,7 @@
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B90" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
@@ -4630,7 +4641,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B91" s="3" t="s">
         <v>126</v>
       </c>
@@ -4648,7 +4659,7 @@
         <v>3814213</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B92" s="104" t="s">
         <v>105</v>
       </c>
@@ -4669,7 +4680,7 @@
         <v>2963493</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B93" s="104" t="s">
         <v>247</v>
       </c>
@@ -4690,7 +4701,7 @@
         <v>541794</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B94" s="104" t="s">
         <v>256</v>
       </c>
@@ -4708,7 +4719,7 @@
         <v>31560</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B95" s="28" t="s">
         <v>246</v>
       </c>
@@ -4725,11 +4736,11 @@
         <v>90000</v>
       </c>
       <c r="F95" s="252">
-        <f>F91*D95</f>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+        <f>F91*D95*0.8</f>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>109</v>
       </c>
@@ -4747,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" ht="14" x14ac:dyDescent="0.15">
       <c r="B97" s="73" t="s">
         <v>172</v>
       </c>
@@ -4765,7 +4776,7 @@
         <v>4146.666666666667</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" ht="14" x14ac:dyDescent="0.15">
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
@@ -4854,22 +4865,22 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -4878,14 +4889,14 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="25" t="str">
         <f>C3&amp;" : "&amp;C4</f>
-        <v>0179.HK : JOHNSON ELECTRIC</v>
+        <v>0179.HK : 德昌電機</v>
       </c>
       <c r="D2" s="87"/>
       <c r="E2" s="7"/>
@@ -4893,7 +4904,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
@@ -4910,16 +4921,16 @@
         <v>10.82</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
       <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
-        <v>JOHNSON ELECTRIC</v>
+        <v>德昌電機</v>
       </c>
       <c r="D4" s="280"/>
       <c r="E4" s="87"/>
@@ -4933,7 +4944,7 @@
       <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
@@ -4954,7 +4965,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
@@ -4980,7 +4991,7 @@
       <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
@@ -5004,8 +5015,8 @@
         <v>USD/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="139" t="s">
         <v>190</v>
       </c>
@@ -5013,7 +5024,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
@@ -5024,7 +5035,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
@@ -5038,7 +5049,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="87" t="s">
         <v>253</v>
       </c>
@@ -5050,8 +5061,8 @@
       </c>
       <c r="F12" s="110"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
@@ -5062,7 +5073,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
@@ -5073,7 +5084,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
@@ -5088,7 +5099,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="87" t="s">
         <v>254</v>
       </c>
@@ -5097,8 +5108,8 @@
       </c>
       <c r="D17" s="176"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="142" t="s">
         <v>183</v>
       </c>
@@ -5113,7 +5124,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
@@ -5128,7 +5139,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
@@ -5139,7 +5150,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
@@ -5151,7 +5162,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
@@ -5167,7 +5178,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
@@ -5180,32 +5191,32 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.4539367277136428</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>8.608238363248109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
-        <v>2.3595955443495159E-2</v>
+        <v>1.8876764354796127E-2</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.53175626341324955</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.48418820629429243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
-        <v>4.8035946952446888E-2</v>
+        <v>5.275513804114592E-2</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
@@ -5215,8 +5226,8 @@
         <v>5.6247072381438543E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>6</v>
@@ -5236,45 +5247,45 @@
       </c>
       <c r="H28" s="273"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="87" t="s">
         <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.6192743858136662</v>
+        <v>9.0761044052567073</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>15.527076631268542</v>
+        <v>17.172977295721378</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.140322806839608</v>
+        <v>10.677769888537304</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.501805766320473</v>
+        <v>14.933023735409893</v>
       </c>
       <c r="H29" s="274"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>222</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
       <c r="C32" s="224"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
@@ -5284,7 +5295,7 @@
         <v>Strongly agree</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
         <v>225</v>
@@ -5295,14 +5306,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
       <c r="C35" s="224"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
@@ -5312,7 +5323,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
         <v>239</v>
@@ -5322,14 +5333,14 @@
         <v>agree</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
       <c r="C38" s="224"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
@@ -5339,7 +5350,7 @@
         <v>agree</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
         <v>231</v>
@@ -5349,19 +5360,19 @@
         <v>Strongly agree</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
         <v>229</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
         <v>230</v>
@@ -5371,886 +5382,886 @@
         <v>Consumer Monopoly</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -6319,13 +6330,13 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -6333,7 +6344,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -6341,7 +6352,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>8</v>
@@ -6366,7 +6377,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
         <v>9</v>
@@ -6395,7 +6406,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
         <v>10</v>
@@ -6417,7 +6428,7 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
         <v>133</v>
@@ -6467,7 +6478,7 @@
         <v>41364</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>11</v>
@@ -6518,7 +6529,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>12</v>
@@ -6569,7 +6580,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>105</v>
@@ -6620,7 +6631,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>102</v>
@@ -6671,7 +6682,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>103</v>
@@ -6722,7 +6733,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
         <v>106</v>
@@ -6773,7 +6784,7 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
         <v>240</v>
@@ -6824,7 +6835,7 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
         <v>241</v>
@@ -6875,7 +6886,7 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
         <v>233</v>
@@ -6926,7 +6937,7 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
         <v>242</v>
@@ -6977,7 +6988,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
         <v>109</v>
@@ -7028,7 +7039,7 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
         <v>256</v>
@@ -7079,7 +7090,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
         <v>98</v>
@@ -7130,7 +7141,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
         <v>104</v>
@@ -7181,7 +7192,7 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
         <v>235</v>
@@ -7232,7 +7243,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
         <v>107</v>
@@ -7283,7 +7294,7 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>111</v>
@@ -7334,7 +7345,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
         <v>112</v>
@@ -7385,7 +7396,7 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
         <v>113</v>
@@ -7436,7 +7447,7 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
         <v>128</v>
@@ -7487,7 +7498,7 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
         <v>134</v>
@@ -7538,7 +7549,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
         <v>13</v>
@@ -7589,7 +7600,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>14</v>
@@ -7640,7 +7651,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>116</v>
@@ -7691,7 +7702,7 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
         <v>148</v>
@@ -7742,7 +7753,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>15</v>
@@ -7793,7 +7804,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>115</v>
@@ -7844,7 +7855,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>16</v>
@@ -7895,7 +7906,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>17</v>
@@ -7946,7 +7957,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>18</v>
@@ -7997,7 +8008,7 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
         <v>137</v>
@@ -8048,7 +8059,7 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
         <v>138</v>
@@ -8099,7 +8110,7 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
         <v>136</v>
@@ -8150,7 +8161,7 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
         <v>140</v>
@@ -8201,7 +8212,7 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
         <v>157</v>
@@ -8252,7 +8263,7 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>251</v>
@@ -8270,7 +8281,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
         <v>97</v>
@@ -8321,7 +8332,7 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
         <v>234</v>
@@ -8372,7 +8383,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>108</v>
@@ -8423,7 +8434,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>121</v>
@@ -8474,7 +8485,7 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
         <v>129</v>
@@ -8525,7 +8536,7 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
         <v>236</v>
@@ -8576,7 +8587,7 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
         <v>123</v>
@@ -8627,7 +8638,7 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
         <v>149</v>
@@ -8645,7 +8656,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
         <v>146</v>
@@ -8696,7 +8707,7 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
         <v>147</v>
@@ -8747,7 +8758,7 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
         <v>124</v>
@@ -8764,7 +8775,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
         <v>19</v>
@@ -8814,7 +8825,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
         <v>120</v>
@@ -8864,7 +8875,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>122</v>
@@ -8914,7 +8925,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
         <v>20</v>
@@ -8964,1260 +8975,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10257,11 +10268,11 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -10269,11 +10280,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>21</v>
@@ -10289,7 +10300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
@@ -10313,7 +10324,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
@@ -10329,7 +10340,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
@@ -10344,7 +10355,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>26</v>
       </c>
@@ -10369,7 +10380,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>28</v>
       </c>
@@ -10392,13 +10403,13 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>31</v>
@@ -10418,7 +10429,7 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="22" t="s">
         <v>32</v>
       </c>
@@ -10443,7 +10454,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
@@ -10471,7 +10482,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>135</v>
       </c>
@@ -10499,7 +10510,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>116</v>
       </c>
@@ -10527,7 +10538,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
@@ -10555,7 +10566,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
@@ -10582,7 +10593,7 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>158</v>
       </c>
@@ -10604,7 +10615,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>117</v>
       </c>
@@ -10626,7 +10637,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>46</v>
       </c>
@@ -10647,7 +10658,7 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
@@ -10672,7 +10683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>119</v>
       </c>
@@ -10699,7 +10710,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
@@ -10720,7 +10731,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
@@ -10746,7 +10757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -10755,7 +10766,7 @@
       </c>
       <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>52</v>
       </c>
@@ -10777,7 +10788,7 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>54</v>
       </c>
@@ -10806,7 +10817,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>56</v>
       </c>
@@ -10839,7 +10850,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>58</v>
       </c>
@@ -10872,7 +10883,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="78" t="s">
         <v>14</v>
       </c>
@@ -10902,7 +10913,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -10914,7 +10925,7 @@
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>60</v>
       </c>
@@ -10940,7 +10951,7 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>62</v>
       </c>
@@ -10967,7 +10978,7 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>64</v>
       </c>
@@ -10994,7 +11005,7 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>159</v>
       </c>
@@ -11024,7 +11035,7 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
@@ -11051,7 +11062,7 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
@@ -11077,7 +11088,7 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
@@ -11104,7 +11115,7 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>48</v>
       </c>
@@ -11131,7 +11142,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>118</v>
       </c>
@@ -11152,7 +11163,7 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>72</v>
       </c>
@@ -11173,7 +11184,7 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>73</v>
       </c>
@@ -11194,7 +11205,7 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>74</v>
       </c>
@@ -11215,7 +11226,7 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>75</v>
       </c>
@@ -11241,7 +11252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -11250,7 +11261,7 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>76</v>
       </c>
@@ -11269,7 +11280,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>78</v>
       </c>
@@ -11288,7 +11299,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>79</v>
       </c>
@@ -11318,7 +11329,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>81</v>
       </c>
@@ -11348,7 +11359,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="80" t="s">
         <v>83</v>
       </c>
@@ -11375,7 +11386,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>13</v>
       </c>
@@ -11402,20 +11413,20 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>87</v>
       </c>
@@ -11432,7 +11443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>88</v>
       </c>
@@ -11453,7 +11464,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -11462,7 +11473,7 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>150</v>
       </c>
@@ -11473,7 +11484,7 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>89</v>
       </c>
@@ -11488,7 +11499,7 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>90</v>
       </c>
@@ -11504,7 +11515,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>92</v>
       </c>
@@ -11519,7 +11530,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -11528,7 +11539,7 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>153</v>
       </c>
@@ -11542,7 +11553,7 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>94</v>
       </c>
@@ -11563,7 +11574,7 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>139</v>
       </c>
@@ -11584,7 +11595,7 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>141</v>
       </c>
@@ -11605,7 +11616,7 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
@@ -11620,7 +11631,7 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>142</v>
       </c>
@@ -11641,7 +11652,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -11651,7 +11662,7 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>154</v>
       </c>
@@ -11665,7 +11676,7 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>140</v>
       </c>
@@ -11686,7 +11697,7 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
@@ -11701,7 +11712,7 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>143</v>
       </c>
@@ -11722,7 +11733,7 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
         <v>127</v>
@@ -11744,7 +11755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
@@ -11763,7 +11774,7 @@
       <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>126</v>
       </c>
@@ -11784,7 +11795,7 @@
       <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="104" t="s">
         <v>105</v>
       </c>
@@ -11814,7 +11825,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
@@ -11835,7 +11846,7 @@
       <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="104" t="s">
         <v>247</v>
       </c>
@@ -11865,7 +11876,7 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="73" t="s">
         <v>172</v>
       </c>
@@ -11895,7 +11906,7 @@
       </c>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
@@ -11926,7 +11937,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>109</v>
       </c>
@@ -11958,7 +11969,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="104" t="s">
         <v>256</v>
       </c>
@@ -11988,7 +11999,7 @@
       </c>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="28" t="s">
         <v>246</v>
       </c>
@@ -12010,15 +12021,15 @@
       </c>
       <c r="H82" s="238">
         <f>Inputs!F95</f>
-        <v>90000</v>
+        <v>72000</v>
       </c>
       <c r="I82" s="160">
         <f>H82/$H$74</f>
-        <v>2.3595955443495159E-2</v>
+        <v>1.8876764354796127E-2</v>
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
@@ -12040,15 +12051,15 @@
       </c>
       <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
-        <v>183219.33333333331</v>
+        <v>201219.33333333331</v>
       </c>
       <c r="I83" s="164">
         <f>H83/$H$74</f>
-        <v>4.8035946952446888E-2</v>
+        <v>5.275513804114592E-2</v>
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
@@ -12069,7 +12080,7 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
@@ -12092,15 +12103,15 @@
       <c r="G85" s="260"/>
       <c r="H85" s="264">
         <f>H83*(1-I84)</f>
-        <v>137414.5</v>
+        <v>150914.5</v>
       </c>
       <c r="I85" s="258">
         <f>H85/$H$74</f>
-        <v>3.6026960214335171E-2</v>
+        <v>3.9566353530859445E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
@@ -12116,12 +12127,12 @@
       <c r="F86" s="209"/>
       <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
-        <v>0.14705985689392354</v>
+        <v>0.1615074447981692</v>
       </c>
       <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
@@ -12137,12 +12148,12 @@
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1057760411140219</v>
+        <v>0.11616778692715875</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
@@ -12168,11 +12179,11 @@
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.53175626341324955</v>
+        <v>0.48418820629429243</v>
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
@@ -12193,11 +12204,11 @@
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
       <c r="B91" s="106" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
@@ -12208,7 +12219,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
@@ -12230,7 +12241,7 @@
       <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
@@ -12255,11 +12266,11 @@
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>28.668601838170385</v>
+        <v>32.992594040864624</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
@@ -12287,11 +12298,11 @@
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5"/>
       <c r="B96" s="106" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -12320,13 +12331,13 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13318512.853918908</v>
+        <v>15327300.937024942</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
@@ -12336,15 +12347,15 @@
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.253361867468104</v>
+        <v>16.403150194258888</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>18.978303464050377</v>
+        <v>21.840739402229218</v>
       </c>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="28" t="s">
         <v>144</v>
       </c>
@@ -12362,7 +12373,7 @@
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B99" s="105" t="s">
         <v>145</v>
       </c>
@@ -12383,17 +12394,17 @@
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>13318512.853918908</v>
+        <v>15327300.937024942</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.115357587347889</v>
+        <v>13.029017626233971</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
@@ -12401,23 +12412,23 @@
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.253361867468104</v>
+        <v>15.328256030863496</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.253361867468104</v>
+        <v>16.403150194258888</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>18.978303464050377</v>
+        <v>21.840739402229218</v>
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="10" t="s">
         <v>162</v>
       </c>
@@ -12444,7 +12455,7 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="1" t="s">
         <v>161</v>
       </c>
@@ -12474,11 +12485,11 @@
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="10" t="s">
         <v>197</v>
       </c>
@@ -12505,7 +12516,7 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
         <v>198</v>
       </c>
@@ -12515,7 +12526,7 @@
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>8.6192743858136662</v>
+        <v>9.0761044052567073</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
@@ -12523,22 +12534,22 @@
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>10.140322806839608</v>
+        <v>10.677769888537304</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>10.140322806839608</v>
+        <v>11.215216970235</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>13.501805766320473</v>
+        <v>14.933023735409893</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="10" t="s">
         <v>165</v>
       </c>

--- a/financial_models/opportunities/0179.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0179.HK_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97866A24-B69E-7B41-B675-33459DB5F17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11C46FC7-5B13-456A-AE7D-F54B5A4E529C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -27,17 +27,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -982,19 +971,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="13">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
-    <numFmt numFmtId="175" formatCode="&quot;g = &quot;0.00%"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1531,7 +1520,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="287">
@@ -1587,8 +1576,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1611,14 +1600,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1648,7 +1637,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1750,7 +1739,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1778,7 +1767,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1831,10 +1820,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1870,7 +1859,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1900,16 +1889,16 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1930,7 +1919,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1952,10 +1941,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1964,10 +1953,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1984,7 +1973,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1996,13 +1985,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2040,7 +2029,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2084,19 +2073,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2121,7 +2110,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2133,10 +2122,10 @@
     <xf numFmtId="3" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2167,19 +2156,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2188,7 +2177,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2202,7 +2191,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2215,14 +2204,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -2418,7 +2407,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2480,7 +2469,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2752,7 +2741,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2782,7 +2771,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3594,20 +3583,20 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
@@ -3615,7 +3604,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
@@ -3623,7 +3612,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
@@ -3631,7 +3620,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
@@ -3639,7 +3628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
@@ -3648,7 +3637,7 @@
       </c>
       <c r="E8" s="267"/>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
@@ -3656,7 +3645,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
@@ -3664,7 +3653,7 @@
         <v>934412034</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
@@ -3672,7 +3661,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
@@ -3680,7 +3669,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
@@ -3688,7 +3677,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
@@ -3696,7 +3685,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
         <v>255</v>
       </c>
@@ -3704,7 +3693,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
@@ -3713,7 +3702,7 @@
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
@@ -3722,7 +3711,7 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
@@ -3731,7 +3720,7 @@
       </c>
       <c r="D18" s="24"/>
     </row>
-    <row r="19" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
@@ -3740,7 +3729,7 @@
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
@@ -3749,7 +3738,7 @@
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
@@ -3758,7 +3747,7 @@
       </c>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="2:13" ht="84" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
@@ -3767,7 +3756,7 @@
       </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
         <v>133</v>
       </c>
@@ -3816,7 +3805,7 @@
         <v>41364</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
@@ -3836,7 +3825,7 @@
       <c r="L25" s="149"/>
       <c r="M25" s="149"/>
     </row>
-    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
@@ -3856,7 +3845,7 @@
       <c r="L26" s="150"/>
       <c r="M26" s="150"/>
     </row>
-    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
@@ -3876,7 +3865,7 @@
       <c r="L27" s="150"/>
       <c r="M27" s="150"/>
     </row>
-    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
@@ -3892,7 +3881,7 @@
       <c r="L28" s="150"/>
       <c r="M28" s="150"/>
     </row>
-    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>256</v>
       </c>
@@ -3912,7 +3901,7 @@
       <c r="L29" s="150"/>
       <c r="M29" s="150"/>
     </row>
-    <row r="30" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
@@ -3932,7 +3921,7 @@
       <c r="L30" s="150"/>
       <c r="M30" s="150"/>
     </row>
-    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
@@ -3952,7 +3941,7 @@
       <c r="L31" s="150"/>
       <c r="M31" s="150"/>
     </row>
-    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
@@ -3972,7 +3961,7 @@
       <c r="L32" s="150"/>
       <c r="M32" s="150"/>
     </row>
-    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
@@ -3992,7 +3981,7 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
@@ -4008,7 +3997,7 @@
       <c r="L34" s="150"/>
       <c r="M34" s="150"/>
     </row>
-    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
@@ -4024,7 +4013,7 @@
       <c r="L35" s="150"/>
       <c r="M35" s="150"/>
     </row>
-    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
@@ -4040,7 +4029,7 @@
       <c r="L36" s="150"/>
       <c r="M36" s="150"/>
     </row>
-    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
@@ -4056,7 +4045,7 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
@@ -4072,7 +4061,7 @@
       <c r="L38" s="150"/>
       <c r="M38" s="150"/>
     </row>
-    <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
@@ -4088,7 +4077,7 @@
       <c r="L39" s="150"/>
       <c r="M39" s="150"/>
     </row>
-    <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
@@ -4104,7 +4093,7 @@
       <c r="L40" s="150"/>
       <c r="M40" s="150"/>
     </row>
-    <row r="41" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
@@ -4120,7 +4109,7 @@
       <c r="L41" s="150"/>
       <c r="M41" s="150"/>
     </row>
-    <row r="42" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
@@ -4136,7 +4125,7 @@
       <c r="L42" s="150"/>
       <c r="M42" s="150"/>
     </row>
-    <row r="43" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
@@ -4152,7 +4141,7 @@
       <c r="L43" s="150"/>
       <c r="M43" s="150"/>
     </row>
-    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
@@ -4174,17 +4163,17 @@
       <c r="L44" s="250"/>
       <c r="M44" s="250"/>
     </row>
-    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>252</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.6247072381438543E-2</v>
+        <v>5.6663180634814118E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.7040390457111017E-2</v>
+        <v>4.7388388919652726E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4223,7 +4212,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
@@ -4237,7 +4226,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
         <v>37</v>
       </c>
@@ -4247,7 +4236,7 @@
       </c>
       <c r="E48" s="112"/>
     </row>
-    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
         <v>135</v>
       </c>
@@ -4257,7 +4246,7 @@
       </c>
       <c r="E49" s="112"/>
     </row>
-    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>116</v>
       </c>
@@ -4268,7 +4257,7 @@
       </c>
       <c r="E50" s="112"/>
     </row>
-    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
         <v>41</v>
       </c>
@@ -4278,7 +4267,7 @@
       </c>
       <c r="E51" s="112"/>
     </row>
-    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
         <v>43</v>
       </c>
@@ -4288,7 +4277,7 @@
       </c>
       <c r="E52" s="112"/>
     </row>
-    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
         <v>158</v>
       </c>
@@ -4299,7 +4288,7 @@
       </c>
       <c r="E53" s="112"/>
     </row>
-    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
         <v>117</v>
       </c>
@@ -4309,7 +4298,7 @@
       </c>
       <c r="E54" s="112"/>
     </row>
-    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
         <v>46</v>
       </c>
@@ -4320,7 +4309,7 @@
       </c>
       <c r="E55" s="112"/>
     </row>
-    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
         <v>47</v>
       </c>
@@ -4333,7 +4322,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
         <v>119</v>
       </c>
@@ -4345,7 +4334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
         <v>49</v>
       </c>
@@ -4356,7 +4345,7 @@
       </c>
       <c r="E58" s="112"/>
     </row>
-    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
         <v>50</v>
       </c>
@@ -4367,7 +4356,7 @@
       </c>
       <c r="E59" s="112"/>
     </row>
-    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
         <v>60</v>
       </c>
@@ -4378,7 +4367,7 @@
       </c>
       <c r="E60" s="112"/>
     </row>
-    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
         <v>62</v>
       </c>
@@ -4389,7 +4378,7 @@
       </c>
       <c r="E61" s="112"/>
     </row>
-    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
         <v>64</v>
       </c>
@@ -4400,7 +4389,7 @@
       </c>
       <c r="E62" s="112"/>
     </row>
-    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
         <v>159</v>
       </c>
@@ -4411,7 +4400,7 @@
       </c>
       <c r="E63" s="112"/>
     </row>
-    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
         <v>67</v>
       </c>
@@ -4421,7 +4410,7 @@
       </c>
       <c r="E64" s="112"/>
     </row>
-    <row r="65" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>69</v>
       </c>
@@ -4433,7 +4422,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
         <v>71</v>
       </c>
@@ -4445,7 +4434,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
         <v>48</v>
       </c>
@@ -4458,7 +4447,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
         <v>118</v>
       </c>
@@ -4469,7 +4458,7 @@
       </c>
       <c r="E68" s="112"/>
     </row>
-    <row r="69" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
         <v>72</v>
       </c>
@@ -4480,7 +4469,7 @@
       </c>
       <c r="E69" s="112"/>
     </row>
-    <row r="70" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
         <v>73</v>
       </c>
@@ -4490,7 +4479,7 @@
       </c>
       <c r="E70" s="112"/>
     </row>
-    <row r="71" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
         <v>74</v>
       </c>
@@ -4501,7 +4490,7 @@
       </c>
       <c r="E71" s="112"/>
     </row>
-    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
@@ -4511,85 +4500,85 @@
       </c>
       <c r="E72" s="249"/>
     </row>
-    <row r="73" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C74" s="59"/>
     </row>
-    <row r="75" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
         <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
-    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="83"/>
     </row>
-    <row r="78" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="79" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
-    <row r="80" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
-    <row r="81" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
         <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
-    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="83"/>
     </row>
-    <row r="83" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
         <v>220</v>
       </c>
       <c r="C83" s="59"/>
     </row>
-    <row r="84" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
         <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
@@ -4597,7 +4586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
@@ -4608,7 +4597,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
@@ -4625,7 +4614,7 @@
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B90" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
@@ -4641,7 +4630,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
         <v>126</v>
       </c>
@@ -4659,7 +4648,7 @@
         <v>3814213</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
         <v>105</v>
       </c>
@@ -4680,7 +4669,7 @@
         <v>2963493</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
         <v>247</v>
       </c>
@@ -4701,7 +4690,7 @@
         <v>541794</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
         <v>256</v>
       </c>
@@ -4719,7 +4708,7 @@
         <v>31560</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
         <v>246</v>
       </c>
@@ -4740,7 +4729,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>109</v>
       </c>
@@ -4758,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
         <v>172</v>
       </c>
@@ -4776,7 +4765,7 @@
         <v>4146.666666666667</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
@@ -4868,19 +4857,19 @@
       <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -4889,7 +4878,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4904,7 +4893,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
@@ -4918,13 +4907,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.82</v>
+        <v>10.74</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
@@ -4944,7 +4933,7 @@
       <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
@@ -4959,13 +4948,13 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>10110.33820788</v>
+        <v>10035.58524516</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
@@ -4991,7 +4980,7 @@
       <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
@@ -5008,15 +4997,15 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.782523314158122</v>
+        <v>7.7821299235026045</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>USD/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
         <v>190</v>
       </c>
@@ -5024,7 +5013,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
@@ -5035,7 +5024,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
@@ -5049,7 +5038,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
         <v>253</v>
       </c>
@@ -5061,8 +5050,8 @@
       </c>
       <c r="F12" s="110"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
@@ -5073,7 +5062,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
@@ -5084,7 +5073,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
@@ -5099,7 +5088,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
         <v>254</v>
       </c>
@@ -5108,8 +5097,8 @@
       </c>
       <c r="D17" s="176"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
         <v>183</v>
       </c>
@@ -5124,7 +5113,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
@@ -5139,7 +5128,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
@@ -5150,7 +5139,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
@@ -5162,7 +5151,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
@@ -5178,7 +5167,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
@@ -5191,10 +5180,10 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.608238363248109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>8.5450234326734034</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
@@ -5210,7 +5199,7 @@
         <v>0.48418820629429243</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
@@ -5223,11 +5212,11 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.6247072381438543E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5.6663180634814118E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>6</v>
@@ -5247,45 +5236,45 @@
       </c>
       <c r="H28" s="273"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
         <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>9.0761044052567073</v>
+        <v>9.1048656332934641</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>17.172977295721378</v>
+        <v>17.229624318474329</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.677769888537304</v>
+        <v>10.711606627404075</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>14.933023735409893</v>
+        <v>14.982282016064635</v>
       </c>
       <c r="H29" s="274"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>222</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
       <c r="C32" s="224"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
@@ -5295,7 +5284,7 @@
         <v>Strongly agree</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
         <v>225</v>
@@ -5306,14 +5295,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
       <c r="C35" s="224"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
@@ -5323,7 +5312,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
         <v>239</v>
@@ -5333,14 +5322,14 @@
         <v>agree</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
       <c r="C38" s="224"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
@@ -5350,7 +5339,7 @@
         <v>agree</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
         <v>231</v>
@@ -5360,19 +5349,19 @@
         <v>Strongly agree</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
         <v>229</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
         <v>230</v>
@@ -5382,886 +5371,886 @@
         <v>Consumer Monopoly</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -6336,7 +6325,7 @@
       <selection pane="topRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -6344,7 +6333,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -6352,7 +6341,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>8</v>
@@ -6377,7 +6366,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
         <v>9</v>
@@ -6406,7 +6395,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
         <v>10</v>
@@ -6428,7 +6417,7 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
         <v>133</v>
@@ -6478,7 +6467,7 @@
         <v>41364</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>11</v>
@@ -6529,7 +6518,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>12</v>
@@ -6580,7 +6569,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>105</v>
@@ -6631,7 +6620,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>102</v>
@@ -6682,7 +6671,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>103</v>
@@ -6733,7 +6722,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
         <v>106</v>
@@ -6784,7 +6773,7 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
         <v>240</v>
@@ -6835,7 +6824,7 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
         <v>241</v>
@@ -6886,7 +6875,7 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
         <v>233</v>
@@ -6937,7 +6926,7 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
         <v>242</v>
@@ -6988,7 +6977,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
         <v>109</v>
@@ -7039,7 +7028,7 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
         <v>256</v>
@@ -7090,7 +7079,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
         <v>98</v>
@@ -7141,7 +7130,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
         <v>104</v>
@@ -7192,7 +7181,7 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
         <v>235</v>
@@ -7243,7 +7232,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
         <v>107</v>
@@ -7294,7 +7283,7 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>111</v>
@@ -7345,7 +7334,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
         <v>112</v>
@@ -7396,7 +7385,7 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
         <v>113</v>
@@ -7447,7 +7436,7 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
         <v>128</v>
@@ -7498,7 +7487,7 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
         <v>134</v>
@@ -7549,7 +7538,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
         <v>13</v>
@@ -7600,7 +7589,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>14</v>
@@ -7651,7 +7640,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>116</v>
@@ -7702,7 +7691,7 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
         <v>148</v>
@@ -7753,7 +7742,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>15</v>
@@ -7804,7 +7793,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>115</v>
@@ -7855,7 +7844,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>16</v>
@@ -7906,7 +7895,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>17</v>
@@ -7957,7 +7946,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>18</v>
@@ -8008,7 +7997,7 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
         <v>137</v>
@@ -8059,7 +8048,7 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
         <v>138</v>
@@ -8110,7 +8099,7 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
         <v>136</v>
@@ -8161,7 +8150,7 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
         <v>140</v>
@@ -8212,7 +8201,7 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
         <v>157</v>
@@ -8263,7 +8252,7 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>251</v>
@@ -8281,7 +8270,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
         <v>97</v>
@@ -8332,7 +8321,7 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
         <v>234</v>
@@ -8383,7 +8372,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>108</v>
@@ -8434,7 +8423,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>121</v>
@@ -8485,7 +8474,7 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
         <v>129</v>
@@ -8536,7 +8525,7 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
         <v>236</v>
@@ -8587,7 +8576,7 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
         <v>123</v>
@@ -8638,7 +8627,7 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
         <v>149</v>
@@ -8656,7 +8645,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
         <v>146</v>
@@ -8707,7 +8696,7 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
         <v>147</v>
@@ -8758,7 +8747,7 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
         <v>124</v>
@@ -8775,7 +8764,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
         <v>19</v>
@@ -8825,7 +8814,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
         <v>120</v>
@@ -8875,7 +8864,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>122</v>
@@ -8925,7 +8914,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
         <v>20</v>
@@ -8975,1260 +8964,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10272,7 +10261,7 @@
       <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -10280,11 +10269,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>21</v>
@@ -10300,7 +10289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
@@ -10324,7 +10313,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
@@ -10340,7 +10329,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
@@ -10355,7 +10344,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>26</v>
       </c>
@@ -10380,7 +10369,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>28</v>
       </c>
@@ -10403,13 +10392,13 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>31</v>
@@ -10429,7 +10418,7 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
         <v>32</v>
       </c>
@@ -10454,7 +10443,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
@@ -10482,7 +10471,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>135</v>
       </c>
@@ -10510,7 +10499,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>116</v>
       </c>
@@ -10538,7 +10527,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
@@ -10566,7 +10555,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
@@ -10593,7 +10582,7 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>158</v>
       </c>
@@ -10615,7 +10604,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>117</v>
       </c>
@@ -10637,7 +10626,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>46</v>
       </c>
@@ -10658,7 +10647,7 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
@@ -10683,7 +10672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>119</v>
       </c>
@@ -10710,7 +10699,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
@@ -10731,7 +10720,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
@@ -10757,7 +10746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -10766,7 +10755,7 @@
       </c>
       <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>52</v>
       </c>
@@ -10788,7 +10777,7 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>54</v>
       </c>
@@ -10817,7 +10806,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>56</v>
       </c>
@@ -10850,7 +10839,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>58</v>
       </c>
@@ -10883,7 +10872,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
         <v>14</v>
       </c>
@@ -10913,7 +10902,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -10925,7 +10914,7 @@
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>60</v>
       </c>
@@ -10951,7 +10940,7 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>62</v>
       </c>
@@ -10978,7 +10967,7 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>64</v>
       </c>
@@ -11005,7 +10994,7 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>159</v>
       </c>
@@ -11035,7 +11024,7 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
@@ -11062,7 +11051,7 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
@@ -11088,7 +11077,7 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
@@ -11115,7 +11104,7 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>48</v>
       </c>
@@ -11142,7 +11131,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>118</v>
       </c>
@@ -11163,7 +11152,7 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>72</v>
       </c>
@@ -11184,7 +11173,7 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>73</v>
       </c>
@@ -11205,7 +11194,7 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>74</v>
       </c>
@@ -11226,7 +11215,7 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>75</v>
       </c>
@@ -11252,7 +11241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -11261,7 +11250,7 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>76</v>
       </c>
@@ -11280,7 +11269,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>78</v>
       </c>
@@ -11299,7 +11288,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>79</v>
       </c>
@@ -11329,7 +11318,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>81</v>
       </c>
@@ -11359,7 +11348,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
         <v>83</v>
       </c>
@@ -11386,7 +11375,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>13</v>
       </c>
@@ -11413,20 +11402,20 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>87</v>
       </c>
@@ -11443,7 +11432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>88</v>
       </c>
@@ -11464,7 +11453,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -11473,7 +11462,7 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>150</v>
       </c>
@@ -11484,7 +11473,7 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>89</v>
       </c>
@@ -11499,7 +11488,7 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>90</v>
       </c>
@@ -11515,7 +11504,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>92</v>
       </c>
@@ -11530,7 +11519,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -11539,7 +11528,7 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>153</v>
       </c>
@@ -11553,7 +11542,7 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>94</v>
       </c>
@@ -11574,7 +11563,7 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>139</v>
       </c>
@@ -11595,7 +11584,7 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>141</v>
       </c>
@@ -11616,7 +11605,7 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
@@ -11631,7 +11620,7 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>142</v>
       </c>
@@ -11652,7 +11641,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -11662,7 +11651,7 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>154</v>
       </c>
@@ -11676,7 +11665,7 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>140</v>
       </c>
@@ -11697,7 +11686,7 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
@@ -11712,7 +11701,7 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>143</v>
       </c>
@@ -11733,7 +11722,7 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
         <v>127</v>
@@ -11755,7 +11744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
@@ -11774,7 +11763,7 @@
       <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>126</v>
       </c>
@@ -11795,7 +11784,7 @@
       <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
         <v>105</v>
       </c>
@@ -11825,7 +11814,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
@@ -11846,7 +11835,7 @@
       <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
         <v>247</v>
       </c>
@@ -11876,7 +11865,7 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
         <v>172</v>
       </c>
@@ -11906,7 +11895,7 @@
       </c>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
@@ -11937,7 +11926,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>109</v>
       </c>
@@ -11969,7 +11958,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
         <v>256</v>
       </c>
@@ -11999,7 +11988,7 @@
       </c>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
         <v>246</v>
       </c>
@@ -12029,7 +12018,7 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
@@ -12059,7 +12048,7 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
@@ -12080,7 +12069,7 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
@@ -12111,7 +12100,7 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
@@ -12132,28 +12121,28 @@
       <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1057760411140219</v>
+        <v>0.10655855799629543</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1057760411140219</v>
+        <v>0.10655855799629543</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11616778692715875</v>
+        <v>0.11702718054304259</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
@@ -12183,32 +12172,32 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6247072381438543E-2</v>
+        <v>5.6663180634814118E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6247072381438543E-2</v>
+        <v>5.6663180634814118E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6247072381438543E-2</v>
+        <v>5.6663180634814118E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
       <c r="B91" s="106" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
@@ -12219,7 +12208,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
@@ -12241,7 +12230,7 @@
       <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
@@ -12259,18 +12248,18 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>28.668601838170385</v>
+        <v>28.768729790212657</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>32.992594040864624</v>
+        <v>33.118128913574331</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
@@ -12287,22 +12276,22 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.123020484043641</v>
+        <v>12.146304607510137</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.123020484043641</v>
+        <v>12.146304607510137</v>
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
       <c r="B96" s="106" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -12331,31 +12320,31 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>15327300.937024942</v>
+        <v>15385620.412290499</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.253361867468104</v>
+        <v>14.303143155776585</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>16.403150194258888</v>
+        <v>16.465563212438784</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>21.840739402229218</v>
+        <v>21.923842126354177</v>
       </c>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
         <v>144</v>
       </c>
@@ -12373,7 +12362,7 @@
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
         <v>145</v>
       </c>
@@ -12394,41 +12383,41 @@
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>15327300.937024942</v>
+        <v>15385620.412290499</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>13.029017626233971</v>
+        <v>13.076700206491532</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>14.253361867468104</v>
+        <v>14.303143155776585</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>15.328256030863496</v>
+        <v>15.384353184107685</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>16.403150194258888</v>
+        <v>16.465563212438784</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>21.840739402229218</v>
+        <v>21.923842126354177</v>
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
         <v>162</v>
       </c>
@@ -12455,41 +12444,41 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>5631966.4647922637</v>
+        <v>5642783.5217046067</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.1231911842794444</v>
+        <v>5.1330310600953961</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.0272837462111113</v>
+        <v>6.0388600707004665</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.0272837462111113</v>
+        <v>6.0388600707004665</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.0272837462111113</v>
+        <v>6.0388600707004665</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.0253080685905669</v>
+        <v>8.0407219057750936</v>
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
         <v>197</v>
       </c>
@@ -12516,40 +12505,40 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9475239.6593555864</v>
+        <v>9503906.3052434921</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.0761044052567073</v>
+        <v>9.1048656332934641</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>10.140322806839608</v>
+        <v>10.171001613238525</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>10.677769888537304</v>
+        <v>10.711606627404075</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>11.215216970235</v>
+        <v>11.252211641569625</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>14.933023735409893</v>
+        <v>14.982282016064635</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
         <v>165</v>
       </c>

--- a/financial_models/opportunities/0179.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0179.HK_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11C46FC7-5B13-456A-AE7D-F54B5A4E529C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10C1A236-BEA1-44BB-A51C-42B6983DFC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -935,7 +935,18 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>0179.HK</t>
+  </si>
+  <si>
+    <t>德昌電機</t>
   </si>
   <si>
     <t xml:space="preserve">Superior Cycl. </t>
@@ -961,9 +972,6 @@
   <si>
     <t>HKD</t>
     <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>德昌電機</t>
   </si>
 </sst>
 </file>
@@ -3579,8 +3587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3601,7 +3609,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3609,7 +3617,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3633,7 +3641,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3642,7 +3650,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3658,7 +3666,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3707,7 +3715,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3725,7 +3733,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3734,7 +3742,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3743,7 +3751,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3752,7 +3760,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4169,11 +4177,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.6663180634814118E-2</v>
+        <v>5.7047902945804169E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.7388388919652726E-2</v>
+        <v>4.7710138780762058E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4290,7 +4298,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4402,7 +4410,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>259</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4591,7 +4599,7 @@
         <v>248</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4854,7 +4862,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4907,10 +4915,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.74</v>
+        <v>10.66</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4948,7 +4956,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>10035.58524516</v>
+        <v>9960.8322824400002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4997,7 +5005,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7821299235026045</v>
+        <v>7.7766067186991377</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5043,10 +5051,10 @@
         <v>253</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5093,7 +5101,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5180,7 +5188,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.5450234326734034</v>
+        <v>8.4873971047502632</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5212,7 +5220,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.6663180634814118E-2</v>
+        <v>5.7047902945804169E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5242,20 +5250,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>9.1048656332934641</v>
+        <v>10.901015627885155</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>17.229624318474329</v>
+        <v>21.683179916457728</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.711606627404075</v>
+        <v>12.824724268100184</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>14.982282016064635</v>
+        <v>18.854939057789331</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -6319,10 +6327,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D34" sqref="D34"/>
+      <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10257,8 +10265,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12127,17 +12135,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10655855799629543</v>
+        <v>0.10728205170471102</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10655855799629543</v>
+        <v>0.10728205170471102</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11702718054304259</v>
+        <v>0.11782175237686424</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12178,17 +12186,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6663180634814118E-2</v>
+        <v>5.7047902945804169E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6663180634814118E-2</v>
+        <v>5.7047902945804169E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6663180634814118E-2</v>
+        <v>5.7047902945804169E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12237,7 +12245,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12248,14 +12256,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>28.768729790212657</v>
+        <v>34.454289191173963</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>33.118128913574331</v>
+        <v>39.674657190461296</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12276,14 +12284,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.146304607510137</v>
+        <v>14.52572947788031</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.146304607510137</v>
+        <v>14.52572947788031</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12326,21 +12334,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>15385620.412290499</v>
+        <v>18431573.145727839</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.303143155776585</v>
+        <v>17.129871017091027</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>16.465563212438784</v>
+        <v>19.72531653603237</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>21.923842126354177</v>
+        <v>27.603612794953513</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12389,27 +12397,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>15385620.412290499</v>
+        <v>18431573.145727839</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>13.076700206491532</v>
+        <v>15.663454710077445</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>14.303143155776585</v>
+        <v>17.129871017091027</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>15.384353184107685</v>
+        <v>18.4275937765617</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>16.465563212438784</v>
+        <v>19.72531653603237</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>21.923842126354177</v>
+        <v>27.603612794953513</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12450,27 +12458,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>5642783.5217046067</v>
+        <v>6748187.995206547</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.1330310600953961</v>
+        <v>6.1385765456928656</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.0388600707004665</v>
+        <v>7.2218547596386653</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.0388600707004665</v>
+        <v>7.2218547596386653</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.0388600707004665</v>
+        <v>7.2218547596386653</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.0407219057750936</v>
+        <v>10.106265320625152</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12511,27 +12519,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9503906.3052434921</v>
+        <v>11377272.807222111</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.1048656332934641</v>
+        <v>10.901015627885155</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>10.171001613238525</v>
+        <v>12.175862888364847</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>10.711606627404075</v>
+        <v>12.824724268100184</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>11.252211641569625</v>
+        <v>13.473585647835517</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>14.982282016064635</v>
+        <v>18.854939057789331</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0179.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0179.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10C1A236-BEA1-44BB-A51C-42B6983DFC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CF71E92-2534-47D0-85A4-C451A2DD053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -940,6 +940,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3587,7 +3591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3609,7 +3613,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3617,7 +3621,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3641,7 +3645,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3650,7 +3654,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3666,7 +3670,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3715,7 +3719,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3733,7 +3737,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3742,7 +3746,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3751,7 +3755,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3760,7 +3764,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4177,11 +4181,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7047902945804169E-2</v>
+        <v>5.7479808641516646E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.7710138780762058E-2</v>
+        <v>4.8071348915027991E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4599,7 +4603,7 @@
         <v>248</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4915,10 +4919,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.66</v>
+        <v>10.58</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4956,7 +4960,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>9960.8322824400002</v>
+        <v>9886.0793197200001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5005,7 +5009,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7766067186991377</v>
+        <v>7.7766799926757813</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5026,7 +5030,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5037,7 +5041,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5064,7 +5068,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5188,7 +5192,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.4873971047502632</v>
+        <v>8.423622446518932</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5220,7 +5224,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.7047902945804169E-2</v>
+        <v>5.7479808641516646E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5250,20 +5254,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.901015627885155</v>
+        <v>10.937515805616307</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>21.683179916457728</v>
+        <v>21.758697246408111</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.824724268100184</v>
+        <v>12.867665653666245</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>18.854939057789331</v>
+        <v>18.920606301224446</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5298,8 +5302,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6325,12 +6329,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8756,118 +8760,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C52" s="153">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>-0.41797446666745985</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156" t="e">
+      <c r="C54" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157" t="str">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8875,107 +8880,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.17225256432181468</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157" t="str">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>0.25325471900179536</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.17225256432181468</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>0.25325471900179536</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158" t="e">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9543,7 +9595,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10226,6 +10280,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -12135,17 +12190,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10728205170471102</v>
+        <v>0.10809427663825509</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10728205170471102</v>
+        <v>0.10809427663825509</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11782175237686424</v>
+        <v>0.11871377264934882</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12186,17 +12241,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7047902945804169E-2</v>
+        <v>5.7479808641516646E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7047902945804169E-2</v>
+        <v>5.7479808641516646E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7047902945804169E-2</v>
+        <v>5.7479808641516646E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12256,14 +12311,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>34.454289191173963</v>
+        <v>34.581166872467662</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.674657190461296</v>
+        <v>39.833586982412953</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12284,14 +12339,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.52572947788031</v>
+        <v>14.55556667025666</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.52572947788031</v>
+        <v>14.55556667025666</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12334,21 +12389,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>18431573.145727839</v>
+        <v>18505406.829314061</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>17.129871017091027</v>
+        <v>17.192951648458845</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.72531653603237</v>
+        <v>19.80433273113653</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>27.603612794953513</v>
+        <v>27.714188077748162</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12397,27 +12452,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>18431573.145727839</v>
+        <v>18505406.829314061</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>15.663454710077445</v>
+        <v>15.723845861328032</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>17.129871017091027</v>
+        <v>17.192951648458845</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>18.4275937765617</v>
+        <v>18.498642189797685</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>19.72531653603237</v>
+        <v>19.80433273113653</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>27.603612794953513</v>
+        <v>27.714188077748162</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12458,27 +12513,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6748187.995206547</v>
+        <v>6762049.3977413634</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.1385765456928656</v>
+        <v>6.1511857499045846</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.2218547596386653</v>
+        <v>7.236689117534806</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.2218547596386653</v>
+        <v>7.236689117534806</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.2218547596386653</v>
+        <v>7.236689117534806</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.106265320625152</v>
+        <v>10.127024524700728</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12519,27 +12574,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>11377272.807222111</v>
+        <v>11413675.159020722</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.901015627885155</v>
+        <v>10.937515805616307</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>12.175862888364847</v>
+        <v>12.214820382996825</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.824724268100184</v>
+        <v>12.867665653666245</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>13.473585647835517</v>
+        <v>13.520510924335667</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>18.854939057789331</v>
+        <v>18.920606301224446</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0179.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0179.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CF71E92-2534-47D0-85A4-C451A2DD053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A82EF6DE-B407-45D2-B947-25EDC6B92F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4181,11 +4181,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7479808641516646E-2</v>
+        <v>5.7475324368131318E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8071348915027991E-2</v>
+        <v>4.8067598640355362E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5009,7 +5009,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7766799926757813</v>
+        <v>7.7760732968648272</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.423622446518932</v>
+        <v>8.4242796646618494</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.7479808641516646E-2</v>
+        <v>5.7475324368131318E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5254,20 +5254,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.937515805616307</v>
+        <v>10.936284120831157</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>21.758697246408111</v>
+        <v>21.75621672841821</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.867665653666245</v>
+        <v>12.866216612742537</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>18.920606301224446</v>
+        <v>18.918449329059314</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10320,8 +10320,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12190,17 +12190,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10809427663825509</v>
+        <v>0.10808584368937633</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10809427663825509</v>
+        <v>0.10808584368937633</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11871377264934882</v>
+        <v>0.11870451122305423</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12241,17 +12241,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7479808641516646E-2</v>
+        <v>5.7475324368131318E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7479808641516646E-2</v>
+        <v>5.7475324368131318E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7479808641516646E-2</v>
+        <v>5.7475324368131318E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12311,14 +12311,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>34.581166872467662</v>
+        <v>34.577153285535118</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.833586982412953</v>
+        <v>39.828830691454584</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12339,14 +12339,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.55556667025666</v>
+        <v>14.55412253144835</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.55556667025666</v>
+        <v>14.55412253144835</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12389,21 +12389,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>18505406.829314061</v>
+        <v>18503197.209095273</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>17.192951648458845</v>
+        <v>17.190956186410887</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.80433273113653</v>
+        <v>19.80196801392572</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>27.714188077748162</v>
+        <v>27.710878891903789</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12412,7 +12412,7 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
+        <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D98" s="213"/>
@@ -12451,28 +12451,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>18505406.829314061</v>
+        <f>C97+C98+$C$99</f>
+        <v>18503197.209095273</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>15.723845861328032</v>
+        <v>15.721992785143057</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>17.192951648458845</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>17.190956186410887</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>18.498642189797685</v>
+        <v>18.496462100168301</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>19.80433273113653</v>
+        <v>19.80196801392572</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>27.714188077748162</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>27.710878891903789</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12513,27 +12513,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6762049.3977413634</v>
+        <v>6761378.4971725149</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.1511857499045846</v>
+        <v>6.150575456519257</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.236689117534806</v>
+        <v>7.2359711253167731</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.236689117534806</v>
+        <v>7.2359711253167731</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.236689117534806</v>
+        <v>7.2359711253167731</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.127024524700728</v>
+        <v>10.12601976621484</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12574,27 +12574,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>11413675.159020722</v>
+        <v>11412407.416860798</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.937515805616307</v>
+        <v>10.936284120831157</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>12.214820382996825</v>
+        <v>12.21346365586383</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.867665653666245</v>
+        <v>12.866216612742537</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>13.520510924335667</v>
+        <v>13.518969569621246</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>18.920606301224446</v>
+        <v>18.918449329059314</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0179.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0179.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A82EF6DE-B407-45D2-B947-25EDC6B92F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D00C26CD-7A57-41C7-BFAF-E439A4C8FB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4181,11 +4181,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7475324368131318E-2</v>
+        <v>5.5778744455506672E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8067598640355362E-2</v>
+        <v>4.6648719787597659E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4919,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.58</v>
+        <v>10.9</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>9886.0793197200001</v>
+        <v>10185.091170600001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5009,7 +5009,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7760732968648272</v>
+        <v>7.7747866312662763</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.4242796646618494</v>
+        <v>8.6805146121658829</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.7475324368131318E-2</v>
+        <v>5.5778744455506672E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5254,20 +5254,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.936284120831157</v>
+        <v>10.792129986519228</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>21.75621672841821</v>
+        <v>21.458130823858554</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.866216612742537</v>
+        <v>12.696623513552034</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>18.918449329059314</v>
+        <v>18.659244194659614</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12190,17 +12190,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10808584368937633</v>
+        <v>0.10489532196099161</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10808584368937633</v>
+        <v>0.10489532196099161</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11870451122305423</v>
+        <v>0.11520054336392495</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12241,17 +12241,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7475324368131318E-2</v>
+        <v>5.5778744455506672E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7475324368131318E-2</v>
+        <v>5.5778744455506672E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7475324368131318E-2</v>
+        <v>5.5778744455506672E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12311,14 +12311,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>34.577153285535118</v>
+        <v>34.07658065887712</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.828830691454584</v>
+        <v>39.202485683569371</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12339,14 +12339,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.55412253144835</v>
+        <v>14.435356750705511</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.55412253144835</v>
+        <v>14.435356750705511</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12389,21 +12389,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>18503197.209095273</v>
+        <v>18212217.4087689</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>17.190956186410887</v>
+        <v>16.942083122109374</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.80196801392572</v>
+        <v>19.490563847734968</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>27.710878891903789</v>
+        <v>27.275099825415165</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12452,27 +12452,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>18503197.209095273</v>
+        <v>18212217.4087689</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>15.721992785143057</v>
+        <v>15.483874962183846</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>17.190956186410887</v>
+        <v>16.942083122109374</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>18.496462100168301</v>
+        <v>18.216323484922171</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>19.80196801392572</v>
+        <v>19.490563847734968</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>27.710878891903789</v>
+        <v>27.275099825415165</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12513,27 +12513,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6761378.4971725149</v>
+        <v>6706203.7249126695</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.150575456519257</v>
+        <v>6.1003850108546107</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.2359711253167731</v>
+        <v>7.1769235421818953</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.2359711253167731</v>
+        <v>7.1769235421818953</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.2359711253167731</v>
+        <v>7.1769235421818953</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.12601976621484</v>
+        <v>10.043388563904065</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12574,27 +12574,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>11412407.416860798</v>
+        <v>11268545.03761998</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.936284120831157</v>
+        <v>10.792129986519228</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>12.21346365586383</v>
+        <v>12.059503332145635</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.866216612742537</v>
+        <v>12.696623513552034</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>13.518969569621246</v>
+        <v>13.333743694958432</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>18.918449329059314</v>
+        <v>18.659244194659614</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0179.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0179.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D00C26CD-7A57-41C7-BFAF-E439A4C8FB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30D0B709-38E6-4F35-B9C1-BF1D9699BF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4181,11 +4181,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.5778744455506672E-2</v>
+        <v>5.5675249291863634E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.6648719787597659E-2</v>
+        <v>4.6562165008796445E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4919,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.9</v>
+        <v>10.92</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>10185.091170600001</v>
+        <v>10203.77941128</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5009,7 +5009,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7747866312662763</v>
+        <v>7.7746000289916992</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5055,10 +5055,10 @@
         <v>253</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5105,7 +5105,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.6805146121658829</v>
+        <v>8.6966508898066426</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.5778744455506672E-2</v>
+        <v>5.5675249291863634E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5254,20 +5254,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.792129986519228</v>
+        <v>9.8271992231489644</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>21.458130823858554</v>
+        <v>19.057796968836691</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.696623513552034</v>
+        <v>11.561410850763487</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>18.659244194659614</v>
+        <v>16.571997364205821</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12190,17 +12190,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10489532196099161</v>
+        <v>0.10470069301016602</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10489532196099161</v>
+        <v>0.10470069301016602</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11520054336392495</v>
+        <v>0.11498679349910453</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12241,17 +12241,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5778744455506672E-2</v>
+        <v>5.5675249291863634E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5778744455506672E-2</v>
+        <v>5.5675249291863634E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5778744455506672E-2</v>
+        <v>5.5675249291863634E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12300,7 +12300,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12311,14 +12311,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>34.07658065887712</v>
+        <v>31.027270739397</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.202485683569371</v>
+        <v>35.691719172318869</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12339,14 +12339,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.435356750705511</v>
+        <v>13.148758668789309</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.435356750705511</v>
+        <v>13.148758668789309</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12389,21 +12389,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>18212217.4087689</v>
+        <v>16581227.897276837</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>16.942083122109374</v>
+        <v>15.426037171429558</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.490563847734968</v>
+        <v>17.745092415276876</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>27.275099825415165</v>
+        <v>24.221019211642588</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12452,27 +12452,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>18212217.4087689</v>
+        <v>16581227.897276837</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>15.483874962183846</v>
+        <v>14.097730074350235</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>16.942083122109374</v>
+        <v>15.426037171429558</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>18.216323484922171</v>
+        <v>16.585564793353218</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>19.490563847734968</v>
+        <v>17.745092415276876</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>27.275099825415165</v>
+        <v>24.221019211642588</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12513,27 +12513,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6706203.7249126695</v>
+        <v>6108491.5243471917</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.1003850108546107</v>
+        <v>5.5566683719476933</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.1769235421818953</v>
+        <v>6.5372569081737568</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.1769235421818953</v>
+        <v>6.5372569081737568</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.1769235421818953</v>
+        <v>6.5372569081737568</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.043388563904065</v>
+        <v>8.9229755167690534</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12574,27 +12574,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>11268545.03761998</v>
+        <v>10261383.147131145</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.792129986519228</v>
+        <v>9.8271992231489644</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>12.059503332145635</v>
+        <v>10.981647039801658</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.696623513552034</v>
+        <v>11.561410850763487</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>13.333743694958432</v>
+        <v>12.141174661725316</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>18.659244194659614</v>
+        <v>16.571997364205821</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0179.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0179.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30D0B709-38E6-4F35-B9C1-BF1D9699BF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E071513-0B28-457B-9FD9-DB3B19E65EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -3591,8 +3591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3678,7 +3678,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="219">
-        <v>45016</v>
+        <v>45382</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3774,47 +3774,47 @@
       </c>
       <c r="C24" s="48">
         <f>C12</f>
-        <v>45016</v>
+        <v>45382</v>
       </c>
       <c r="D24" s="49">
         <f>EOMONTH(EDATE(C24,-12),0)</f>
-        <v>44651</v>
+        <v>45016</v>
       </c>
       <c r="E24" s="49">
         <f t="shared" ref="E24:M24" si="0">EOMONTH(EDATE(D24,-12),0)</f>
-        <v>44286</v>
+        <v>44651</v>
       </c>
       <c r="F24" s="49">
         <f t="shared" si="0"/>
-        <v>43921</v>
+        <v>44286</v>
       </c>
       <c r="G24" s="49">
         <f t="shared" si="0"/>
-        <v>43555</v>
+        <v>43921</v>
       </c>
       <c r="H24" s="49">
         <f t="shared" si="0"/>
-        <v>43190</v>
+        <v>43555</v>
       </c>
       <c r="I24" s="49">
         <f t="shared" si="0"/>
-        <v>42825</v>
+        <v>43190</v>
       </c>
       <c r="J24" s="49">
         <f t="shared" si="0"/>
-        <v>42460</v>
+        <v>42825</v>
       </c>
       <c r="K24" s="49">
         <f t="shared" si="0"/>
-        <v>42094</v>
+        <v>42460</v>
       </c>
       <c r="L24" s="49">
         <f t="shared" si="0"/>
-        <v>41729</v>
+        <v>42094</v>
       </c>
       <c r="M24" s="49">
         <f t="shared" si="0"/>
-        <v>41364</v>
+        <v>41729</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
@@ -3827,10 +3827,18 @@
       <c r="D25" s="149">
         <v>3646119</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
+      <c r="E25" s="149">
+        <v>3446055</v>
+      </c>
+      <c r="F25" s="149">
+        <v>3156163</v>
+      </c>
+      <c r="G25" s="149">
+        <v>3070485</v>
+      </c>
+      <c r="H25" s="149">
+        <v>3280381</v>
+      </c>
       <c r="I25" s="149"/>
       <c r="J25" s="149"/>
       <c r="K25" s="149"/>
@@ -3847,10 +3855,18 @@
       <c r="D26" s="150">
         <v>2930208</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
+      <c r="E26" s="150">
+        <v>2744148</v>
+      </c>
+      <c r="F26" s="150">
+        <v>2432869</v>
+      </c>
+      <c r="G26" s="150">
+        <v>2398222</v>
+      </c>
+      <c r="H26" s="150">
+        <v>2528935</v>
+      </c>
       <c r="I26" s="150"/>
       <c r="J26" s="150"/>
       <c r="K26" s="150"/>
@@ -3867,10 +3883,18 @@
       <c r="D27" s="150">
         <v>556427</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
+      <c r="E27" s="150">
+        <v>543403</v>
+      </c>
+      <c r="F27" s="150">
+        <v>467260</v>
+      </c>
+      <c r="G27" s="150">
+        <v>452634</v>
+      </c>
+      <c r="H27" s="150">
+        <v>486140</v>
+      </c>
       <c r="I27" s="150"/>
       <c r="J27" s="150"/>
       <c r="K27" s="150"/>
@@ -3903,10 +3927,18 @@
       <c r="D29" s="150">
         <v>21677</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
+      <c r="E29" s="150">
+        <v>20063</v>
+      </c>
+      <c r="F29" s="150">
+        <v>13516</v>
+      </c>
+      <c r="G29" s="150">
+        <v>19614</v>
+      </c>
+      <c r="H29" s="150">
+        <v>18362</v>
+      </c>
       <c r="I29" s="150"/>
       <c r="J29" s="150"/>
       <c r="K29" s="150"/>
@@ -3923,10 +3955,18 @@
       <c r="D30" s="150">
         <v>3460</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
+      <c r="E30" s="150">
+        <v>5843</v>
+      </c>
+      <c r="F30" s="150">
+        <v>7158</v>
+      </c>
+      <c r="G30" s="150">
+        <v>6786</v>
+      </c>
+      <c r="H30" s="150">
+        <v>8330</v>
+      </c>
       <c r="I30" s="150"/>
       <c r="J30" s="150"/>
       <c r="K30" s="150"/>
@@ -3943,10 +3983,20 @@
       <c r="D31" s="150">
         <v>-27525</v>
       </c>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
+      <c r="E31" s="150">
+        <v>233698</v>
+      </c>
+      <c r="F31" s="150">
+        <v>42431</v>
+      </c>
+      <c r="G31" s="150">
+        <f>-81917</f>
+        <v>-81917</v>
+      </c>
+      <c r="H31" s="150">
+        <f>-17970</f>
+        <v>-17970</v>
+      </c>
       <c r="I31" s="150"/>
       <c r="J31" s="150"/>
       <c r="K31" s="150"/>
@@ -3963,10 +4013,22 @@
       <c r="D32" s="150">
         <v>274200</v>
       </c>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
+      <c r="E32" s="150">
+        <f>248096+35189</f>
+        <v>283285</v>
+      </c>
+      <c r="F32" s="150">
+        <f>219704+31327</f>
+        <v>251031</v>
+      </c>
+      <c r="G32" s="150">
+        <f>203765+41376</f>
+        <v>245141</v>
+      </c>
+      <c r="H32" s="150">
+        <f>162220+42152</f>
+        <v>204372</v>
+      </c>
       <c r="I32" s="150"/>
       <c r="J32" s="150"/>
       <c r="K32" s="150"/>
@@ -3983,10 +4045,18 @@
       <c r="D33" s="150">
         <v>226600</v>
       </c>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
+      <c r="E33" s="150">
+        <v>316400</v>
+      </c>
+      <c r="F33" s="150">
+        <v>263600</v>
+      </c>
+      <c r="G33" s="150">
+        <v>282100</v>
+      </c>
+      <c r="H33" s="150">
+        <v>391400</v>
+      </c>
       <c r="I33" s="150"/>
       <c r="J33" s="150"/>
       <c r="K33" s="150"/>
@@ -4615,7 +4685,7 @@
       </c>
       <c r="C89" s="271">
         <f>C24</f>
-        <v>45016</v>
+        <v>45382</v>
       </c>
       <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
@@ -4866,7 +4936,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4980,7 +5050,7 @@
       </c>
       <c r="E6" s="51">
         <f>IF(Fin_Analysis!E9="FY",Fin_Analysis!D9,Data!C3)</f>
-        <v>45016</v>
+        <v>45382</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>4</v>
@@ -6331,10 +6401,10 @@
   </sheetPr>
   <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6385,14 +6455,14 @@
       </c>
       <c r="C3" s="201">
         <f>Inputs!C12</f>
-        <v>45016</v>
+        <v>45382</v>
       </c>
       <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
-      <c r="F3" s="85" t="str">
+      <c r="F3" s="85">
         <f>H14</f>
-        <v/>
+        <v>254199.33333333334</v>
       </c>
       <c r="G3" s="85">
         <f>C14</f>
@@ -6423,9 +6493,9 @@
       <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
-      <c r="F4" s="93" t="e">
+      <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
-        <v>#VALUE!</v>
+        <v>3.0706902789447099E-2</v>
       </c>
       <c r="J4" s="87"/>
     </row>
@@ -6436,47 +6506,47 @@
       </c>
       <c r="C5" s="48">
         <f>C3</f>
-        <v>45016</v>
+        <v>45382</v>
       </c>
       <c r="D5" s="49">
         <f>EOMONTH(EDATE(C5,-12),0)</f>
-        <v>44651</v>
+        <v>45016</v>
       </c>
       <c r="E5" s="49">
         <f t="shared" ref="E5:M5" si="0">EOMONTH(EDATE(D5,-12),0)</f>
-        <v>44286</v>
+        <v>44651</v>
       </c>
       <c r="F5" s="49">
         <f t="shared" si="0"/>
-        <v>43921</v>
+        <v>44286</v>
       </c>
       <c r="G5" s="49">
         <f t="shared" si="0"/>
-        <v>43555</v>
+        <v>43921</v>
       </c>
       <c r="H5" s="49">
         <f t="shared" si="0"/>
-        <v>43190</v>
+        <v>43555</v>
       </c>
       <c r="I5" s="49">
         <f t="shared" si="0"/>
-        <v>42825</v>
+        <v>43190</v>
       </c>
       <c r="J5" s="49">
         <f t="shared" si="0"/>
-        <v>42460</v>
+        <v>42825</v>
       </c>
       <c r="K5" s="49">
         <f t="shared" si="0"/>
-        <v>42094</v>
+        <v>42460</v>
       </c>
       <c r="L5" s="49">
         <f t="shared" si="0"/>
-        <v>41729</v>
+        <v>42094</v>
       </c>
       <c r="M5" s="49">
         <f t="shared" si="0"/>
-        <v>41364</v>
+        <v>41729</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6492,21 +6562,21 @@
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>3646119</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="200">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
-        <v/>
-      </c>
-      <c r="F6" s="200" t="str">
+        <v>3446055</v>
+      </c>
+      <c r="F6" s="200">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
-        <v/>
-      </c>
-      <c r="G6" s="200" t="str">
+        <v>3156163</v>
+      </c>
+      <c r="G6" s="200">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
-        <v/>
-      </c>
-      <c r="H6" s="200" t="str">
+        <v>3070485</v>
+      </c>
+      <c r="H6" s="200">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
-        <v/>
+        <v>3280381</v>
       </c>
       <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
@@ -6539,21 +6609,21 @@
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>4.6102170554499278E-2</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="92">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E7" s="92" t="str">
+        <v>5.8055950935199885E-2</v>
+      </c>
+      <c r="E7" s="92">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F7" s="92" t="str">
+        <v>9.1849502069443201E-2</v>
+      </c>
+      <c r="F7" s="92">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G7" s="92" t="str">
+        <v>2.7903735077683178E-2</v>
+      </c>
+      <c r="G7" s="92">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-6.3985250493768908E-2</v>
       </c>
       <c r="H7" s="92" t="str">
         <f t="shared" si="1"/>
@@ -6594,21 +6664,21 @@
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>2930208</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="199">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
-        <v/>
-      </c>
-      <c r="F8" s="199" t="str">
+        <v>2744148</v>
+      </c>
+      <c r="F8" s="199">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
-        <v/>
-      </c>
-      <c r="G8" s="199" t="str">
+        <v>2432869</v>
+      </c>
+      <c r="G8" s="199">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
-        <v/>
-      </c>
-      <c r="H8" s="199" t="str">
+        <v>2398222</v>
+      </c>
+      <c r="H8" s="199">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
-        <v/>
+        <v>2528935</v>
       </c>
       <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
@@ -6645,21 +6715,21 @@
         <f t="shared" si="2"/>
         <v>715911</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="151">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F9" s="151" t="str">
+        <v>701907</v>
+      </c>
+      <c r="F9" s="151">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G9" s="151" t="str">
+        <v>723294</v>
+      </c>
+      <c r="G9" s="151">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H9" s="151" t="str">
+        <v>672263</v>
+      </c>
+      <c r="H9" s="151">
         <f t="shared" si="2"/>
-        <v/>
+        <v>751446</v>
       </c>
       <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
@@ -6696,21 +6766,21 @@
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>556427</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="199">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
-        <v/>
-      </c>
-      <c r="F10" s="199" t="str">
+        <v>543403</v>
+      </c>
+      <c r="F10" s="199">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
-        <v/>
-      </c>
-      <c r="G10" s="199" t="str">
+        <v>467260</v>
+      </c>
+      <c r="G10" s="199">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
-        <v/>
-      </c>
-      <c r="H10" s="199" t="str">
+        <v>452634</v>
+      </c>
+      <c r="H10" s="199">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
-        <v/>
+        <v>486140</v>
       </c>
       <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
@@ -6798,21 +6868,21 @@
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>4613.333333333333</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="199">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="F12" s="199" t="str">
+        <v>7790.666666666667</v>
+      </c>
+      <c r="F12" s="199">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="G12" s="199" t="str">
+        <v>9544</v>
+      </c>
+      <c r="G12" s="199">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="H12" s="199" t="str">
+        <v>9048</v>
+      </c>
+      <c r="H12" s="199">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
+        <v>11106.666666666666</v>
       </c>
       <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6849,21 +6919,21 @@
         <f t="shared" si="3"/>
         <v>4.2475483292417682E-2</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="229">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F13" s="229" t="str">
+        <v>4.3735034215453134E-2</v>
+      </c>
+      <c r="F13" s="229">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G13" s="229" t="str">
+        <v>7.8097994305110358E-2</v>
+      </c>
+      <c r="G13" s="229">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H13" s="229" t="str">
+        <v>6.858232494215083E-2</v>
+      </c>
+      <c r="H13" s="229">
         <f t="shared" si="3"/>
-        <v/>
+        <v>7.749079553055982E-2</v>
       </c>
       <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
@@ -6900,21 +6970,21 @@
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>154870.66666666666</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="230">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F14" s="230" t="str">
+        <v>150713.33333333334</v>
+      </c>
+      <c r="F14" s="230">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G14" s="230" t="str">
+        <v>246490</v>
+      </c>
+      <c r="G14" s="230">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H14" s="230" t="str">
+        <v>210581</v>
+      </c>
+      <c r="H14" s="230">
         <f t="shared" si="4"/>
-        <v/>
+        <v>254199.33333333334</v>
       </c>
       <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
@@ -6947,21 +7017,21 @@
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.96796036262515817</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="232">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="E15" s="232" t="str">
+        <v>2.7584376520546603E-2</v>
+      </c>
+      <c r="E15" s="232">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F15" s="232" t="str">
+        <v>-0.38856207824522965</v>
+      </c>
+      <c r="F15" s="232">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G15" s="232" t="str">
+        <v>0.17052345653216577</v>
+      </c>
+      <c r="G15" s="232">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-0.17159106108329686</v>
       </c>
       <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
@@ -7002,21 +7072,21 @@
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>-27525</v>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="199">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
-        <v/>
-      </c>
-      <c r="F16" s="199" t="str">
+        <v>233698</v>
+      </c>
+      <c r="F16" s="199">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
-        <v/>
-      </c>
-      <c r="G16" s="199" t="str">
+        <v>42431</v>
+      </c>
+      <c r="G16" s="199">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
-        <v/>
-      </c>
-      <c r="H16" s="199" t="str">
+        <v>-81917</v>
+      </c>
+      <c r="H16" s="199">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
-        <v/>
+        <v>-17970</v>
       </c>
       <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
@@ -7053,21 +7123,21 @@
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>21677</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="199">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
-        <v/>
-      </c>
-      <c r="F17" s="199" t="str">
+        <v>20063</v>
+      </c>
+      <c r="F17" s="199">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
-        <v/>
-      </c>
-      <c r="G17" s="199" t="str">
+        <v>13516</v>
+      </c>
+      <c r="G17" s="199">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
-        <v/>
-      </c>
-      <c r="H17" s="199" t="str">
+        <v>19614</v>
+      </c>
+      <c r="H17" s="199">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
-        <v/>
+        <v>18362</v>
       </c>
       <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
@@ -7104,21 +7174,21 @@
         <f t="shared" si="6"/>
         <v>7.5203250360177498E-2</v>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="152">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F18" s="152" t="str">
+        <v>8.2205594513146185E-2</v>
+      </c>
+      <c r="F18" s="152">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G18" s="152" t="str">
+        <v>7.953676663721107E-2</v>
+      </c>
+      <c r="G18" s="152">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H18" s="152" t="str">
+        <v>7.983787577532539E-2</v>
+      </c>
+      <c r="H18" s="152">
         <f t="shared" si="6"/>
-        <v/>
+        <v>6.2301299757558652E-2</v>
       </c>
       <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
@@ -7155,21 +7225,21 @@
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>274200</v>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="199">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
-        <v/>
-      </c>
-      <c r="F19" s="199" t="str">
+        <v>283285</v>
+      </c>
+      <c r="F19" s="199">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
-        <v/>
-      </c>
-      <c r="G19" s="199" t="str">
+        <v>251031</v>
+      </c>
+      <c r="G19" s="199">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
-        <v/>
-      </c>
-      <c r="H19" s="199" t="str">
+        <v>245141</v>
+      </c>
+      <c r="H19" s="199">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
-        <v/>
+        <v>204372</v>
       </c>
       <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
@@ -7206,21 +7276,21 @@
         <f t="shared" si="7"/>
         <v>6.2148273273582126E-2</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="152">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F20" s="152" t="str">
+        <v>9.1815133536754343E-2</v>
+      </c>
+      <c r="F20" s="152">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G20" s="152" t="str">
+        <v>8.3519133834342521E-2</v>
+      </c>
+      <c r="G20" s="152">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H20" s="152" t="str">
+        <v>9.1874736401578255E-2</v>
+      </c>
+      <c r="H20" s="152">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0.11931540878940586</v>
       </c>
       <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
@@ -7257,21 +7327,21 @@
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>226600</v>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="199">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
-        <v/>
-      </c>
-      <c r="F21" s="199" t="str">
+        <v>316400</v>
+      </c>
+      <c r="F21" s="199">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
-        <v/>
-      </c>
-      <c r="G21" s="199" t="str">
+        <v>263600</v>
+      </c>
+      <c r="G21" s="199">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
-        <v/>
-      </c>
-      <c r="H21" s="199" t="str">
+        <v>282100</v>
+      </c>
+      <c r="H21" s="199">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
-        <v/>
+        <v>391400</v>
       </c>
       <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
@@ -7308,21 +7378,21 @@
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>85593.666666666657</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="161">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F22" s="161" t="str">
+        <v>-136162.66666666666</v>
+      </c>
+      <c r="F22" s="161">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G22" s="161" t="str">
+        <v>177974</v>
+      </c>
+      <c r="G22" s="161">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H22" s="161" t="str">
+        <v>154008</v>
+      </c>
+      <c r="H22" s="161">
         <f t="shared" si="8"/>
-        <v/>
+        <v>48809.333333333343</v>
       </c>
       <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
@@ -7359,21 +7429,21 @@
         <f t="shared" si="9"/>
         <v>1.7606460458366825E-2</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="153">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F23" s="153" t="str">
+        <v>-2.9634466077877456E-2</v>
+      </c>
+      <c r="F23" s="153">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G23" s="153" t="str">
+        <v>4.2292017237386029E-2</v>
+      </c>
+      <c r="G23" s="153">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H23" s="153" t="str">
+        <v>3.7618161300250613E-2</v>
+      </c>
+      <c r="H23" s="153">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1.1159374475099083E-2</v>
       </c>
       <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
@@ -7410,21 +7480,21 @@
         <f>IF(D6="","",D22*(1-Fin_Analysis!$I$84))</f>
         <v>64195.249999999993</v>
       </c>
-      <c r="E24" s="77" t="str">
+      <c r="E24" s="77">
         <f>IF(E6="","",E22*(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="F24" s="77" t="str">
+        <v>-102122</v>
+      </c>
+      <c r="F24" s="77">
         <f>IF(F6="","",F22*(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="G24" s="77" t="str">
+        <v>133480.5</v>
+      </c>
+      <c r="G24" s="77">
         <f>IF(G6="","",G22*(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="H24" s="77" t="str">
+        <v>115506</v>
+      </c>
+      <c r="H24" s="77">
         <f>IF(H6="","",H22*(1-Fin_Analysis!$I$84))</f>
-        <v/>
+        <v>36607.000000000007</v>
       </c>
       <c r="I24" s="77" t="str">
         <f>IF(I6="","",I22*(1-Fin_Analysis!$I$84))</f>
@@ -7459,19 +7529,19 @@
       </c>
       <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
-        <v/>
+        <v>Turn</v>
       </c>
       <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F25" s="233" t="str">
+        <v>Turn</v>
+      </c>
+      <c r="F25" s="233">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G25" s="233" t="str">
+        <v>0.15561529271206689</v>
+      </c>
+      <c r="G25" s="233">
         <f t="shared" si="10"/>
-        <v/>
+        <v>2.1552981670172366</v>
       </c>
       <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
@@ -7510,43 +7580,43 @@
       </c>
       <c r="D26" s="49">
         <f>D5</f>
-        <v>44651</v>
+        <v>45016</v>
       </c>
       <c r="E26" s="49">
         <f t="shared" ref="E26" si="11">EOMONTH(EDATE(D26,-12),0)</f>
-        <v>44286</v>
+        <v>44651</v>
       </c>
       <c r="F26" s="49">
         <f t="shared" ref="F26" si="12">EOMONTH(EDATE(E26,-12),0)</f>
-        <v>43921</v>
+        <v>44286</v>
       </c>
       <c r="G26" s="49">
         <f t="shared" ref="G26" si="13">EOMONTH(EDATE(F26,-12),0)</f>
-        <v>43555</v>
+        <v>43921</v>
       </c>
       <c r="H26" s="49">
         <f t="shared" ref="H26" si="14">EOMONTH(EDATE(G26,-12),0)</f>
-        <v>43190</v>
+        <v>43555</v>
       </c>
       <c r="I26" s="49">
         <f t="shared" ref="I26" si="15">EOMONTH(EDATE(H26,-12),0)</f>
-        <v>42825</v>
+        <v>43190</v>
       </c>
       <c r="J26" s="49">
         <f t="shared" ref="J26" si="16">EOMONTH(EDATE(I26,-12),0)</f>
-        <v>42460</v>
+        <v>42825</v>
       </c>
       <c r="K26" s="49">
         <f t="shared" ref="K26" si="17">EOMONTH(EDATE(J26,-12),0)</f>
-        <v>42094</v>
+        <v>42460</v>
       </c>
       <c r="L26" s="49">
         <f t="shared" ref="L26" si="18">EOMONTH(EDATE(K26,-12),0)</f>
-        <v>41729</v>
+        <v>42094</v>
       </c>
       <c r="M26" s="49">
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
-        <v>41364</v>
+        <v>41729</v>
       </c>
       <c r="N26" s="87"/>
     </row>
@@ -8226,9 +8296,9 @@
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="155" t="e">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
@@ -8295,21 +8365,21 @@
         <f t="shared" si="34"/>
         <v>0.80365122476803419</v>
       </c>
-      <c r="E42" s="156" t="str">
+      <c r="E42" s="156">
         <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
+        <v>0.79631578718273499</v>
+      </c>
+      <c r="F42" s="156">
         <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
+        <v>0.77083122766473089</v>
+      </c>
+      <c r="G42" s="156">
         <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
+        <v>0.7810564129119667</v>
+      </c>
+      <c r="H42" s="156">
         <f t="shared" si="34"/>
-        <v/>
+        <v>0.77092721851516632</v>
       </c>
       <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
@@ -8346,21 +8416,21 @@
         <f t="shared" si="35"/>
         <v>0.15260801965048315</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="153">
         <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="F43" s="153" t="str">
+        <v>0.15768842923284743</v>
+      </c>
+      <c r="F43" s="153">
         <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="G43" s="153" t="str">
+        <v>0.14804685309345555</v>
+      </c>
+      <c r="G43" s="153">
         <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="H43" s="153" t="str">
+        <v>0.14741449640691942</v>
+      </c>
+      <c r="H43" s="153">
         <f t="shared" si="35"/>
-        <v/>
+        <v>0.14819620038038264</v>
       </c>
       <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
@@ -8397,21 +8467,21 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="153">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="F44" s="153" t="str">
+        <v>6.7816096957245317E-2</v>
+      </c>
+      <c r="F44" s="153">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="G44" s="153" t="str">
+        <v>1.344385571974578E-2</v>
+      </c>
+      <c r="G44" s="153">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="H44" s="153" t="str">
+        <v>0</v>
+      </c>
+      <c r="H44" s="153">
         <f t="shared" si="36"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
@@ -8448,21 +8518,21 @@
         <f t="shared" si="37"/>
         <v>5.9452255946665479E-3</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="153">
         <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="F45" s="153" t="str">
+        <v>5.8220196717696029E-3</v>
+      </c>
+      <c r="F45" s="153">
         <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="G45" s="153" t="str">
+        <v>4.2824150717184128E-3</v>
+      </c>
+      <c r="G45" s="153">
         <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="H45" s="153" t="str">
+        <v>6.387915915563828E-3</v>
+      </c>
+      <c r="H45" s="153">
         <f t="shared" si="37"/>
-        <v/>
+        <v>5.5975205319138237E-3</v>
       </c>
       <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
@@ -8499,21 +8569,21 @@
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>1.2652722890649846E-3</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="153">
         <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="F46" s="153" t="str">
+        <v>2.2607493689644148E-3</v>
+      </c>
+      <c r="F46" s="153">
         <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="G46" s="153" t="str">
+        <v>3.0239249367032058E-3</v>
+      </c>
+      <c r="G46" s="153">
         <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="H46" s="153" t="str">
+        <v>2.9467657389630627E-3</v>
+      </c>
+      <c r="H46" s="153">
         <f t="shared" si="38"/>
-        <v/>
+        <v>3.3857855738911626E-3</v>
       </c>
       <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
@@ -8550,21 +8620,21 @@
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>1.3054977086595363E-2</v>
       </c>
-      <c r="E47" s="153" t="str">
+      <c r="E47" s="153">
         <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
+        <v>9.6095390236081556E-3</v>
+      </c>
+      <c r="F47" s="153">
         <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
+        <v>3.9823671971314532E-3</v>
+      </c>
+      <c r="G47" s="153">
         <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
+        <v>1.2036860626252855E-2</v>
+      </c>
+      <c r="H47" s="153">
         <f t="shared" si="39"/>
-        <v/>
+        <v>5.7014109031847213E-2</v>
       </c>
       <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
@@ -8601,21 +8671,21 @@
         <f t="shared" si="40"/>
         <v>2.347528061115577E-2</v>
       </c>
-      <c r="E48" s="153" t="str">
+      <c r="E48" s="153">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
+        <v>-3.9512621437169937E-2</v>
+      </c>
+      <c r="F48" s="153">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
+        <v>5.6389356316514705E-2</v>
+      </c>
+      <c r="G48" s="153">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
+        <v>5.0157548400334151E-2</v>
+      </c>
+      <c r="H48" s="153">
         <f t="shared" si="40"/>
-        <v/>
+        <v>1.4879165966798778E-2</v>
       </c>
       <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
@@ -8768,21 +8838,21 @@
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>-0.41797446666745985</v>
       </c>
-      <c r="D52" s="153" t="str">
+      <c r="D52" s="153">
         <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
+        <v>-0.13758097408829176</v>
+      </c>
+      <c r="E52" s="153">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
+        <v>0.80615539580257478</v>
+      </c>
+      <c r="F52" s="153">
         <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
+        <v>0.4952379840799272</v>
+      </c>
+      <c r="G52" s="153">
         <f t="shared" si="43"/>
-        <v/>
+        <v>0.39027423104775699</v>
       </c>
       <c r="H52" s="153" t="str">
         <f t="shared" si="43"/>
@@ -8940,21 +9010,21 @@
         <f t="shared" si="46"/>
         <v>0.25325471900179536</v>
       </c>
-      <c r="E56" s="153" t="str">
+      <c r="E56" s="153">
         <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="153" t="str">
+        <v>-0.14734582166428389</v>
+      </c>
+      <c r="F56" s="153">
         <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="153" t="str">
+        <v>7.5943677166327661E-2</v>
+      </c>
+      <c r="G56" s="153">
         <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="153" t="str">
+        <v>0.12735702041452393</v>
+      </c>
+      <c r="H56" s="153">
         <f t="shared" si="46"/>
-        <v/>
+        <v>0.37619854126259999</v>
       </c>
       <c r="I56" s="153" t="str">
         <f t="shared" si="46"/>
@@ -10320,8 +10390,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11792,7 +11862,7 @@
       </c>
       <c r="C72" s="271">
         <f>Data!C5</f>
-        <v>45016</v>
+        <v>45382</v>
       </c>
       <c r="D72" s="271"/>
       <c r="E72" s="285" t="s">

--- a/financial_models/opportunities/0179.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0179.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E071513-0B28-457B-9FD9-DB3B19E65EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{294FD70D-B78A-4C36-8CCA-0EF282A68E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4251,11 +4262,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.5675249291863634E-2</v>
+        <v>5.6505509055089186E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.6562165008796445E-2</v>
+        <v>4.7256525475739546E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4989,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.92</v>
+        <v>10.76</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5030,7 +5041,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>10203.77941128</v>
+        <v>10054.27348584</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5079,7 +5090,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7746000289916992</v>
+        <v>7.7749268213907881</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5262,7 +5273,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.6966508898066426</v>
+        <v>8.5688672554430134</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5294,7 +5305,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.5675249291863634E-2</v>
+        <v>5.6505509055089186E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5324,20 +5335,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>9.8271992231489644</v>
+        <v>9.8908738281228672</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>19.057796968836691</v>
+        <v>19.18623369421006</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>11.561410850763487</v>
+        <v>11.636322150732784</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>16.571997364205821</v>
+        <v>16.683681473226141</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12260,17 +12271,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10470069301016602</v>
+        <v>0.10626204699948485</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10470069301016602</v>
+        <v>0.10626204699948485</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11498679349910453</v>
+        <v>0.11670153944382694</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12311,17 +12322,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5675249291863634E-2</v>
+        <v>5.6505509055089186E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5675249291863634E-2</v>
+        <v>5.6505509055089186E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5675249291863634E-2</v>
+        <v>5.6505509055089186E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12381,14 +12392,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>31.027270739397</v>
+        <v>31.248470359749454</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>35.691719172318869</v>
+        <v>35.968529166679716</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12409,14 +12420,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.148758668789309</v>
+        <v>13.20110062466909</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.148758668789309</v>
+        <v>13.20110062466909</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12459,21 +12470,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16581227.897276837</v>
+        <v>16709824.941834468</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>15.426037171429558</v>
+        <v>15.536012476525611</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>17.745092415276876</v>
+        <v>17.882715904571139</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>24.221019211642588</v>
+        <v>24.408867271272861</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12522,27 +12533,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>16581227.897276837</v>
+        <v>16709824.941834468</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>14.097730074350235</v>
+        <v>14.202959561966118</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>15.426037171429558</v>
+        <v>15.536012476525611</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>16.585564793353218</v>
+        <v>16.709364190548374</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>17.745092415276876</v>
+        <v>17.882715904571139</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>24.221019211642588</v>
+        <v>24.408867271272861</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12583,27 +12594,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6108491.5243471917</v>
+        <v>6132807.9181538802</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.5566683719476933</v>
+        <v>5.5787880942796146</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.5372569081737568</v>
+        <v>6.5632801109171934</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.5372569081737568</v>
+        <v>6.5632801109171934</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.5372569081737568</v>
+        <v>6.5632801109171934</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.9229755167690534</v>
+        <v>8.9584956751794209</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12644,27 +12655,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>10261383.147131145</v>
+        <v>10324922.468296776</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.8271992231489644</v>
+        <v>9.8908738281228672</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>10.981647039801658</v>
+        <v>11.049646293721402</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>11.561410850763487</v>
+        <v>11.636322150732784</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.141174661725316</v>
+        <v>12.222998007744167</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>16.571997364205821</v>
+        <v>16.683681473226141</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0179.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0179.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{294FD70D-B78A-4C36-8CCA-0EF282A68E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19625FEE-8F88-4B3F-AC16-34D65E004BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -914,10 +897,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -955,6 +934,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1546,7 +1561,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2186,6 +2201,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3602,8 +3627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3616,28 +3641,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -3653,24 +3678,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>934412034</v>
@@ -3678,10 +3703,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3702,7 +3727,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45565</v>
@@ -3710,15 +3735,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3727,61 +3752,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3858,7 +3883,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>2963493</v>
@@ -3886,7 +3911,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <v>541794</v>
@@ -3914,7 +3939,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3930,7 +3955,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C29" s="150">
         <v>31560</v>
@@ -3958,7 +3983,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>3110</v>
@@ -3986,7 +4011,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150">
         <v>-70259</v>
@@ -4016,7 +4041,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150">
         <v>274900</v>
@@ -4048,7 +4073,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150">
         <v>184900</v>
@@ -4092,7 +4117,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4108,7 +4133,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4140,7 +4165,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4188,7 +4213,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4204,7 +4229,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>256</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4220,7 +4245,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4236,7 +4261,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <f>0.0564+0.0218</f>
@@ -4258,15 +4283,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.6505509055089186E-2</v>
+        <v>5.6503886050894347E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.7256525475739546E-2</v>
+        <v>4.7255168129520346E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4307,21 +4332,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4331,7 +4356,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4341,7 +4366,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4352,7 +4377,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4362,7 +4387,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4372,7 +4397,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4383,7 +4408,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4393,7 +4418,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4404,7 +4429,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4412,24 +4437,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4440,7 +4465,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4451,7 +4476,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4462,7 +4487,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4473,7 +4498,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4484,7 +4509,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4495,7 +4520,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4505,31 +4530,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4537,12 +4562,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4553,7 +4578,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4564,7 +4589,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4574,7 +4599,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4585,7 +4610,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4595,25 +4620,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4625,55 +4650,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4681,10 +4706,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4692,18 +4717,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45382</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4712,20 +4737,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4743,7 +4768,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4764,7 +4789,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4785,7 +4810,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4803,7 +4828,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4824,7 +4849,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4842,7 +4867,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4860,7 +4885,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4947,7 +4972,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4988,13 +5013,13 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0179.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -5003,47 +5028,47 @@
         <v>10.76</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>德昌電機</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>934412034</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
         <v>10054.27348584</v>
       </c>
-      <c r="H5" s="275"/>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5066,16 +5091,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5090,7 +5115,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7749268213907881</v>
+        <v>7.7747035026550293</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5100,40 +5125,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5146,29 +5171,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5178,12 +5203,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5193,29 +5218,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.77696054205677556</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5223,7 +5248,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5234,26 +5259,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>1.0871617989521474E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5262,30 +5287,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>8.274315042185636E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.5688672554430134</v>
+        <v>8.5691133855496755</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>1.8876764354796127E-2</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5294,18 +5319,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>5.275513804114592E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.6505509055089186E-2</v>
+        <v>5.6503886050894347E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5315,62 +5340,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>257</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>251</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>9.8908738281228672</v>
+        <v>9.8904657358921284</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>19.18623369421006</v>
+        <v>19.185432405635876</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>11.636322150732784</v>
-      </c>
-      <c r="G29" s="274">
+        <v>11.635842042226034</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>16.683681473226141</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>16.682984700552936</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5380,25 +5405,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5408,7 +5433,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5418,14 +5443,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5435,7 +5460,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5450,14 +5475,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6410,12 +6435,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D15" sqref="D15"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6442,16 +6467,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6469,7 +6494,7 @@
         <v>45382</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6502,7 +6527,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6513,7 +6538,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6665,7 +6690,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6716,7 +6741,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6767,7 +6792,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6818,7 +6843,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6869,7 +6894,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6920,7 +6945,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6971,7 +6996,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7022,7 +7047,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7073,7 +7098,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7124,7 +7149,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7175,7 +7200,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7226,7 +7251,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7277,7 +7302,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7328,7 +7353,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7379,7 +7404,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7430,7 +7455,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7481,7 +7506,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7532,7 +7557,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7583,7 +7608,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7736,7 +7761,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7787,7 +7812,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7889,7 +7914,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8093,7 +8118,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8144,7 +8169,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8195,7 +8220,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8246,7 +8271,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8297,7 +8322,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8348,7 +8373,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8366,7 +8391,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8417,7 +8442,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8468,7 +8493,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8519,7 +8544,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8570,7 +8595,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8621,7 +8646,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8672,7 +8697,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8723,7 +8748,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>258</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8740,50 +8765,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>260</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="E50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8792,10 +8817,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8843,167 +8868,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>261</v>
+        <v>143</v>
       </c>
       <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>-0.41797446666745985</v>
       </c>
-      <c r="D52" s="153">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+      <c r="D53" s="153">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
         <v>-0.13758097408829176</v>
       </c>
-      <c r="E52" s="153">
-        <f t="shared" si="43"/>
+      <c r="E53" s="153">
+        <f t="shared" si="44"/>
         <v>0.80615539580257478</v>
       </c>
-      <c r="F52" s="153">
-        <f t="shared" si="43"/>
+      <c r="F53" s="153">
+        <f t="shared" si="44"/>
         <v>0.4952379840799272</v>
       </c>
-      <c r="G52" s="153">
-        <f t="shared" si="43"/>
+      <c r="G53" s="153">
+        <f t="shared" si="44"/>
         <v>0.39027423104775699</v>
       </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>259</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>261</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -9011,112 +9037,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.17225256432181468</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>0.25325471900179536</v>
-      </c>
-      <c r="E56" s="153">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>-0.14734582166428389</v>
-      </c>
-      <c r="F56" s="153">
+        <v/>
+      </c>
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>7.5943677166327661E-2</v>
-      </c>
-      <c r="G56" s="153">
+        <v/>
+      </c>
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>0.12735702041452393</v>
-      </c>
-      <c r="H56" s="153">
+        <v/>
+      </c>
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>0.37619854126259999</v>
-      </c>
-      <c r="I56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.17225256432181468</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.25325471900179536</v>
+      </c>
+      <c r="E57" s="153">
+        <f t="shared" si="47"/>
+        <v>-0.14734582166428389</v>
+      </c>
+      <c r="F57" s="153">
+        <f t="shared" si="47"/>
+        <v>7.5943677166327661E-2</v>
+      </c>
+      <c r="G57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.12735702041452393</v>
+      </c>
+      <c r="H57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.37619854126259999</v>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>264</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9679,7 +9895,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10362,6 +10580,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10401,8 +10620,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10420,7 +10639,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10435,7 +10654,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10449,7 +10668,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10459,7 +10678,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10477,10 +10696,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10489,12 +10708,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in USD</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10504,7 +10724,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10514,8 +10734,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10527,7 +10748,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10545,7 +10766,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10564,32 +10785,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10606,7 +10827,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10617,7 +10838,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10634,7 +10855,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10645,7 +10866,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10662,7 +10883,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10673,7 +10894,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10690,7 +10911,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10701,7 +10922,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10718,7 +10939,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10728,7 +10949,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10750,7 +10971,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10772,7 +10993,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10793,7 +11014,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10818,7 +11039,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10845,7 +11066,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10866,7 +11087,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10883,7 +11104,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10895,13 +11116,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10923,7 +11144,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10943,7 +11164,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10952,7 +11173,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10972,7 +11193,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10985,7 +11206,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -11005,7 +11226,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -11051,7 +11272,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11060,7 +11281,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11076,7 +11297,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11086,7 +11307,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11103,7 +11324,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11113,7 +11334,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11130,7 +11351,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11140,7 +11361,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11160,7 +11381,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11170,7 +11391,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11187,7 +11408,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11197,7 +11418,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11223,7 +11444,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11250,7 +11471,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11277,7 +11498,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11298,7 +11519,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11319,7 +11540,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11340,7 +11561,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11361,7 +11582,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11378,7 +11599,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11396,7 +11617,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11415,7 +11636,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11434,7 +11655,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11451,7 +11672,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11464,7 +11685,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11481,7 +11702,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11494,7 +11715,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11511,7 +11732,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11538,7 +11759,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11554,14 +11775,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11578,7 +11799,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11608,7 +11829,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11619,14 +11840,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11634,30 +11855,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11674,11 +11895,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11688,7 +11909,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11709,7 +11930,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11730,7 +11951,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11751,7 +11972,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11766,7 +11987,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11797,11 +12018,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11811,7 +12032,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11832,7 +12053,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11847,7 +12068,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11869,21 +12090,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45382</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11893,23 +12114,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11930,7 +12151,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11960,7 +12181,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11981,7 +12202,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12011,7 +12232,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12041,7 +12262,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12072,7 +12293,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12099,12 +12320,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12134,7 +12355,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12164,7 +12385,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12194,7 +12415,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12215,7 +12436,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12246,7 +12467,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12267,28 +12488,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10626204699948485</v>
+        <v>0.1062589948413694</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10626204699948485</v>
+        <v>0.1062589948413694</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11670153944382694</v>
+        <v>0.11669818743282434</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12318,21 +12539,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6505509055089186E-2</v>
+        <v>5.6503886050894347E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6505509055089186E-2</v>
+        <v>5.6503886050894347E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6505509055089186E-2</v>
+        <v>5.6503886050894347E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12349,29 +12570,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12388,24 +12609,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>31.248470359749454</v>
+        <v>31.247141756670917</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>35.968529166679716</v>
+        <v>35.966956228660337</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12416,18 +12637,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.20110062466909</v>
+        <v>13.200620055826381</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.20110062466909</v>
+        <v>13.200620055826381</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12446,51 +12667,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16709824.941834468</v>
+        <v>16709094.205283461</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>15.536012476525611</v>
+        <v>15.535351925984518</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>17.882715904571139</v>
+        <v>17.88193387638184</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>24.408867271272861</v>
+        <v>24.407799848271964</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12508,7 +12729,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12529,31 +12750,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>16709824.941834468</v>
+        <v>16709094.205283461</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>14.202959561966118</v>
+        <v>14.202346466005702</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>15.536012476525611</v>
+        <v>15.535351925984518</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>16.709364190548374</v>
+        <v>16.708642901183179</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>17.882715904571139</v>
+        <v>17.88193387638184</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>24.408867271272861</v>
+        <v>24.407799848271964</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12563,58 +12784,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6132807.9181538802</v>
+        <v>6132584.661284049</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.5787880942796146</v>
+        <v>5.5785850057785558</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.5632801109171934</v>
+        <v>6.5630411832688891</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.5632801109171934</v>
+        <v>6.5630411832688891</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.5632801109171934</v>
+        <v>6.5630411832688891</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.9584956751794209</v>
+        <v>8.95816955283391</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12624,58 +12845,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>10324922.468296776</v>
+        <v>10324502.226674531</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.8908738281228672</v>
+        <v>9.8904657358921284</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.049646293721402</v>
+        <v>11.049196554626704</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>11.636322150732784</v>
+        <v>11.635842042226034</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.222998007744167</v>
+        <v>12.222487529825365</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>16.683681473226141</v>
+        <v>16.682984700552936</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12684,7 +12905,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12693,6 +12914,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0179.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0179.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19625FEE-8F88-4B3F-AC16-34D65E004BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED32EFB1-046C-44E9-BD5B-9D9290CE9C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -953,10 +919,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -970,6 +932,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1297,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1555,13 +1553,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2211,6 +2325,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2450,981 +2588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.77696054205677556</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14204607870614464</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0871617989521474E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.274315042185636E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8876764354796127E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.275513804114592E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3627,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3641,28 +2804,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -3678,24 +2841,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>934412034</v>
@@ -3703,10 +2866,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3727,7 +2890,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45565</v>
@@ -3735,10 +2898,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3752,55 +2915,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3955,7 +3118,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>31560</v>
@@ -4133,7 +3296,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4229,7 +3392,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4261,7 +3424,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>0.0564+0.0218</f>
@@ -4283,15 +3446,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.6503886050894347E-2</v>
+        <v>5.6716033970538648E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.7255168129520346E-2</v>
+        <v>4.7432591069990128E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4332,13 +3495,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4397,7 +3560,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4408,7 +3571,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4509,7 +3672,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4520,7 +3683,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4680,7 +3843,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4698,7 +3861,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4706,10 +3869,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4719,16 +3882,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45382</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4737,10 +3900,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4789,7 +3952,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4810,7 +3973,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4828,7 +3991,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4867,7 +4030,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4885,7 +4048,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4971,8 +4134,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5013,62 +4176,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0179.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.76</v>
+        <v>10.72</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>德昌電機</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>934412034</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>10054.27348584</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>10016.897004480001</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5091,16 +4254,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5115,7 +4278,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7747035026550293</v>
+        <v>7.7748834292093916</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5125,40 +4288,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5171,29 +4334,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5203,12 +4366,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5216,9 +4379,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>262</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5226,59 +4389,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.77696054205677556</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.14204607870614464</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>1.0871617989521474E-3</v>
+      <c r="B22" s="279" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>7.9906217438127689E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5287,30 +4450,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>259</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>8.274315042185636E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.5691133855496755</v>
+        <v>8.5370603760094674</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
-        <v>1.8876764354796127E-2</v>
+        <f>Fin_Analysis!I80</f>
+        <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5319,18 +4482,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>261</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>5.275513804114592E-2</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>1.8876764354796127E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.6503886050894347E-2</v>
+        <v>5.6716033970538648E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5340,62 +4503,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>241</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>9.8904657358921284</v>
+        <v>9.9069142578635674</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>19.185432405635876</v>
+        <v>19.218605561685511</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>11.635842042226034</v>
-      </c>
-      <c r="G29" s="278">
+        <v>11.655193244545373</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>16.682984700552936</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>16.711830923204793</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5405,7 +4568,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5416,14 +4579,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5433,7 +4596,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5443,14 +4606,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5460,7 +4623,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5475,14 +4638,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6426,7 +5589,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6440,7 +5602,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6467,16 +5629,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6494,7 +5656,7 @@
         <v>45382</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6527,7 +5689,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6894,7 +6056,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6945,7 +6107,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6996,7 +6158,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7047,7 +6209,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7149,7 +6311,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7302,7 +6464,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7812,7 +6974,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8322,7 +7484,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8373,7 +7535,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8442,7 +7604,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8646,7 +7808,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8748,7 +7910,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8766,14 +7928,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="e">
@@ -8817,7 +7979,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8868,7 +8030,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8919,7 +8081,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8970,7 +8132,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8987,7 +8149,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9187,7 +8349,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9237,7 +8399,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9287,7 +8449,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10791,7 +9953,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10949,7 +10111,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11361,7 +10523,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11829,7 +10991,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11843,11 +11005,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11858,11 +11020,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11874,11 +11036,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11895,7 +11057,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11972,7 +11134,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -12018,7 +11180,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -12053,7 +11215,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12092,19 +11254,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45382</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12114,18 +11276,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12202,7 +11364,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12232,7 +11394,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12262,7 +11424,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12325,7 +11487,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12355,7 +11517,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12436,7 +11598,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12467,7 +11629,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12488,28 +11650,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1062589948413694</v>
+        <v>0.10665795190918569</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1062589948413694</v>
+        <v>0.10665795190918569</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11669818743282434</v>
+        <v>0.11713633920291383</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12539,21 +11701,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6503886050894347E-2</v>
+        <v>5.6716033970538648E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6503886050894347E-2</v>
+        <v>5.6716033970538648E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6503886050894347E-2</v>
+        <v>5.6716033970538648E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12575,24 +11737,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12609,24 +11771,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>31.247141756670917</v>
+        <v>31.304251110914187</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>35.966956228660337</v>
+        <v>36.038406253026565</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12637,18 +11799,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.200620055826381</v>
+        <v>13.214184726265174</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.200620055826381</v>
+        <v>13.214184726265174</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12667,14 +11829,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12691,21 +11853,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16709094.205283461</v>
+        <v>16742287.594807863</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>15.535351925984518</v>
+        <v>15.563745368282179</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>17.88193387638184</v>
+        <v>17.917457166233223</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>24.407799848271964</v>
+        <v>24.456287073123519</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12754,27 +11916,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>16709094.205283461</v>
+        <v>16742287.594807863</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>14.202346466005702</v>
+        <v>14.229511077169047</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>15.535351925984518</v>
+        <v>15.563745368282179</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>16.708642901183179</v>
+        <v>16.740601267257702</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>17.88193387638184</v>
+        <v>17.917457166233223</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>24.407799848271964</v>
+        <v>24.456287073123519</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12784,21 +11946,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12811,31 +11973,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6132584.661284049</v>
+        <v>6138886.3720761575</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.5785850057785558</v>
+        <v>5.5843174385580889</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.5630411832688891</v>
+        <v>6.5697852218330457</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.5630411832688891</v>
+        <v>6.5697852218330457</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.5630411832688891</v>
+        <v>6.5697852218330457</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.95816955283391</v>
+        <v>8.9673747732860658</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12845,21 +12007,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12872,31 +12034,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>10324502.226674531</v>
+        <v>10340918.669155393</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.8904657358921284</v>
+        <v>9.9069142578635674</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.049196554626704</v>
+        <v>11.066765295057612</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>11.635842042226034</v>
+        <v>11.655193244545373</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.222487529825365</v>
+        <v>12.243621194033135</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>16.682984700552936</v>
+        <v>16.711830923204793</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12905,7 +12067,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0179.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0179.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED32EFB1-046C-44E9-BD5B-9D9290CE9C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C61BF29-7E17-4996-AD38-502708F519E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -903,10 +899,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -968,6 +960,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2399,7 +2403,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2496,12 +2500,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2790,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2804,28 +2824,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -2841,24 +2861,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>934412034</v>
@@ -2866,10 +2886,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2890,7 +2910,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45565</v>
@@ -2898,10 +2918,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2915,61 +2935,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3118,7 +3138,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C29" s="150">
         <v>31560</v>
@@ -3262,9 +3282,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>263</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3280,7 +3300,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3296,7 +3316,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3311,10 +3331,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3326,9 +3347,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3375,10 +3396,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3392,9 +3414,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3408,7 +3430,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3424,7 +3446,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <f>0.0564+0.0218</f>
@@ -3446,15 +3468,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.6716033970538648E-2</v>
+        <v>5.692430456925867E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.7432591069990128E-2</v>
+        <v>4.7606771340530915E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3495,13 +3517,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3519,7 +3541,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3529,7 +3551,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3560,7 +3582,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3571,7 +3593,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3605,7 +3627,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3672,7 +3694,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3683,7 +3705,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3730,7 +3752,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3843,7 +3865,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3861,7 +3883,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3869,10 +3891,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3880,7 +3902,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3888,10 +3910,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3913,7 +3935,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3952,7 +3974,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3973,7 +3995,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3991,7 +4013,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4030,7 +4052,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4048,7 +4070,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4071,28 +4093,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4134,8 +4161,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4176,7 +4203,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4188,15 +4215,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.72</v>
+        <v>10.68</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4216,7 +4243,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4229,7 +4256,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>10016.897004480001</v>
+        <v>9979.5205231199998</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4263,7 +4290,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4278,7 +4305,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7748834292093916</v>
+        <v>7.7743167877197266</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4288,40 +4315,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4334,29 +4361,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4366,12 +4393,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4381,7 +4408,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4389,21 +4416,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4411,10 +4438,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4422,58 +4449,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>7.9906217438127689E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>8.274315042185636E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.5370603760094674</v>
+        <v>8.5058255864187196</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4482,18 +4509,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>1.8876764354796127E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.6716033970538648E-2</v>
+        <v>5.692430456925867E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4503,40 +4530,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>9.9069142578635674</v>
+        <v>9.9221362093216836</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>19.218605561685511</v>
+        <v>19.249379654437831</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>11.655193244545373</v>
+        <v>11.673101422731392</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>16.711830923204793</v>
+        <v>16.738591003858986</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4544,21 +4571,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4568,25 +4595,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4596,7 +4623,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4606,14 +4633,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4623,7 +4650,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4638,14 +4665,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5545,27 +5572,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5597,12 +5624,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5629,16 +5656,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5656,7 +5683,7 @@
         <v>45382</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -5689,7 +5716,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5700,7 +5727,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6056,7 +6083,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6107,7 +6134,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6158,7 +6185,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6209,7 +6236,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6311,7 +6338,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6464,7 +6491,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6719,7 +6746,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6770,7 +6797,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6824,15 +6851,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6872,50 +6899,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6923,50 +6950,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6974,101 +7001,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>261</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7076,101 +7103,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7178,50 +7205,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7229,50 +7256,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7280,50 +7307,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7331,272 +7358,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="e">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="e">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.77696054205677556</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.80365122476803419</v>
+      </c>
+      <c r="E40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.79631578718273499</v>
+      </c>
+      <c r="F40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.77083122766473089</v>
+      </c>
+      <c r="G40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.7810564129119667</v>
+      </c>
+      <c r="H40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.77092721851516632</v>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>247</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.14204607870614464</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.15260801965048315</v>
+      </c>
+      <c r="E41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.15768842923284743</v>
+      </c>
+      <c r="F41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.14804685309345555</v>
+      </c>
+      <c r="G41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.14741449640691942</v>
+      </c>
+      <c r="H41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.14819620038038264</v>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.77696054205677556</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.80365122476803419</v>
-      </c>
-      <c r="E42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.79631578718273499</v>
-      </c>
-      <c r="F42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.77083122766473089</v>
-      </c>
-      <c r="G42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.7810564129119667</v>
-      </c>
-      <c r="H42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.77092721851516632</v>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153">
+        <f t="shared" si="36"/>
+        <v>6.7816096957245317E-2</v>
+      </c>
+      <c r="F42" s="153">
+        <f t="shared" si="36"/>
+        <v>1.344385571974578E-2</v>
+      </c>
+      <c r="G42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7604,50 +7631,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.14204607870614464</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>8.274315042185636E-3</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.15260801965048315</v>
+        <f t="shared" si="37"/>
+        <v>5.9452255946665479E-3</v>
       </c>
       <c r="E43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.15768842923284743</v>
+        <f t="shared" si="37"/>
+        <v>5.8220196717696029E-3</v>
       </c>
       <c r="F43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.14804685309345555</v>
+        <f t="shared" si="37"/>
+        <v>4.2824150717184128E-3</v>
       </c>
       <c r="G43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.14741449640691942</v>
+        <f t="shared" si="37"/>
+        <v>6.387915915563828E-3</v>
       </c>
       <c r="H43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.14819620038038264</v>
+        <f t="shared" si="37"/>
+        <v>5.5975205319138237E-3</v>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7655,50 +7682,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>1.0871617989521474E-3</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.2652722890649846E-3</v>
       </c>
       <c r="E44" s="153">
-        <f t="shared" si="36"/>
-        <v>6.7816096957245317E-2</v>
+        <f t="shared" si="38"/>
+        <v>2.2607493689644148E-3</v>
       </c>
       <c r="F44" s="153">
-        <f t="shared" si="36"/>
-        <v>1.344385571974578E-2</v>
+        <f t="shared" si="38"/>
+        <v>3.0239249367032058E-3</v>
       </c>
       <c r="G44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>2.9467657389630627E-3</v>
       </c>
       <c r="H44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>3.3857855738911626E-3</v>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7706,50 +7733,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>8.274315042185636E-3</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>2.3595955443495159E-2</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>5.9452255946665479E-3</v>
+        <f t="shared" si="39"/>
+        <v>1.3054977086595363E-2</v>
       </c>
       <c r="E45" s="153">
-        <f t="shared" si="37"/>
-        <v>5.8220196717696029E-3</v>
+        <f t="shared" si="39"/>
+        <v>9.6095390236081556E-3</v>
       </c>
       <c r="F45" s="153">
-        <f t="shared" si="37"/>
-        <v>4.2824150717184128E-3</v>
+        <f t="shared" si="39"/>
+        <v>3.9823671971314532E-3</v>
       </c>
       <c r="G45" s="153">
-        <f t="shared" si="37"/>
-        <v>6.387915915563828E-3</v>
+        <f t="shared" si="39"/>
+        <v>1.2036860626252855E-2</v>
       </c>
       <c r="H45" s="153">
-        <f t="shared" si="37"/>
-        <v>5.5975205319138237E-3</v>
+        <f t="shared" si="39"/>
+        <v>5.7014109031847213E-2</v>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7757,221 +7784,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>1.0871617989521474E-3</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>4.8035946952446888E-2</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>1.2652722890649846E-3</v>
+        <f t="shared" si="40"/>
+        <v>2.347528061115577E-2</v>
       </c>
       <c r="E46" s="153">
-        <f t="shared" si="38"/>
-        <v>2.2607493689644148E-3</v>
+        <f t="shared" si="40"/>
+        <v>-3.9512621437169937E-2</v>
       </c>
       <c r="F46" s="153">
-        <f t="shared" si="38"/>
-        <v>3.0239249367032058E-3</v>
+        <f t="shared" si="40"/>
+        <v>5.6389356316514705E-2</v>
       </c>
       <c r="G46" s="153">
-        <f t="shared" si="38"/>
-        <v>2.9467657389630627E-3</v>
+        <f t="shared" si="40"/>
+        <v>5.0157548400334151E-2</v>
       </c>
       <c r="H46" s="153">
-        <f t="shared" si="38"/>
-        <v>3.3857855738911626E-3</v>
+        <f t="shared" si="40"/>
+        <v>1.4879165966798778E-2</v>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>2.3595955443495159E-2</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>1.3054977086595363E-2</v>
-      </c>
-      <c r="E47" s="153">
-        <f t="shared" si="39"/>
-        <v>9.6095390236081556E-3</v>
-      </c>
-      <c r="F47" s="153">
-        <f t="shared" si="39"/>
-        <v>3.9823671971314532E-3</v>
-      </c>
-      <c r="G47" s="153">
-        <f t="shared" si="39"/>
-        <v>1.2036860626252855E-2</v>
-      </c>
-      <c r="H47" s="153">
-        <f t="shared" si="39"/>
-        <v>5.7014109031847213E-2</v>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>4.8035946952446888E-2</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>2.347528061115577E-2</v>
-      </c>
-      <c r="E48" s="153">
-        <f t="shared" si="40"/>
-        <v>-3.9512621437169937E-2</v>
-      </c>
-      <c r="F48" s="153">
-        <f t="shared" si="40"/>
-        <v>5.6389356316514705E-2</v>
-      </c>
-      <c r="G48" s="153">
-        <f t="shared" si="40"/>
-        <v>5.0157548400334151E-2</v>
-      </c>
-      <c r="H48" s="153">
-        <f t="shared" si="40"/>
-        <v>1.4879165966798778E-2</v>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7979,522 +8006,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>-0.41797446666745985</v>
+      </c>
+      <c r="D51" s="153">
+        <f t="shared" si="44"/>
+        <v>-0.13758097408829176</v>
+      </c>
+      <c r="E51" s="153">
+        <f t="shared" si="44"/>
+        <v>0.80615539580257478</v>
+      </c>
+      <c r="F51" s="153">
+        <f t="shared" si="44"/>
+        <v>0.4952379840799272</v>
+      </c>
+      <c r="G51" s="153">
+        <f t="shared" si="44"/>
+        <v>0.39027423104775699</v>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>247</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C53" s="153">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>-0.41797446666745985</v>
-      </c>
-      <c r="D53" s="153">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v>-0.13758097408829176</v>
-      </c>
-      <c r="E53" s="153">
-        <f t="shared" si="44"/>
-        <v>0.80615539580257478</v>
-      </c>
-      <c r="F53" s="153">
-        <f t="shared" si="44"/>
-        <v>0.4952379840799272</v>
-      </c>
-      <c r="G53" s="153">
-        <f t="shared" si="44"/>
-        <v>0.39027423104775699</v>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.17225256432181468</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.25325471900179536</v>
+      </c>
+      <c r="E55" s="153">
+        <f t="shared" si="47"/>
+        <v>-0.14734582166428389</v>
+      </c>
+      <c r="F55" s="153">
+        <f t="shared" si="47"/>
+        <v>7.5943677166327661E-2</v>
+      </c>
+      <c r="G55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.12735702041452393</v>
+      </c>
+      <c r="H55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.37619854126259999</v>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.17225256432181468</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.25325471900179536</v>
-      </c>
-      <c r="E57" s="153">
-        <f t="shared" si="47"/>
-        <v>-0.14734582166428389</v>
-      </c>
-      <c r="F57" s="153">
-        <f t="shared" si="47"/>
-        <v>7.5943677166327661E-2</v>
-      </c>
-      <c r="G57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.12735702041452393</v>
-      </c>
-      <c r="H57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.37619854126259999</v>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>251</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9054,12 +8985,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9741,27 +9668,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9953,7 +9883,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10000,7 +9930,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10028,7 +9958,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10111,7 +10041,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10133,7 +10063,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10201,7 +10131,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10523,7 +10453,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10660,7 +10590,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10991,7 +10921,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11057,7 +10987,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11092,7 +11022,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11113,7 +11043,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11134,7 +11064,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11149,7 +11079,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11180,7 +11110,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11194,7 +11124,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11215,7 +11145,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11230,7 +11160,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11252,7 +11182,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11260,11 +11190,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11292,7 +11222,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11364,7 +11294,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11394,7 +11324,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11424,7 +11354,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11482,12 +11412,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11517,7 +11447,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11547,7 +11477,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11598,7 +11528,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11629,7 +11559,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11650,28 +11580,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10665795190918569</v>
+        <v>0.10704961743914704</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10665795190918569</v>
+        <v>0.10704961743914704</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11713633920291383</v>
+        <v>0.11756648309327003</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11701,21 +11631,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6716033970538648E-2</v>
+        <v>5.692430456925867E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6716033970538648E-2</v>
+        <v>5.692430456925867E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6716033970538648E-2</v>
+        <v>5.692430456925867E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11732,27 +11662,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11771,24 +11701,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>31.304251110914187</v>
+        <v>31.357400408946976</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>36.038406253026565</v>
+        <v>36.105209542744305</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11799,18 +11729,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.214184726265174</v>
+        <v>13.22624791820887</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.214184726265174</v>
+        <v>13.22624791820887</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11829,14 +11759,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11849,31 +11779,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16742287.594807863</v>
+        <v>16773322.260460975</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>15.563745368282179</v>
+        <v>15.590169962761518</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>17.917457166233223</v>
+        <v>17.950670207722276</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>24.456287073123519</v>
+        <v>24.501620943308993</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11891,7 +11821,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11916,27 +11846,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>16742287.594807863</v>
+        <v>16773322.260460975</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>14.229511077169047</v>
+        <v>14.254857072455611</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>15.563745368282179</v>
+        <v>15.590169962761518</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>16.740601267257702</v>
+        <v>16.770420085241895</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>17.917457166233223</v>
+        <v>17.950670207722276</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>24.456287073123519</v>
+        <v>24.501620943308993</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11946,21 +11876,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11973,31 +11903,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6138886.3720761575</v>
+        <v>6144490.5441201357</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.5843174385580889</v>
+        <v>5.5894153461877556</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.5697852218330457</v>
+        <v>6.5757827602208891</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.5697852218330457</v>
+        <v>6.5757827602208891</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.5697852218330457</v>
+        <v>6.5757827602208891</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.9673747732860658</v>
+        <v>8.975561064408982</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12007,21 +11937,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12034,31 +11964,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>10340918.669155393</v>
+        <v>10356066.484714914</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.9069142578635674</v>
+        <v>9.9221362093216836</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.066765295057612</v>
+        <v>11.082976361491204</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>11.655193244545373</v>
+        <v>11.673101422731392</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.243621194033135</v>
+        <v>12.263226483971582</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>16.711830923204793</v>
+        <v>16.738591003858986</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12067,7 +11997,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0179.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0179.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C61BF29-7E17-4996-AD38-502708F519E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED6CF7E6-1483-4DF8-9F04-FC8E18DD8029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -939,10 +935,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -972,6 +964,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1914,7 +1922,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2150,12 +2157,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2354,6 +2357,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2593,8 +2601,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2810,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,162 +2836,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>264</v>
+      <c r="C4" s="187" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>265</v>
+      <c r="C5" s="190" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45593</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>267</v>
+      <c r="C9" s="191" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>934412034</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>268</v>
+      <c r="C11" s="191" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45382</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45565</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="176" t="s">
+      <c r="B15" s="215" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="175" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>269</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>270</v>
+      <c r="C19" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>270</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>269</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>271</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3040,489 +3048,493 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>3814213</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>3646119</v>
       </c>
-      <c r="E25" s="149">
+      <c r="E25" s="148">
         <v>3446055</v>
       </c>
-      <c r="F25" s="149">
+      <c r="F25" s="148">
         <v>3156163</v>
       </c>
-      <c r="G25" s="149">
+      <c r="G25" s="148">
         <v>3070485</v>
       </c>
-      <c r="H25" s="149">
+      <c r="H25" s="148">
         <v>3280381</v>
       </c>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>2963493</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>2930208</v>
       </c>
-      <c r="E26" s="150">
+      <c r="E26" s="149">
         <v>2744148</v>
       </c>
-      <c r="F26" s="150">
+      <c r="F26" s="149">
         <v>2432869</v>
       </c>
-      <c r="G26" s="150">
+      <c r="G26" s="149">
         <v>2398222</v>
       </c>
-      <c r="H26" s="150">
+      <c r="H26" s="149">
         <v>2528935</v>
       </c>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>541794</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>556427</v>
       </c>
-      <c r="E27" s="150">
+      <c r="E27" s="149">
         <v>543403</v>
       </c>
-      <c r="F27" s="150">
+      <c r="F27" s="149">
         <v>467260</v>
       </c>
-      <c r="G27" s="150">
+      <c r="G27" s="149">
         <v>452634</v>
       </c>
-      <c r="H27" s="150">
+      <c r="H27" s="149">
         <v>486140</v>
       </c>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="150">
+        <v>238</v>
+      </c>
+      <c r="C29" s="149">
         <v>31560</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>21677</v>
       </c>
-      <c r="E29" s="150">
+      <c r="E29" s="149">
         <v>20063</v>
       </c>
-      <c r="F29" s="150">
+      <c r="F29" s="149">
         <v>13516</v>
       </c>
-      <c r="G29" s="150">
+      <c r="G29" s="149">
         <v>19614</v>
       </c>
-      <c r="H29" s="150">
+      <c r="H29" s="149">
         <v>18362</v>
       </c>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>3110</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>3460</v>
       </c>
-      <c r="E30" s="150">
+      <c r="E30" s="149">
         <v>5843</v>
       </c>
-      <c r="F30" s="150">
+      <c r="F30" s="149">
         <v>7158</v>
       </c>
-      <c r="G30" s="150">
+      <c r="G30" s="149">
         <v>6786</v>
       </c>
-      <c r="H30" s="150">
+      <c r="H30" s="149">
         <v>8330</v>
       </c>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150">
+      <c r="C31" s="149">
         <v>-70259</v>
       </c>
-      <c r="D31" s="150">
+      <c r="D31" s="149">
         <v>-27525</v>
       </c>
-      <c r="E31" s="150">
+      <c r="E31" s="149">
         <v>233698</v>
       </c>
-      <c r="F31" s="150">
+      <c r="F31" s="149">
         <v>42431</v>
       </c>
-      <c r="G31" s="150">
+      <c r="G31" s="149">
         <f>-81917</f>
         <v>-81917</v>
       </c>
-      <c r="H31" s="150">
+      <c r="H31" s="149">
         <f>-17970</f>
         <v>-17970</v>
       </c>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150">
+      <c r="C32" s="149">
         <v>274900</v>
       </c>
-      <c r="D32" s="150">
+      <c r="D32" s="149">
         <v>274200</v>
       </c>
-      <c r="E32" s="150">
+      <c r="E32" s="149">
         <f>248096+35189</f>
         <v>283285</v>
       </c>
-      <c r="F32" s="150">
+      <c r="F32" s="149">
         <f>219704+31327</f>
         <v>251031</v>
       </c>
-      <c r="G32" s="150">
+      <c r="G32" s="149">
         <f>203765+41376</f>
         <v>245141</v>
       </c>
-      <c r="H32" s="150">
+      <c r="H32" s="149">
         <f>162220+42152</f>
         <v>204372</v>
       </c>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150">
+      <c r="C33" s="149">
         <v>184900</v>
       </c>
-      <c r="D33" s="150">
+      <c r="D33" s="149">
         <v>226600</v>
       </c>
-      <c r="E33" s="150">
+      <c r="E33" s="149">
         <v>316400</v>
       </c>
-      <c r="F33" s="150">
+      <c r="F33" s="149">
         <v>263600</v>
       </c>
-      <c r="G33" s="150">
+      <c r="G33" s="149">
         <v>282100</v>
       </c>
-      <c r="H33" s="150">
+      <c r="H33" s="149">
         <v>391400</v>
       </c>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>263</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>261</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>260</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>0.0564+0.0218</f>
         <v>7.8199999999999992E-2</v>
       </c>
-      <c r="D44" s="250">
+      <c r="D44" s="247">
         <f>0.0436+0.0218</f>
         <v>6.54E-2</v>
       </c>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="152">
+        <v>234</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.692430456925867E-2</v>
-      </c>
-      <c r="D45" s="152">
+        <v>5.735215133690983E-2</v>
+      </c>
+      <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.7606771340530915E-2</v>
-      </c>
-      <c r="E45" s="152" t="str">
+        <v>4.7964586923707211E-2</v>
+      </c>
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3593,7 +3605,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3621,7 +3633,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3633,7 +3645,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3652,8 +3664,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3705,7 +3717,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3721,7 +3733,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3733,7 +3745,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3746,7 +3758,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3794,14 +3806,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3825,7 +3837,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3855,19 +3867,19 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>265</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3883,20 +3895,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3926,10 +3938,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3941,12 +3953,12 @@
         <f>C25</f>
         <v>3814213</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>3814213</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>3814213</v>
       </c>
@@ -3959,75 +3971,75 @@
         <f>C26</f>
         <v>2963493</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.77696054205677556</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>2963493</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>2963493</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>541794</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.14204607870614464</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>541794</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>541794</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>31560</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>8.274315042185636E-3</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>31560</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>90000</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>2.3595955443495159E-2</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>90000</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95*0.8</f>
         <v>72000</v>
       </c>
@@ -4040,12 +4052,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4058,12 +4070,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>4146.666666666667</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>1.0871617989521474E-3</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>4146.666666666667</v>
       </c>
@@ -4072,16 +4084,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>7.8199999999999992E-2</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>7.8199999999999992E-2</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>7.8199999999999992E-2</v>
       </c>
@@ -4162,7 +4174,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4214,11 +4226,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>10.68</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>273</v>
+      <c r="G3" s="131">
+        <v>10.6</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4256,7 +4268,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>9979.5205231199998</v>
+        <v>9904.7675603999996</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4266,11 +4278,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45808</v>
       </c>
@@ -4292,11 +4304,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0006</v>
       </c>
@@ -4304,8 +4316,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>7.7743167877197266</v>
+      <c r="G7" s="132">
+        <v>7.7740767796834307</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4314,10 +4326,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4325,7 +4337,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4333,13 +4345,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4348,12 +4360,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="174">
+        <v>235</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4363,7 +4375,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4374,7 +4386,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4382,13 +4394,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -4398,49 +4410,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="175">
+        <v>236</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>250</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4448,79 +4460,79 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>255</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>7.9906217438127689E-2</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>8.274315042185636E-3</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>241</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.5058255864187196</v>
+        <v>8.4423721692665765</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.48418820629429243</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>1.8876764354796127E-2</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.692430456925867E-2</v>
+        <v>5.735215133690983E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4537,10 +4549,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4548,22 +4560,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>9.9221362093216836</v>
-      </c>
-      <c r="D29" s="129">
+        <v>9.9546506325786357</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>19.249379654437831</v>
+        <v>19.315023000515257</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>11.673101422731392</v>
+        <v>11.71135368538663</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>16.738591003858986</v>
+        <v>16.795672174361094</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4571,23 +4583,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4595,9 +4607,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4605,17 +4617,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4623,26 +4635,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4650,9 +4662,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4665,16 +4677,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5626,10 +5638,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5655,16 +5667,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5678,11 +5690,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45382</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85">
@@ -5707,7 +5719,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5715,7 +5727,7 @@
         <f>Dashboard!G6</f>
         <v>USD</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93">
@@ -5779,47 +5791,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>3814213</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>3646119</v>
       </c>
-      <c r="E6" s="200">
+      <c r="E6" s="199">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>3446055</v>
       </c>
-      <c r="F6" s="200">
+      <c r="F6" s="199">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>3156163</v>
       </c>
-      <c r="G6" s="200">
+      <c r="G6" s="199">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>3070485</v>
       </c>
-      <c r="H6" s="200">
+      <c r="H6" s="199">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v>3280381</v>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5881,47 +5893,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>2963493</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>2930208</v>
       </c>
-      <c r="E8" s="199">
+      <c r="E8" s="198">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>2744148</v>
       </c>
-      <c r="F8" s="199">
+      <c r="F8" s="198">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>2432869</v>
       </c>
-      <c r="G8" s="199">
+      <c r="G8" s="198">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>2398222</v>
       </c>
-      <c r="H8" s="199">
+      <c r="H8" s="198">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v>2528935</v>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5932,47 +5944,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>850720</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>715911</v>
       </c>
-      <c r="E9" s="151">
+      <c r="E9" s="150">
         <f t="shared" si="2"/>
         <v>701907</v>
       </c>
-      <c r="F9" s="151">
+      <c r="F9" s="150">
         <f t="shared" si="2"/>
         <v>723294</v>
       </c>
-      <c r="G9" s="151">
+      <c r="G9" s="150">
         <f t="shared" si="2"/>
         <v>672263</v>
       </c>
-      <c r="H9" s="151">
+      <c r="H9" s="150">
         <f t="shared" si="2"/>
         <v>751446</v>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5983,47 +5995,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>541794</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>556427</v>
       </c>
-      <c r="E10" s="199">
+      <c r="E10" s="198">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>543403</v>
       </c>
-      <c r="F10" s="199">
+      <c r="F10" s="198">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>467260</v>
       </c>
-      <c r="G10" s="199">
+      <c r="G10" s="198">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>452634</v>
       </c>
-      <c r="H10" s="199">
+      <c r="H10" s="198">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v>486140</v>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6034,47 +6046,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6083,49 +6095,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>4146.666666666667</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>4613.333333333333</v>
       </c>
-      <c r="E12" s="199">
+      <c r="E12" s="198">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>7790.666666666667</v>
       </c>
-      <c r="F12" s="199">
+      <c r="F12" s="198">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>9544</v>
       </c>
-      <c r="G12" s="199">
+      <c r="G12" s="198">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>9048</v>
       </c>
-      <c r="H12" s="199">
+      <c r="H12" s="198">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>11106.666666666666</v>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6133,50 +6145,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>7.9906217438127689E-2</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>4.2475483292417682E-2</v>
       </c>
-      <c r="E13" s="229">
+      <c r="E13" s="226">
         <f t="shared" si="3"/>
         <v>4.3735034215453134E-2</v>
       </c>
-      <c r="F13" s="229">
+      <c r="F13" s="226">
         <f t="shared" si="3"/>
         <v>7.8097994305110358E-2</v>
       </c>
-      <c r="G13" s="229">
+      <c r="G13" s="226">
         <f t="shared" si="3"/>
         <v>6.858232494215083E-2</v>
       </c>
-      <c r="H13" s="229">
+      <c r="H13" s="226">
         <f t="shared" si="3"/>
         <v>7.749079553055982E-2</v>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6184,50 +6196,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>304779.33333333331</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>154870.66666666666</v>
       </c>
-      <c r="E14" s="230">
+      <c r="E14" s="227">
         <f t="shared" si="4"/>
         <v>150713.33333333334</v>
       </c>
-      <c r="F14" s="230">
+      <c r="F14" s="227">
         <f t="shared" si="4"/>
         <v>246490</v>
       </c>
-      <c r="G14" s="230">
+      <c r="G14" s="227">
         <f t="shared" si="4"/>
         <v>210581</v>
       </c>
-      <c r="H14" s="230">
+      <c r="H14" s="227">
         <f t="shared" si="4"/>
         <v>254199.33333333334</v>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6235,50 +6247,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.96796036262515817</v>
       </c>
-      <c r="D15" s="232">
+      <c r="D15" s="229">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>2.7584376520546603E-2</v>
       </c>
-      <c r="E15" s="232">
+      <c r="E15" s="229">
         <f t="shared" si="5"/>
         <v>-0.38856207824522965</v>
       </c>
-      <c r="F15" s="232">
+      <c r="F15" s="229">
         <f t="shared" si="5"/>
         <v>0.17052345653216577</v>
       </c>
-      <c r="G15" s="232">
+      <c r="G15" s="229">
         <f t="shared" si="5"/>
         <v>-0.17159106108329686</v>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6289,47 +6301,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199">
+      <c r="C16" s="198">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-70259</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>-27525</v>
       </c>
-      <c r="E16" s="199">
+      <c r="E16" s="198">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v>233698</v>
       </c>
-      <c r="F16" s="199">
+      <c r="F16" s="198">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v>42431</v>
       </c>
-      <c r="G16" s="199">
+      <c r="G16" s="198">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v>-81917</v>
       </c>
-      <c r="H16" s="199">
+      <c r="H16" s="198">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v>-17970</v>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6338,49 +6350,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="199">
+        <v>238</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>31560</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>21677</v>
       </c>
-      <c r="E17" s="199">
+      <c r="E17" s="198">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>20063</v>
       </c>
-      <c r="F17" s="199">
+      <c r="F17" s="198">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>13516</v>
       </c>
-      <c r="G17" s="199">
+      <c r="G17" s="198">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>19614</v>
       </c>
-      <c r="H17" s="199">
+      <c r="H17" s="198">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v>18362</v>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6391,47 +6403,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152">
+      <c r="C18" s="151">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>7.2072535015742428E-2</v>
       </c>
-      <c r="D18" s="152">
+      <c r="D18" s="151">
         <f t="shared" si="6"/>
         <v>7.5203250360177498E-2</v>
       </c>
-      <c r="E18" s="152">
+      <c r="E18" s="151">
         <f t="shared" si="6"/>
         <v>8.2205594513146185E-2</v>
       </c>
-      <c r="F18" s="152">
+      <c r="F18" s="151">
         <f t="shared" si="6"/>
         <v>7.953676663721107E-2</v>
       </c>
-      <c r="G18" s="152">
+      <c r="G18" s="151">
         <f t="shared" si="6"/>
         <v>7.983787577532539E-2</v>
       </c>
-      <c r="H18" s="152">
+      <c r="H18" s="151">
         <f t="shared" si="6"/>
         <v>6.2301299757558652E-2</v>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6442,47 +6454,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199">
+      <c r="C19" s="198">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>274900</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>274200</v>
       </c>
-      <c r="E19" s="199">
+      <c r="E19" s="198">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v>283285</v>
       </c>
-      <c r="F19" s="199">
+      <c r="F19" s="198">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v>251031</v>
       </c>
-      <c r="G19" s="199">
+      <c r="G19" s="198">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v>245141</v>
       </c>
-      <c r="H19" s="199">
+      <c r="H19" s="198">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v>204372</v>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6491,49 +6503,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>4.8476579572247276E-2</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>6.2148273273582126E-2</v>
       </c>
-      <c r="E20" s="152">
+      <c r="E20" s="151">
         <f t="shared" si="7"/>
         <v>9.1815133536754343E-2</v>
       </c>
-      <c r="F20" s="152">
+      <c r="F20" s="151">
         <f t="shared" si="7"/>
         <v>8.3519133834342521E-2</v>
       </c>
-      <c r="G20" s="152">
+      <c r="G20" s="151">
         <f t="shared" si="7"/>
         <v>9.1874736401578255E-2</v>
       </c>
-      <c r="H20" s="152">
+      <c r="H20" s="151">
         <f t="shared" si="7"/>
         <v>0.11931540878940586</v>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6544,47 +6556,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199">
+      <c r="C21" s="198">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>184900</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>226600</v>
       </c>
-      <c r="E21" s="199">
+      <c r="E21" s="198">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v>316400</v>
       </c>
-      <c r="F21" s="199">
+      <c r="F21" s="198">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v>263600</v>
       </c>
-      <c r="G21" s="199">
+      <c r="G21" s="198">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v>282100</v>
       </c>
-      <c r="H21" s="199">
+      <c r="H21" s="198">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v>391400</v>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6595,47 +6607,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>183219.33333333331</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>85593.666666666657</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="160">
         <f t="shared" si="8"/>
         <v>-136162.66666666666</v>
       </c>
-      <c r="F22" s="161">
+      <c r="F22" s="160">
         <f t="shared" si="8"/>
         <v>177974</v>
       </c>
-      <c r="G22" s="161">
+      <c r="G22" s="160">
         <f t="shared" si="8"/>
         <v>154008</v>
       </c>
-      <c r="H22" s="161">
+      <c r="H22" s="160">
         <f t="shared" si="8"/>
         <v>48809.333333333343</v>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6646,47 +6658,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>3.6026960214335171E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>1.7606460458366825E-2</v>
       </c>
-      <c r="E23" s="153">
+      <c r="E23" s="152">
         <f t="shared" si="9"/>
         <v>-2.9634466077877456E-2</v>
       </c>
-      <c r="F23" s="153">
+      <c r="F23" s="152">
         <f t="shared" si="9"/>
         <v>4.2292017237386029E-2</v>
       </c>
-      <c r="G23" s="153">
+      <c r="G23" s="152">
         <f t="shared" si="9"/>
         <v>3.7618161300250613E-2</v>
       </c>
-      <c r="H23" s="153">
+      <c r="H23" s="152">
         <f t="shared" si="9"/>
         <v>1.1159374475099083E-2</v>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6697,7 +6709,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>137414.5</v>
       </c>
@@ -6745,50 +6757,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>1.1405711481768512</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v>Turn</v>
       </c>
-      <c r="F25" s="233">
+      <c r="F25" s="230">
         <f t="shared" si="10"/>
         <v>0.15561529271206689</v>
       </c>
-      <c r="G25" s="233">
+      <c r="G25" s="230">
         <f t="shared" si="10"/>
         <v>2.1552981670172366</v>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6905,43 +6917,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6956,43 +6968,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7001,49 +7013,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7058,43 +7070,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7109,43 +7121,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7211,43 +7223,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199" t="str">
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7262,43 +7274,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7313,43 +7325,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7411,47 +7423,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="e">
+      <c r="E38" s="154" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7460,7 +7472,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7480,47 +7492,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.77696054205677556</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.80365122476803419</v>
       </c>
-      <c r="E40" s="156">
+      <c r="E40" s="155">
         <f t="shared" si="34"/>
         <v>0.79631578718273499</v>
       </c>
-      <c r="F40" s="156">
+      <c r="F40" s="155">
         <f t="shared" si="34"/>
         <v>0.77083122766473089</v>
       </c>
-      <c r="G40" s="156">
+      <c r="G40" s="155">
         <f t="shared" si="34"/>
         <v>0.7810564129119667</v>
       </c>
-      <c r="H40" s="156">
+      <c r="H40" s="155">
         <f t="shared" si="34"/>
         <v>0.77092721851516632</v>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7529,49 +7541,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.14204607870614464</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.15260801965048315</v>
       </c>
-      <c r="E41" s="153">
+      <c r="E41" s="152">
         <f t="shared" si="35"/>
         <v>0.15768842923284743</v>
       </c>
-      <c r="F41" s="153">
+      <c r="F41" s="152">
         <f t="shared" si="35"/>
         <v>0.14804685309345555</v>
       </c>
-      <c r="G41" s="153">
+      <c r="G41" s="152">
         <f t="shared" si="35"/>
         <v>0.14741449640691942</v>
       </c>
-      <c r="H41" s="153">
+      <c r="H41" s="152">
         <f t="shared" si="35"/>
         <v>0.14819620038038264</v>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7582,47 +7594,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153">
+      <c r="E42" s="152">
         <f t="shared" si="36"/>
         <v>6.7816096957245317E-2</v>
       </c>
-      <c r="F42" s="153">
+      <c r="F42" s="152">
         <f t="shared" si="36"/>
         <v>1.344385571974578E-2</v>
       </c>
-      <c r="G42" s="153">
+      <c r="G42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H42" s="153">
+      <c r="H42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7633,47 +7645,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>8.274315042185636E-3</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>5.9452255946665479E-3</v>
       </c>
-      <c r="E43" s="153">
+      <c r="E43" s="152">
         <f t="shared" si="37"/>
         <v>5.8220196717696029E-3</v>
       </c>
-      <c r="F43" s="153">
+      <c r="F43" s="152">
         <f t="shared" si="37"/>
         <v>4.2824150717184128E-3</v>
       </c>
-      <c r="G43" s="153">
+      <c r="G43" s="152">
         <f t="shared" si="37"/>
         <v>6.387915915563828E-3</v>
       </c>
-      <c r="H43" s="153">
+      <c r="H43" s="152">
         <f t="shared" si="37"/>
         <v>5.5975205319138237E-3</v>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7684,47 +7696,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.0871617989521474E-3</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>1.2652722890649846E-3</v>
       </c>
-      <c r="E44" s="153">
+      <c r="E44" s="152">
         <f t="shared" si="38"/>
         <v>2.2607493689644148E-3</v>
       </c>
-      <c r="F44" s="153">
+      <c r="F44" s="152">
         <f t="shared" si="38"/>
         <v>3.0239249367032058E-3</v>
       </c>
-      <c r="G44" s="153">
+      <c r="G44" s="152">
         <f t="shared" si="38"/>
         <v>2.9467657389630627E-3</v>
       </c>
-      <c r="H44" s="153">
+      <c r="H44" s="152">
         <f t="shared" si="38"/>
         <v>3.3857855738911626E-3</v>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7733,49 +7745,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>2.3595955443495159E-2</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>1.3054977086595363E-2</v>
       </c>
-      <c r="E45" s="153">
+      <c r="E45" s="152">
         <f t="shared" si="39"/>
         <v>9.6095390236081556E-3</v>
       </c>
-      <c r="F45" s="153">
+      <c r="F45" s="152">
         <f t="shared" si="39"/>
         <v>3.9823671971314532E-3</v>
       </c>
-      <c r="G45" s="153">
+      <c r="G45" s="152">
         <f t="shared" si="39"/>
         <v>1.2036860626252855E-2</v>
       </c>
-      <c r="H45" s="153">
+      <c r="H45" s="152">
         <f t="shared" si="39"/>
         <v>5.7014109031847213E-2</v>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7786,47 +7798,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>4.8035946952446888E-2</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>2.347528061115577E-2</v>
       </c>
-      <c r="E46" s="153">
+      <c r="E46" s="152">
         <f t="shared" si="40"/>
         <v>-3.9512621437169937E-2</v>
       </c>
-      <c r="F46" s="153">
+      <c r="F46" s="152">
         <f t="shared" si="40"/>
         <v>5.6389356316514705E-2</v>
       </c>
-      <c r="G46" s="153">
+      <c r="G46" s="152">
         <f t="shared" si="40"/>
         <v>5.0157548400334151E-2</v>
       </c>
-      <c r="H46" s="153">
+      <c r="H46" s="152">
         <f t="shared" si="40"/>
         <v>1.4879165966798778E-2</v>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7835,9 +7847,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>246</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>245</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>263</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7852,50 +7866,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272" t="e">
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="e">
+      <c r="E48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="272" t="e">
+      <c r="F48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G48" s="272" t="e">
+      <c r="G48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H48" s="272" t="e">
+      <c r="H48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7904,49 +7918,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="153">
+        <v>252</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7955,49 +7969,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" s="153">
+        <v>253</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8006,49 +8020,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="C51" s="153">
+        <v>243</v>
+      </c>
+      <c r="C51" s="152">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>-0.41797446666745985</v>
       </c>
-      <c r="D51" s="153">
+      <c r="D51" s="152">
         <f t="shared" si="44"/>
         <v>-0.13758097408829176</v>
       </c>
-      <c r="E51" s="153">
+      <c r="E51" s="152">
         <f t="shared" si="44"/>
         <v>0.80615539580257478</v>
       </c>
-      <c r="F51" s="153">
+      <c r="F51" s="152">
         <f t="shared" si="44"/>
         <v>0.4952379840799272</v>
       </c>
-      <c r="G51" s="153">
+      <c r="G51" s="152">
         <f t="shared" si="44"/>
         <v>0.39027423104775699</v>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8057,7 +8071,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8074,49 +8088,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>247</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8126,47 +8140,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8176,47 +8190,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.17225256432181468</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>0.25325471900179536</v>
       </c>
-      <c r="E55" s="153">
+      <c r="E55" s="152">
         <f t="shared" si="47"/>
         <v>-0.14734582166428389</v>
       </c>
-      <c r="F55" s="153">
+      <c r="F55" s="152">
         <f t="shared" si="47"/>
         <v>7.5943677166327661E-2</v>
       </c>
-      <c r="G55" s="153">
+      <c r="G55" s="152">
         <f t="shared" si="47"/>
         <v>0.12735702041452393</v>
       </c>
-      <c r="H55" s="153">
+      <c r="H55" s="152">
         <f t="shared" si="47"/>
         <v>0.37619854126259999</v>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8226,47 +8240,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8274,149 +8288,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>248</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274" t="e">
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="e">
+      <c r="E58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="274" t="e">
+      <c r="F58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="274" t="e">
+      <c r="G58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="274" t="e">
+      <c r="H58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274" t="e">
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="e">
+      <c r="E59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="274" t="e">
+      <c r="F59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="274" t="e">
+      <c r="G59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="274" t="e">
+      <c r="H59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9712,8 +9726,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9749,8 +9763,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9762,8 +9776,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9773,8 +9787,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9861,11 +9875,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45565</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9908,7 +9922,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9936,7 +9950,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9964,7 +9978,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9992,7 +10006,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10005,7 +10019,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10020,7 +10034,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10047,7 +10061,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10069,7 +10083,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10091,7 +10105,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10112,7 +10126,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10120,7 +10134,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10137,7 +10151,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10145,7 +10159,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10164,7 +10178,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10185,7 +10199,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10350,7 +10364,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10379,7 +10393,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10405,7 +10419,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10432,7 +10446,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10459,7 +10473,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10475,7 +10489,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10489,7 +10503,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10516,7 +10530,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10524,7 +10538,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10542,7 +10556,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10550,7 +10564,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10569,7 +10583,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10577,7 +10591,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10596,7 +10610,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10617,7 +10631,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10638,7 +10652,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10659,7 +10673,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10680,7 +10694,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10826,8 +10840,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10853,8 +10867,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10924,7 +10938,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -11024,7 +11038,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -11032,7 +11046,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -11063,11 +11077,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11144,12 +11158,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11228,17 +11242,17 @@
         <f>Data!C6</f>
         <v>3814213</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>3814213</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>3814213</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11249,23 +11263,23 @@
         <f>Data!C8</f>
         <v>2963493</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.77696054205677556</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>2963493</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.77696054205677556</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>2963493</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.77696054205677556</v>
       </c>
@@ -11275,48 +11289,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>850720</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>850720</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>850720</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>541794</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.14204607870614464</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>541794</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.14204607870614464</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>541794</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.14204607870614464</v>
       </c>
@@ -11330,54 +11344,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>4146.666666666667</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>1.0871617989521474E-3</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>4146.666666666667</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>1.0871617989521474E-3</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>4146.666666666667</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>1.0871617989521474E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>304779.33333333331</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>7.9906217438127689E-2</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>304779.33333333331</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>7.9906217438127689E-2</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>304779.33333333331</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>7.9906217438127689E-2</v>
       </c>
@@ -11391,55 +11405,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>31560</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>8.274315042185636E-3</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>31560</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>8.274315042185636E-3</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>31560</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>8.274315042185636E-3</v>
       </c>
@@ -11447,29 +11461,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>90000</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>2.3595955443495159E-2</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>90000</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>2.3595955443495159E-2</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>72000</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>1.8876764354796127E-2</v>
       </c>
@@ -11479,27 +11493,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>183219.33333333331</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>4.8035946952446888E-2</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>183219.33333333331</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>4.8035946952446888E-2</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>201219.33333333331</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>5.275513804114592E-2</v>
       </c>
@@ -11509,49 +11523,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>137414.5</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>3.6026960214335171E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>137414.5</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>3.6026960214335171E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>150914.5</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>3.9566353530859445E-2</v>
       </c>
@@ -11561,69 +11575,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.14705985689392354</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.14705985689392354</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.1615074447981692</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10704961743914704</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>0.10785420931156785</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10704961743914704</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>0.10785420931156785</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11756648309327003</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>0.11845012041051421</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>7.8199999999999992E-2</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0.53175626341324955</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>7.8199999999999992E-2</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.53175626341324955</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>7.8199999999999992E-2</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.48418820629429243</v>
       </c>
@@ -11631,23 +11645,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.692430456925867E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>5.735215133690983E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.692430456925867E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>5.735215133690983E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.692430456925867E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>5.735215133690983E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11669,7 +11683,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -11692,27 +11706,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>31.357400408946976</v>
+        <v>31.47054570371828</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>36.105209542744305</v>
+        <v>36.247054702655745</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11720,27 +11734,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.22624791820887</v>
+        <v>13.252630617726993</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.22624791820887</v>
+        <v>13.252630617726993</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11754,25 +11768,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11783,21 +11797,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16773322.260460975</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>16839218.971999638</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>15.590169962761518</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>15.646423171030277</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>17.950670207722276</v>
-      </c>
-      <c r="I97" s="123">
+        <v>18.021192321244911</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>24.501620943308993</v>
+        <v>24.597879527175643</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11809,14 +11823,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11827,17 +11841,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11846,27 +11860,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>16773322.260460975</v>
+        <v>16839218.971999638</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>14.254857072455611</v>
+        <v>14.308736584216955</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>15.590169962761518</v>
+        <v>15.646423171030277</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>16.770420085241895</v>
+        <v>16.833807746137595</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>17.950670207722276</v>
+        <v>18.021192321244911</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>24.501620943308993</v>
+        <v>24.597879527175643</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11878,25 +11892,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11907,27 +11921,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6144490.5441201357</v>
+        <v>6156747.1000776496</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.5894153461877556</v>
-      </c>
-      <c r="E103" s="123">
+        <v>5.6005646809403151</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.5757827602208891</v>
+        <v>6.5888996246356655</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.5757827602208891</v>
-      </c>
-      <c r="H103" s="123">
+        <v>6.5888996246356655</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.5757827602208891</v>
+        <v>6.5888996246356655</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.975561064408982</v>
+        <v>8.9934648215465494</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11939,25 +11953,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11968,27 +11982,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>10356066.484714914</v>
+        <v>10388476.600072389</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.9221362093216836</v>
-      </c>
-      <c r="E106" s="123">
+        <v>9.9546506325786357</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>11.082976361491204</v>
+        <v>11.117661397832972</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>11.673101422731392</v>
-      </c>
-      <c r="H106" s="123">
+        <v>11.71135368538663</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>12.263226483971582</v>
-      </c>
-      <c r="I106" s="123">
+        <v>12.305045972940288</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>16.738591003858986</v>
+        <v>16.795672174361094</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11999,14 +12013,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Avg</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0179.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0179.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED6CF7E6-1483-4DF8-9F04-FC8E18DD8029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05510EA-1538-48D9-8EE9-CAE4CD14F996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2818,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3343,7 +3343,8 @@
         <v>259</v>
       </c>
       <c r="C37" s="149">
-        <v>0</v>
+        <f>1297633+560730</f>
+        <v>1858363</v>
       </c>
       <c r="D37" s="149"/>
       <c r="E37" s="149"/>
@@ -3409,7 +3410,7 @@
         <v>132</v>
       </c>
       <c r="C41" s="149">
-        <v>0</v>
+        <v>2677574</v>
       </c>
       <c r="D41" s="149"/>
       <c r="E41" s="149"/>
@@ -3427,7 +3428,7 @@
         <v>133</v>
       </c>
       <c r="C42" s="149">
-        <v>0</v>
+        <v>44886</v>
       </c>
       <c r="D42" s="149"/>
       <c r="E42" s="149"/>
@@ -3484,11 +3485,11 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.735215133690983E-2</v>
+        <v>5.7568875259221192E-2</v>
       </c>
       <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.7964586923707211E-2</v>
+        <v>4.814583685361977E-2</v>
       </c>
       <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3545,7 +3546,9 @@
       <c r="B48" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="59"/>
+      <c r="C48" s="59">
+        <v>687658</v>
+      </c>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
@@ -3565,7 +3568,9 @@
       <c r="B50" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="59"/>
+      <c r="C50" s="59">
+        <v>788933</v>
+      </c>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
@@ -3576,7 +3581,9 @@
       <c r="B51" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="59"/>
+      <c r="C51" s="59">
+        <v>6517</v>
+      </c>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
@@ -3586,7 +3593,9 @@
       <c r="B52" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="59"/>
+      <c r="C52" s="59">
+        <v>4993</v>
+      </c>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
@@ -3596,7 +3605,9 @@
       <c r="B53" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C53" s="59"/>
+      <c r="C53" s="59">
+        <v>65078</v>
+      </c>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
@@ -3617,7 +3628,9 @@
       <c r="B55" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="59"/>
+      <c r="C55" s="59">
+        <v>589038</v>
+      </c>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
@@ -3653,7 +3666,9 @@
       <c r="B58" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="59"/>
+      <c r="C58" s="59">
+        <v>8754</v>
+      </c>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
@@ -3686,7 +3701,9 @@
       <c r="B61" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="59"/>
+      <c r="C61" s="59">
+        <v>23429</v>
+      </c>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
@@ -3697,7 +3714,9 @@
       <c r="B62" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="59"/>
+      <c r="C62" s="59">
+        <v>19731</v>
+      </c>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
@@ -3729,7 +3748,9 @@
       <c r="B65" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="59"/>
+      <c r="C65" s="59">
+        <v>2308</v>
+      </c>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
@@ -3741,7 +3762,9 @@
       <c r="B66" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="59"/>
+      <c r="C66" s="59">
+        <v>17334</v>
+      </c>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
@@ -3766,7 +3789,9 @@
       <c r="B68" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="59"/>
+      <c r="C68" s="59">
+        <v>1508433</v>
+      </c>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
@@ -3788,7 +3813,9 @@
       <c r="B70" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="59"/>
+      <c r="C70" s="59">
+        <v>172447</v>
+      </c>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
@@ -3798,7 +3825,9 @@
       <c r="B71" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="59"/>
+      <c r="C71" s="59">
+        <v>92250</v>
+      </c>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
@@ -3809,7 +3838,9 @@
       <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="244"/>
+      <c r="C72" s="244">
+        <v>30260</v>
+      </c>
       <c r="D72" s="245">
         <v>0</v>
       </c>
@@ -3819,13 +3850,17 @@
       <c r="B73" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C73" s="59"/>
+      <c r="C73" s="59">
+        <v>14082</v>
+      </c>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C74" s="59"/>
+      <c r="C74" s="59">
+        <v>16276</v>
+      </c>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
@@ -3837,25 +3872,33 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="119"/>
+      <c r="C76" s="119">
+        <v>3782</v>
+      </c>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="83">
+        <v>1297633</v>
+      </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C78" s="59"/>
+      <c r="C78" s="59">
+        <v>342402</v>
+      </c>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C79" s="59"/>
+      <c r="C79" s="59">
+        <v>51938</v>
+      </c>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
@@ -3976,12 +4019,12 @@
         <v>0.77696054205677556</v>
       </c>
       <c r="E92" s="249">
-        <f>E91*D92</f>
-        <v>2963493</v>
+        <f>E91*78.5%</f>
+        <v>2994157.2050000001</v>
       </c>
       <c r="F92" s="249">
-        <f>F91*D92</f>
-        <v>2963493</v>
+        <f>F91*78%</f>
+        <v>2975086.14</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
@@ -3997,12 +4040,12 @@
         <v>0.14204607870614464</v>
       </c>
       <c r="E93" s="249">
-        <f>E91*D93</f>
-        <v>541794</v>
+        <f>E91*15%</f>
+        <v>572131.94999999995</v>
       </c>
       <c r="F93" s="249">
-        <f>F91*D93</f>
-        <v>541794</v>
+        <f>F91*14.75%</f>
+        <v>562596.41749999998</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
@@ -4174,7 +4217,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4227,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>10.6</v>
+        <v>10.56</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>275</v>
@@ -4268,7 +4311,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>9904.7675603999996</v>
+        <v>9867.3910790400005</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4317,7 +4360,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>7.7740767796834307</v>
+        <v>7.7740066846211748</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4437,9 +4480,9 @@
       <c r="B20" s="272" t="s">
         <v>249</v>
       </c>
-      <c r="C20" s="273" t="e">
+      <c r="C20" s="273">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>0.11576735767144959</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
@@ -4452,9 +4495,9 @@
       <c r="B21" s="274" t="s">
         <v>247</v>
       </c>
-      <c r="C21" s="275" t="e">
+      <c r="C21" s="275">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>0.58040665026873173</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
@@ -4463,9 +4506,9 @@
       <c r="B22" s="276" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="277" t="e">
+      <c r="C22" s="277">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
+        <v>0.84088756082811555</v>
       </c>
       <c r="F22" s="141" t="s">
         <v>171</v>
@@ -4482,9 +4525,9 @@
       <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="176" t="e">
+      <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>0.47404104754585369</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4500,7 +4543,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>8.4423721692665765</v>
+        <v>10.024496273910332</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4516,7 +4559,7 @@
       </c>
       <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
-        <v>0.48418820629429243</v>
+        <v>0.57709897552927159</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4532,7 +4575,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.735215133690983E-2</v>
+        <v>5.7568875259221192E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4562,20 +4605,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>9.9546506325786357</v>
+        <v>7.047813785381555</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>19.315023000515257</v>
+        <v>15.869224947481527</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>11.71135368538663</v>
+        <v>8.8011939792893319</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>16.795672174361094</v>
+        <v>13.799326041288285</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4609,10 +4652,10 @@
       <c r="B34" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="C34" s="222" t="e">
+      <c r="C34" s="222" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
-        <v>#DIV/0!</v>
+        <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5638,10 +5681,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="C40" sqref="C40:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6864,7 +6907,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
+        <v>4535937</v>
       </c>
       <c r="D27" s="65" t="str">
         <f>IF(D34="","",D34+D30)</f>
@@ -6915,7 +6958,7 @@
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
-        <v>0</v>
+        <v>788933</v>
       </c>
       <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
@@ -6966,7 +7009,7 @@
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
-        <v>0</v>
+        <v>589038</v>
       </c>
       <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
@@ -7017,7 +7060,7 @@
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
+        <v>1858363</v>
       </c>
       <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
@@ -7068,7 +7111,7 @@
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
-        <v>0</v>
+        <v>34140</v>
       </c>
       <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
@@ -7119,7 +7162,7 @@
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
-        <v>0</v>
+        <v>394340</v>
       </c>
       <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
@@ -7170,7 +7213,7 @@
       </c>
       <c r="C33" s="77">
         <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
-        <v>0</v>
+        <v>428480</v>
       </c>
       <c r="D33" s="77" t="str">
         <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
@@ -7221,7 +7264,7 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
+        <v>2677574</v>
       </c>
       <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
@@ -7272,7 +7315,7 @@
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
+        <v>44886</v>
       </c>
       <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
@@ -7374,7 +7417,7 @@
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
-        <v>0</v>
+        <v>3255193</v>
       </c>
       <c r="D37" s="65" t="str">
         <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
@@ -7423,9 +7466,9 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="154" t="e">
+      <c r="C38" s="154">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
-        <v>#DIV/0!</v>
+        <v>9.3628652228403456E-2</v>
       </c>
       <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
@@ -7869,9 +7912,9 @@
       <c r="B48" s="268" t="s">
         <v>251</v>
       </c>
-      <c r="C48" s="269" t="e">
+      <c r="C48" s="269">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
+        <v>0.84088756082811555</v>
       </c>
       <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
@@ -7922,7 +7965,7 @@
       </c>
       <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
-        <v>0</v>
+        <v>0.20684031017669963</v>
       </c>
       <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
@@ -7973,7 +8016,7 @@
       </c>
       <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
-        <v>0</v>
+        <v>0.15443238225028336</v>
       </c>
       <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
@@ -8090,9 +8133,9 @@
       <c r="B53" s="95" t="s">
         <v>247</v>
       </c>
-      <c r="C53" s="155" t="e">
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
+        <v>0.58040665026873173</v>
       </c>
       <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
@@ -8140,9 +8183,9 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="156" t="str">
+      <c r="C54" s="156">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
-        <v>-</v>
+        <v>0.42760299975105798</v>
       </c>
       <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
@@ -8340,9 +8383,9 @@
       <c r="B58" s="268" t="s">
         <v>249</v>
       </c>
-      <c r="C58" s="271" t="e">
+      <c r="C58" s="271">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
+        <v>0.11576735767144961</v>
       </c>
       <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
@@ -8390,9 +8433,9 @@
       <c r="B59" s="268" t="s">
         <v>250</v>
       </c>
-      <c r="C59" s="271" t="e">
+      <c r="C59" s="271">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
+        <v>6.959401696415729E-2</v>
       </c>
       <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
@@ -9726,8 +9769,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9765,11 +9808,11 @@
       <c r="C3" s="87"/>
       <c r="D3" s="204">
         <f>Inputs!C41</f>
-        <v>0</v>
+        <v>2677574</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
-        <v/>
+        <v>Error!</v>
       </c>
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
@@ -9778,7 +9821,7 @@
       </c>
       <c r="I3" s="282">
         <f>D3-D4</f>
-        <v>0</v>
+        <v>2632688</v>
       </c>
       <c r="K3" s="24"/>
     </row>
@@ -9789,7 +9832,7 @@
       <c r="C4" s="87"/>
       <c r="D4" s="198">
         <f>Inputs!C42</f>
-        <v>0</v>
+        <v>44886</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="87"/>
@@ -9807,9 +9850,9 @@
       <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="63" t="e">
+      <c r="I5" s="63">
         <f>C28/I28</f>
-        <v>#DIV/0!</v>
+        <v>1.6576112044006279</v>
       </c>
       <c r="K5" s="24"/>
     </row>
@@ -9821,20 +9864,20 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>-193034.75</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
+        <v>1.0720931522340746</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="63" t="e">
+      <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
-        <v>#DIV/0!</v>
+        <v>1.1969324146349545</v>
       </c>
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
@@ -9856,9 +9899,9 @@
       <c r="H7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="63" t="e">
+      <c r="I7" s="63">
         <f>C24/I28</f>
-        <v>#DIV/0!</v>
+        <v>1.1429333255242431</v>
       </c>
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
@@ -9920,7 +9963,7 @@
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
-        <v>0</v>
+        <v>687658</v>
       </c>
       <c r="D11" s="197">
         <f>Inputs!D48</f>
@@ -9928,7 +9971,7 @@
       </c>
       <c r="E11" s="88">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
-        <v>0</v>
+        <v>618892.20000000007</v>
       </c>
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
@@ -9937,7 +9980,7 @@
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
-        <v>0</v>
+        <v>14082</v>
       </c>
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
@@ -9965,7 +10008,7 @@
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
-        <v>0</v>
+        <v>16276</v>
       </c>
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
@@ -9976,7 +10019,7 @@
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
-        <v>0</v>
+        <v>788933</v>
       </c>
       <c r="D13" s="197">
         <f>Inputs!D50</f>
@@ -9984,7 +10027,7 @@
       </c>
       <c r="E13" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>473359.8</v>
       </c>
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
@@ -10004,7 +10047,7 @@
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
-        <v>0</v>
+        <v>6517</v>
       </c>
       <c r="D14" s="197">
         <f>Inputs!D51</f>
@@ -10012,7 +10055,7 @@
       </c>
       <c r="E14" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3910.2</v>
       </c>
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
@@ -10021,7 +10064,7 @@
       </c>
       <c r="I14" s="203">
         <f>Inputs!C76</f>
-        <v>0</v>
+        <v>3782</v>
       </c>
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
@@ -10032,7 +10075,7 @@
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
-        <v>0</v>
+        <v>4993</v>
       </c>
       <c r="D15" s="197">
         <f>Inputs!D52</f>
@@ -10040,7 +10083,7 @@
       </c>
       <c r="E15" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2496.5</v>
       </c>
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
@@ -10049,7 +10092,7 @@
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
-        <v>0</v>
+        <v>34140</v>
       </c>
       <c r="J15" s="87"/>
     </row>
@@ -10059,7 +10102,7 @@
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
-        <v>0</v>
+        <v>65078</v>
       </c>
       <c r="D16" s="197">
         <f>Inputs!D53</f>
@@ -10067,7 +10110,7 @@
       </c>
       <c r="E16" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39046.799999999996</v>
       </c>
       <c r="F16" s="112"/>
       <c r="G16" s="30"/>
@@ -10103,7 +10146,7 @@
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
-        <v>0</v>
+        <v>589038</v>
       </c>
       <c r="D18" s="197">
         <f>Inputs!D55</f>
@@ -10111,7 +10154,7 @@
       </c>
       <c r="E18" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>294519</v>
       </c>
       <c r="F18" s="112"/>
       <c r="G18" s="87"/>
@@ -10176,7 +10219,7 @@
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
-        <v>0</v>
+        <v>8754</v>
       </c>
       <c r="D21" s="197">
         <f>Inputs!D58</f>
@@ -10184,7 +10227,7 @@
       </c>
       <c r="E21" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7878.6</v>
       </c>
       <c r="F21" s="112"/>
       <c r="G21" s="87"/>
@@ -10214,7 +10257,7 @@
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
-        <v>0</v>
+        <v>1263493</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10232,19 +10275,19 @@
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
-        <v>0</v>
+        <v>1483108</v>
       </c>
       <c r="D24" s="62">
         <f>IF(E24=0,0,E24/C24)</f>
-        <v>0</v>
+        <v>0.73909802927366042</v>
       </c>
       <c r="E24" s="88">
         <f>SUM(E11:E14)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="113" t="e">
+        <v>1096162.2</v>
+      </c>
+      <c r="F24" s="113">
         <f>E24/$E$28</f>
-        <v>#DIV/0!</v>
+        <v>0.7611692523958874</v>
       </c>
       <c r="G24" s="87"/>
     </row>
@@ -10254,27 +10297,27 @@
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
-        <v>0</v>
+        <v>70071</v>
       </c>
       <c r="D25" s="62">
         <f>IF(E25=0,0,E25/C25)</f>
-        <v>0</v>
+        <v>0.59287437028157153</v>
       </c>
       <c r="E25" s="88">
         <f>SUM(E15:E17)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="113" t="e">
+        <v>41543.299999999996</v>
+      </c>
+      <c r="F25" s="113">
         <f>E25/$E$28</f>
-        <v>#DIV/0!</v>
+        <v>2.8847448491708678E-2</v>
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="63" t="e">
+      <c r="I25" s="63">
         <f>E28/I28</f>
-        <v>#DIV/0!</v>
+        <v>1.1097922910406872</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10283,31 +10326,31 @@
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
-        <v>0</v>
+        <v>589038</v>
       </c>
       <c r="D26" s="62">
         <f>IF(E26=0,0,E26/C26)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E26" s="88">
         <f>E18+E19+E20</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="113" t="e">
+        <v>294519</v>
+      </c>
+      <c r="F26" s="113">
         <f>E26/$E$28</f>
-        <v>#DIV/0!</v>
+        <v>0.20451244081066139</v>
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="63" t="e">
+      <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="8" t="e">
+        <v>32.107855887521964</v>
+      </c>
+      <c r="J26" s="8" t="str">
         <f>IF(I26&lt;1,"Liquidity Problem!","")</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10316,31 +10359,31 @@
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
-        <v>0</v>
+        <v>8754</v>
       </c>
       <c r="D27" s="62">
         <f>IF(E27=0,0,E27/C27)</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E27" s="88">
         <f>E21+E22</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="113" t="e">
+        <v>7878.6</v>
+      </c>
+      <c r="F27" s="113">
         <f>E27/$E$28</f>
-        <v>#DIV/0!</v>
+        <v>5.4708583017424239E-3</v>
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I27" s="63" t="e">
+      <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="8" t="e">
+        <v>0.87675444443845063</v>
+      </c>
+      <c r="J27" s="8" t="str">
         <f>IF(OR(I27&lt;0.75,C28&lt;I28),"Liquidity Issue!","")</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10349,15 +10392,15 @@
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="57" t="e">
+        <v>2150971</v>
+      </c>
+      <c r="D28" s="57">
         <f>E28/C28</f>
-        <v>#DIV/0!</v>
+        <v>0.66951302458285122</v>
       </c>
       <c r="E28" s="70">
         <f>SUM(E24:E27)</f>
-        <v>0</v>
+        <v>1440103.1</v>
       </c>
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
@@ -10366,11 +10409,11 @@
       </c>
       <c r="I28" s="204">
         <f>Inputs!C77</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="32" t="e">
+        <v>1297633</v>
+      </c>
+      <c r="J28" s="32">
         <f>IF(J26="",1,0)+IF(J27="",1,0)+IF(J46="",1,0)+IF(J47="",1,0)</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10407,7 +10450,7 @@
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
-        <v>0</v>
+        <v>342402</v>
       </c>
       <c r="J30" s="87"/>
     </row>
@@ -10417,7 +10460,7 @@
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
-        <v>0</v>
+        <v>23429</v>
       </c>
       <c r="D31" s="197">
         <f>Inputs!D61</f>
@@ -10425,7 +10468,7 @@
       </c>
       <c r="E31" s="88">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
-        <v>0</v>
+        <v>14057.4</v>
       </c>
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
@@ -10434,7 +10477,7 @@
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
-        <v>0</v>
+        <v>51938</v>
       </c>
       <c r="J31" s="87"/>
     </row>
@@ -10444,7 +10487,7 @@
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
-        <v>0</v>
+        <v>19731</v>
       </c>
       <c r="D32" s="197">
         <f>Inputs!D62</f>
@@ -10452,7 +10495,7 @@
       </c>
       <c r="E32" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9865.5</v>
       </c>
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
@@ -10518,7 +10561,7 @@
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
-        <v>0</v>
+        <v>394340</v>
       </c>
       <c r="J34" s="87"/>
     </row>
@@ -10528,7 +10571,7 @@
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
-        <v>0</v>
+        <v>2308</v>
       </c>
       <c r="D35" s="197">
         <f>Inputs!D65</f>
@@ -10536,7 +10579,7 @@
       </c>
       <c r="E35" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>230.8</v>
       </c>
       <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
@@ -10554,7 +10597,7 @@
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
-        <v>0</v>
+        <v>17334</v>
       </c>
       <c r="D36" s="197">
         <f>Inputs!D66</f>
@@ -10562,7 +10605,7 @@
       </c>
       <c r="E36" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3466.8</v>
       </c>
       <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
@@ -10608,7 +10651,7 @@
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
-        <v>0</v>
+        <v>1508433</v>
       </c>
       <c r="D38" s="197">
         <f>Inputs!D68</f>
@@ -10616,7 +10659,7 @@
       </c>
       <c r="E38" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>150843.30000000002</v>
       </c>
       <c r="F38" s="112"/>
       <c r="G38" s="87"/>
@@ -10650,7 +10693,7 @@
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
-        <v>0</v>
+        <v>172447</v>
       </c>
       <c r="D40" s="197">
         <f>Inputs!D70</f>
@@ -10658,7 +10701,7 @@
       </c>
       <c r="E40" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8622.35</v>
       </c>
       <c r="F40" s="112"/>
       <c r="G40" s="87"/>
@@ -10671,7 +10714,7 @@
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
-        <v>0</v>
+        <v>92250</v>
       </c>
       <c r="D41" s="197">
         <f>Inputs!D71</f>
@@ -10679,7 +10722,7 @@
       </c>
       <c r="E41" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>83025</v>
       </c>
       <c r="F41" s="112"/>
       <c r="G41" s="87"/>
@@ -10692,7 +10735,7 @@
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
-        <v>0</v>
+        <v>30260</v>
       </c>
       <c r="D42" s="197">
         <f>Inputs!D72</f>
@@ -10709,7 +10752,7 @@
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
-        <v>0</v>
+        <v>166390</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10727,15 +10770,15 @@
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
-        <v>0</v>
+        <v>23429</v>
       </c>
       <c r="D44" s="62">
         <f>IF(E44=0,0,E44/C44)</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E44" s="88">
         <f>SUM(E30:E31)</f>
-        <v>0</v>
+        <v>14057.4</v>
       </c>
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
@@ -10746,15 +10789,15 @@
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
-        <v>0</v>
+        <v>22039</v>
       </c>
       <c r="D45" s="62">
         <f>IF(E45=0,0,E45/C45)</f>
-        <v>0</v>
+        <v>0.45811062207904168</v>
       </c>
       <c r="E45" s="88">
         <f>SUM(E32:E35)</f>
-        <v>0</v>
+        <v>10096.299999999999</v>
       </c>
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
@@ -10765,28 +10808,28 @@
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
-        <v>0</v>
+        <v>1525767</v>
       </c>
       <c r="D46" s="62">
         <f>IF(E46=0,0,E46/C46)</f>
-        <v>0</v>
+        <v>0.10113608434315331</v>
       </c>
       <c r="E46" s="88">
         <f>E36+E37+E38+E39</f>
-        <v>0</v>
+        <v>154310.1</v>
       </c>
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="I46" s="63" t="e">
+      <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J46" s="8" t="e">
+        <v>2.5910651605675876</v>
+      </c>
+      <c r="J46" s="8" t="str">
         <f>IF(I46&lt;1,"Liquidity Problem!","")</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10795,28 +10838,28 @@
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
-        <v>0</v>
+        <v>294957</v>
       </c>
       <c r="D47" s="62">
         <f>IF(E47=0,0,E47/C47)</f>
-        <v>0</v>
+        <v>0.31071427360598325</v>
       </c>
       <c r="E47" s="88">
         <f>E40+E41+E42</f>
-        <v>0</v>
+        <v>91647.35</v>
       </c>
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I47" s="63" t="e">
+      <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J47" s="8" t="e">
+        <v>0.62520573214167519</v>
+      </c>
+      <c r="J47" s="8" t="str">
         <f>IF(OR(I47&lt;0.5,C49&lt;I49),"Liquidity Issue!","")</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10825,15 +10868,15 @@
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
-        <v>0</v>
-      </c>
-      <c r="D48" s="82" t="e">
+        <v>1866192</v>
+      </c>
+      <c r="D48" s="82">
         <f>E48/C48</f>
-        <v>#DIV/0!</v>
+        <v>0.14473920689832559</v>
       </c>
       <c r="E48" s="76">
         <f>SUM(E30:E42)</f>
-        <v>0</v>
+        <v>270111.15000000002</v>
       </c>
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
@@ -10842,7 +10885,7 @@
       </c>
       <c r="I48" s="281">
         <f>I49-I28</f>
-        <v>0</v>
+        <v>560730</v>
       </c>
       <c r="J48" s="8"/>
     </row>
@@ -10852,15 +10895,15 @@
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="56" t="e">
+        <v>4017163</v>
+      </c>
+      <c r="D49" s="56">
         <f>E49/C49</f>
-        <v>#DIV/0!</v>
+        <v>0.4257268749114736</v>
       </c>
       <c r="E49" s="88">
         <f>E28+E48</f>
-        <v>0</v>
+        <v>1710214.25</v>
       </c>
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
@@ -10869,7 +10912,7 @@
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
-        <v>0</v>
+        <v>1858363</v>
       </c>
       <c r="J49" s="87"/>
     </row>
@@ -10909,15 +10952,15 @@
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
-        <v>0</v>
+        <v>44886</v>
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>0</v>
+        <v>44886</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10951,7 +10994,7 @@
       <c r="C56" s="87"/>
       <c r="D56" s="296">
         <f>I15+I34</f>
-        <v>0</v>
+        <v>428480</v>
       </c>
       <c r="E56" s="294"/>
       <c r="F56" s="3"/>
@@ -11019,15 +11062,15 @@
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
-        <v>0</v>
+        <v>74312</v>
       </c>
       <c r="D61" s="56">
         <f t="shared" ref="D61:D70" si="2">IF(E61=0,0,E61/C61)</f>
-        <v>0</v>
+        <v>0.45789643664549462</v>
       </c>
       <c r="E61" s="52">
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
-        <v>0</v>
+        <v>34027.199999999997</v>
       </c>
       <c r="F61" s="87"/>
       <c r="G61" s="87"/>
@@ -11040,15 +11083,15 @@
       </c>
       <c r="C62" s="116">
         <f>C11+C30</f>
-        <v>0</v>
+        <v>687658</v>
       </c>
       <c r="D62" s="107">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.90000000000000013</v>
       </c>
       <c r="E62" s="117">
         <f>E11+E30</f>
-        <v>0</v>
+        <v>618892.20000000007</v>
       </c>
       <c r="F62" s="87"/>
       <c r="G62" s="87"/>
@@ -11061,15 +11104,15 @@
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
-        <v>0</v>
+        <v>761970</v>
       </c>
       <c r="D63" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.85688334186385295</v>
       </c>
       <c r="E63" s="61">
         <f>E61+E62</f>
-        <v>0</v>
+        <v>652919.4</v>
       </c>
       <c r="F63" s="87"/>
       <c r="G63" s="87"/>
@@ -11084,7 +11127,7 @@
       <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
-        <v>0</v>
+        <v>428480</v>
       </c>
       <c r="F64" s="87"/>
       <c r="G64" s="87"/>
@@ -11097,15 +11140,15 @@
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
-        <v>0</v>
+        <v>333490</v>
       </c>
       <c r="D65" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.67300188911211734</v>
       </c>
       <c r="E65" s="61">
         <f>E63-E64</f>
-        <v>0</v>
+        <v>224439.40000000002</v>
       </c>
       <c r="F65" s="87"/>
       <c r="G65" s="87"/>
@@ -11142,15 +11185,15 @@
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
-        <v>0</v>
+        <v>3255193</v>
       </c>
       <c r="D68" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.32480250786973308</v>
       </c>
       <c r="E68" s="68">
         <f>E49-E63</f>
-        <v>0</v>
+        <v>1057294.8500000001</v>
       </c>
       <c r="F68" s="87"/>
       <c r="G68" s="87"/>
@@ -11165,7 +11208,7 @@
       <c r="D69" s="205"/>
       <c r="E69" s="125">
         <f>I49-E64</f>
-        <v>0</v>
+        <v>1429883</v>
       </c>
       <c r="F69" s="87"/>
       <c r="G69" s="87"/>
@@ -11178,15 +11221,15 @@
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>0</v>
+        <v>1825310</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.204123217426081</v>
       </c>
       <c r="E70" s="68">
         <f>E68-E69</f>
-        <v>0</v>
+        <v>-372588.14999999991</v>
       </c>
       <c r="F70" s="87"/>
       <c r="G70" s="87"/>
@@ -11269,19 +11312,19 @@
       </c>
       <c r="E75" s="235">
         <f>Inputs!E92</f>
-        <v>2963493</v>
+        <v>2994157.2050000001</v>
       </c>
       <c r="F75" s="159">
         <f>E75/E74</f>
-        <v>0.77696054205677556</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="H75" s="235">
         <f>Inputs!F92</f>
-        <v>2963493</v>
+        <v>2975086.14</v>
       </c>
       <c r="I75" s="159">
         <f>H75/$H$74</f>
-        <v>0.77696054205677556</v>
+        <v>0.78</v>
       </c>
       <c r="K75" s="24"/>
     </row>
@@ -11296,12 +11339,12 @@
       <c r="D76" s="207"/>
       <c r="E76" s="161">
         <f>E74-E75</f>
-        <v>850720</v>
+        <v>820055.79499999993</v>
       </c>
       <c r="F76" s="207"/>
       <c r="H76" s="161">
         <f>H74-H75</f>
-        <v>850720</v>
+        <v>839126.85999999987</v>
       </c>
       <c r="I76" s="207"/>
       <c r="K76" s="24"/>
@@ -11320,19 +11363,19 @@
       </c>
       <c r="E77" s="235">
         <f>Inputs!E93</f>
-        <v>541794</v>
+        <v>572131.94999999995</v>
       </c>
       <c r="F77" s="159">
         <f>E77/E74</f>
-        <v>0.14204607870614464</v>
+        <v>0.15</v>
       </c>
       <c r="H77" s="235">
         <f>Inputs!F93</f>
-        <v>541794</v>
+        <v>562596.41749999998</v>
       </c>
       <c r="I77" s="159">
         <f>H77/$H$74</f>
-        <v>0.14204607870614464</v>
+        <v>0.14749999999999999</v>
       </c>
       <c r="K77" s="24"/>
     </row>
@@ -11380,20 +11423,20 @@
       </c>
       <c r="E79" s="256">
         <f>E76-E77-E78</f>
-        <v>304779.33333333331</v>
+        <v>243777.17833333332</v>
       </c>
       <c r="F79" s="255">
         <f>E79/E74</f>
-        <v>7.9906217438127689E-2</v>
+        <v>6.3912838201047845E-2</v>
       </c>
       <c r="G79" s="257"/>
       <c r="H79" s="256">
         <f>H76-H77-H78</f>
-        <v>304779.33333333331</v>
+        <v>272383.7758333332</v>
       </c>
       <c r="I79" s="255">
         <f>H79/H74</f>
-        <v>7.9906217438127689E-2</v>
+        <v>7.1412838201047824E-2</v>
       </c>
       <c r="K79" s="24"/>
     </row>
@@ -11503,19 +11546,19 @@
       </c>
       <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
-        <v>183219.33333333331</v>
+        <v>122217.17833333332</v>
       </c>
       <c r="F83" s="163">
         <f>E83/E74</f>
-        <v>4.8035946952446888E-2</v>
+        <v>3.2042567715367051E-2</v>
       </c>
       <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
-        <v>201219.33333333331</v>
+        <v>168823.7758333332</v>
       </c>
       <c r="I83" s="163">
         <f>H83/$H$74</f>
-        <v>5.275513804114592E-2</v>
+        <v>4.4261758804066055E-2</v>
       </c>
       <c r="K83" s="24"/>
     </row>
@@ -11554,20 +11597,20 @@
       </c>
       <c r="E85" s="261">
         <f>E83*(1-F84)</f>
-        <v>137414.5</v>
+        <v>91662.883749999979</v>
       </c>
       <c r="F85" s="255">
         <f>E85/E74</f>
-        <v>3.6026960214335171E-2</v>
+        <v>2.4031925786525288E-2</v>
       </c>
       <c r="G85" s="257"/>
       <c r="H85" s="261">
         <f>H83*(1-I84)</f>
-        <v>150914.5</v>
+        <v>126617.8318749999</v>
       </c>
       <c r="I85" s="255">
         <f>H85/$H$74</f>
-        <v>3.9566353530859445E-2</v>
+        <v>3.3196319103049543E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
@@ -11582,12 +11625,12 @@
       <c r="D86" s="206"/>
       <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
-        <v>0.14705985689392354</v>
+        <v>9.8096857076650182E-2</v>
       </c>
       <c r="F86" s="206"/>
       <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
-        <v>0.1615074447981692</v>
+        <v>0.13550535231548602</v>
       </c>
       <c r="I86" s="206"/>
       <c r="K86" s="24"/>
@@ -11598,17 +11641,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10785420931156785</v>
+        <v>0.10826177183075709</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10785420931156785</v>
+        <v>7.2216441539224102E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11845012041051421</v>
+        <v>9.975563586198255E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11631,7 +11674,7 @@
       </c>
       <c r="F88" s="165">
         <f>E88/E86</f>
-        <v>0.53175626341324955</v>
+        <v>0.79717130936108038</v>
       </c>
       <c r="H88" s="169">
         <f>Inputs!F98</f>
@@ -11639,7 +11682,7 @@
       </c>
       <c r="I88" s="165">
         <f>H88/H86</f>
-        <v>0.48418820629429243</v>
+        <v>0.57709897552927159</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -11649,17 +11692,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.735215133690983E-2</v>
+        <v>5.7568875259221192E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.735215133690983E-2</v>
+        <v>5.7568875259221192E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.735215133690983E-2</v>
+        <v>5.7568875259221192E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11719,14 +11762,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>31.47054570371828</v>
+        <v>17.826273433038935</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>36.247054702655745</v>
+        <v>27.953139324878936</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11747,14 +11790,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.252630617726993</v>
+        <v>13.266098433020662</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.252630617726993</v>
+        <v>13.266098433020662</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11797,21 +11840,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16839218.971999638</v>
+        <v>12986131.919070452</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>15.646423171030277</v>
+        <v>8.8628084279729364</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>18.021192321244911</v>
+        <v>13.897650550881552</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>24.597879527175643</v>
+        <v>18.969484808081518</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11821,14 +11864,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>0</v>
+        <v>-348944.06404590607</v>
       </c>
       <c r="D98" s="210"/>
       <c r="E98" s="210"/>
       <c r="F98" s="210"/>
       <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
+        <v>-0.3734370399235527</v>
       </c>
       <c r="I98" s="212"/>
       <c r="K98" s="24"/>
@@ -11860,27 +11903,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>16839218.971999638</v>
+        <v>12637187.855024546</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>14.308736584216955</v>
+        <v>8.4893713880493831</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>15.646423171030277</v>
+        <v>8.4893713880493831</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>16.833807746137595</v>
+        <v>11.006792449503692</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.021192321244911</v>
+        <v>13.524213510957999</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>24.597879527175643</v>
+        <v>18.596047768157966</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11921,27 +11964,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6156747.1000776496</v>
+        <v>6163003.8150760094</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.6005646809403151</v>
+        <v>5.6062561827137261</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.5888996246356655</v>
+        <v>6.5955955090749718</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.5888996246356655</v>
+        <v>6.5955955090749718</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.5888996246356655</v>
+        <v>6.5955955090749718</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.9934648215465494</v>
+        <v>9.0026043144186048</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11982,27 +12025,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>10388476.600072389</v>
+        <v>7047787.3005823186</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.9546506325786357</v>
+        <v>7.047813785381555</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>11.117661397832972</v>
+        <v>7.5424834485621775</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>11.71135368538663</v>
+        <v>8.8011939792893319</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>12.305045972940288</v>
+        <v>10.059904510016485</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>16.795672174361094</v>
+        <v>13.799326041288285</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0179.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0179.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05510EA-1538-48D9-8EE9-CAE4CD14F996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9844A9BF-CC6E-4183-A283-C3F7FEF0FD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -959,10 +952,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -980,6 +969,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1687,7 +1684,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1835,7 +1832,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2025,9 +2021,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2363,6 +2356,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2818,8 +2812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2832,172 +2826,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>268</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>934412034</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>934412034</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C14" s="214">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45565</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="237" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>272</v>
       </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>271</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>273</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3045,506 +3039,507 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>3814213</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>3646119</v>
       </c>
-      <c r="E25" s="148">
+      <c r="E25" s="147">
         <v>3446055</v>
       </c>
-      <c r="F25" s="148">
+      <c r="F25" s="147">
         <v>3156163</v>
       </c>
-      <c r="G25" s="148">
+      <c r="G25" s="147">
         <v>3070485</v>
       </c>
-      <c r="H25" s="148">
+      <c r="H25" s="147">
         <v>3280381</v>
       </c>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
+        <v>2963493</v>
+      </c>
+      <c r="D26" s="148">
+        <v>2930208</v>
+      </c>
+      <c r="E26" s="148">
+        <v>2744148</v>
+      </c>
+      <c r="F26" s="148">
+        <v>2432869</v>
+      </c>
+      <c r="G26" s="148">
+        <v>2398222</v>
+      </c>
+      <c r="H26" s="148">
+        <v>2528935</v>
+      </c>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
+        <v>541794</v>
+      </c>
+      <c r="D27" s="148">
+        <v>556427</v>
+      </c>
+      <c r="E27" s="148">
+        <v>543403</v>
+      </c>
+      <c r="F27" s="148">
+        <v>467260</v>
+      </c>
+      <c r="G27" s="148">
+        <v>452634</v>
+      </c>
+      <c r="H27" s="148">
+        <v>486140</v>
+      </c>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="149">
-        <v>2963493</v>
-      </c>
-      <c r="D26" s="149">
-        <v>2930208</v>
-      </c>
-      <c r="E26" s="149">
-        <v>2744148</v>
-      </c>
-      <c r="F26" s="149">
-        <v>2432869</v>
-      </c>
-      <c r="G26" s="149">
-        <v>2398222</v>
-      </c>
-      <c r="H26" s="149">
-        <v>2528935</v>
-      </c>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="149">
-        <v>541794</v>
-      </c>
-      <c r="D27" s="149">
-        <v>556427</v>
-      </c>
-      <c r="E27" s="149">
-        <v>543403</v>
-      </c>
-      <c r="F27" s="149">
-        <v>467260</v>
-      </c>
-      <c r="G27" s="149">
-        <v>452634</v>
-      </c>
-      <c r="H27" s="149">
-        <v>486140</v>
-      </c>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" s="149">
+      <c r="B29" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="148">
         <v>31560</v>
       </c>
-      <c r="D29" s="149">
+      <c r="D29" s="148">
         <v>21677</v>
       </c>
-      <c r="E29" s="149">
+      <c r="E29" s="148">
         <v>20063</v>
       </c>
-      <c r="F29" s="149">
+      <c r="F29" s="148">
         <v>13516</v>
       </c>
-      <c r="G29" s="149">
+      <c r="G29" s="148">
         <v>19614</v>
       </c>
-      <c r="H29" s="149">
+      <c r="H29" s="148">
         <v>18362</v>
       </c>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
         <v>3110</v>
       </c>
-      <c r="D30" s="149">
+      <c r="D30" s="148">
         <v>3460</v>
       </c>
-      <c r="E30" s="149">
+      <c r="E30" s="148">
         <v>5843</v>
       </c>
-      <c r="F30" s="149">
+      <c r="F30" s="148">
         <v>7158</v>
       </c>
-      <c r="G30" s="149">
+      <c r="G30" s="148">
         <v>6786</v>
       </c>
-      <c r="H30" s="149">
+      <c r="H30" s="148">
         <v>8330</v>
       </c>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148">
         <v>-70259</v>
       </c>
-      <c r="D31" s="149">
+      <c r="D31" s="148">
         <v>-27525</v>
       </c>
-      <c r="E31" s="149">
+      <c r="E31" s="148">
         <v>233698</v>
       </c>
-      <c r="F31" s="149">
+      <c r="F31" s="148">
         <v>42431</v>
       </c>
-      <c r="G31" s="149">
+      <c r="G31" s="148">
         <f>-81917</f>
         <v>-81917</v>
       </c>
-      <c r="H31" s="149">
+      <c r="H31" s="148">
         <f>-17970</f>
         <v>-17970</v>
       </c>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149">
+      <c r="B32" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="148">
         <v>274900</v>
       </c>
-      <c r="D32" s="149">
+      <c r="D32" s="148">
         <v>274200</v>
       </c>
-      <c r="E32" s="149">
+      <c r="E32" s="148">
         <f>248096+35189</f>
         <v>283285</v>
       </c>
-      <c r="F32" s="149">
+      <c r="F32" s="148">
         <f>219704+31327</f>
         <v>251031</v>
       </c>
-      <c r="G32" s="149">
+      <c r="G32" s="148">
         <f>203765+41376</f>
         <v>245141</v>
       </c>
-      <c r="H32" s="149">
+      <c r="H32" s="148">
         <f>162220+42152</f>
         <v>204372</v>
       </c>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149">
+      <c r="B33" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="148">
         <v>184900</v>
       </c>
-      <c r="D33" s="149">
+      <c r="D33" s="148">
         <v>226600</v>
       </c>
-      <c r="E33" s="149">
+      <c r="E33" s="148">
         <v>316400</v>
       </c>
-      <c r="F33" s="149">
+      <c r="F33" s="148">
         <v>263600</v>
       </c>
-      <c r="G33" s="149">
+      <c r="G33" s="148">
         <v>282100</v>
       </c>
-      <c r="H33" s="149">
+      <c r="H33" s="148">
         <v>391400</v>
       </c>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C37" s="149">
+      <c r="B37" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="148">
         <f>1297633+560730</f>
         <v>1858363</v>
       </c>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>260</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>263</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148">
+        <v>2677574</v>
+      </c>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>2677574</v>
-      </c>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149">
+      <c r="C42" s="148">
         <v>44886</v>
       </c>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <f>0.0564+0.0218</f>
         <v>7.8199999999999992E-2</v>
       </c>
-      <c r="D44" s="247">
+      <c r="D44" s="245">
         <f>0.0436+0.0218</f>
         <v>6.54E-2</v>
       </c>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="151">
+        <v>232</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7568875259221192E-2</v>
-      </c>
-      <c r="D45" s="151">
+        <v>5.7452658639437895E-2</v>
+      </c>
+      <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.814583685361977E-2</v>
-      </c>
-      <c r="E45" s="151" t="str">
+        <v>4.8048642903059324E-2</v>
+      </c>
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet- Error</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59">
         <v>687658</v>
@@ -3552,21 +3547,21 @@
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59">
         <v>788933</v>
@@ -3575,11 +3570,11 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59">
         <v>6517</v>
@@ -3587,11 +3582,11 @@
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59">
         <v>4993</v>
@@ -3599,11 +3594,11 @@
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59">
         <v>65078</v>
@@ -3612,21 +3607,21 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59">
         <v>589038</v>
@@ -3635,36 +3630,36 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59">
         <v>8754</v>
@@ -3673,33 +3668,33 @@
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59">
         <v>23429</v>
@@ -3708,11 +3703,11 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59">
         <v>19731</v>
@@ -3721,32 +3716,32 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59">
         <v>2308</v>
@@ -3754,13 +3749,13 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59">
         <v>17334</v>
@@ -3768,26 +3763,26 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59">
         <v>1508433</v>
@@ -3796,22 +3791,22 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59">
         <v>172447</v>
@@ -3819,11 +3814,11 @@
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59">
         <v>92250</v>
@@ -3832,23 +3827,23 @@
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244">
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242">
         <v>30260</v>
       </c>
-      <c r="D72" s="245">
+      <c r="D72" s="243">
         <v>0</v>
       </c>
-      <c r="E72" s="246"/>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59">
         <v>14082</v>
@@ -3856,7 +3851,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59">
         <v>16276</v>
@@ -3864,15 +3859,15 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119">
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118">
         <v>3782</v>
       </c>
     </row>
@@ -3880,13 +3875,13 @@
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83">
+      <c r="C77" s="82">
         <v>1297633</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59">
         <v>342402</v>
@@ -3894,7 +3889,7 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59">
         <v>51938</v>
@@ -3902,73 +3897,73 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>264</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>261</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>265</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>262</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>274</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45382</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3977,166 +3972,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>3814213</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>3814213</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>3814213</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>2963493</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.77696054205677556</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*78.5%</f>
         <v>2994157.2050000001</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*78%</f>
         <v>2975086.14</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>541794</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.14204607870614464</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*15%</f>
         <v>572131.94999999995</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*14.75%</f>
         <v>562596.41749999998</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>238</v>
+      <c r="B94" s="103" t="s">
+        <v>236</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>31560</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>8.274315042185636E-3</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>31560</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>90000</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>2.3595955443495159E-2</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>90000</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95*0.8</f>
         <v>72000</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>4146.666666666667</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>1.0871617989521474E-3</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>4146.666666666667</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>7.8199999999999992E-2</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>7.8199999999999992E-2</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>7.8199999999999992E-2</v>
       </c>
@@ -4149,32 +4144,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4217,7 +4212,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4233,13 +4228,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4250,82 +4245,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0179.HK : 德昌電機</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0179.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>10.56</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>275</v>
+      <c r="G3" s="130">
+        <v>10.58</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>德昌電機</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>934412034</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>9867.3910790400005</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>9886.0793197200001</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45808</v>
       </c>
@@ -4336,31 +4331,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0006</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>7.7740066846211748</v>
+      <c r="G7" s="131">
+        <v>7.7730067571004229</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4369,280 +4364,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>249</v>
-      </c>
-      <c r="C20" s="273">
+      <c r="B20" s="270" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" s="271">
         <f>C23*C22*(1/C21)</f>
         <v>0.11576735767144959</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="275">
+      <c r="B21" s="272" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="273">
         <f>Data!C53</f>
         <v>0.58040665026873173</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>262</v>
-      </c>
-      <c r="C22" s="277">
+      <c r="B22" s="274" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="275">
         <f>Data!C48</f>
         <v>0.84088756082811555</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>252</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>7.9906217438127689E-2</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.47404104754585369</v>
+        <v>0.47499994917876248</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>8.274315042185636E-3</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>240</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.024496273910332</v>
+        <v>10.04477406608868</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>256</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.57709897552927159</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>257</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>1.8876764354796127E-2</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.7568875259221192E-2</v>
+        <v>5.7452658639437895E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>239</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>237</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.047813785381555</v>
-      </c>
-      <c r="D29" s="128">
+        <v>7.0423561955119265</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>15.869224947481527</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>15.854358930726999</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.8011939792893319</v>
-      </c>
-      <c r="G29" s="286">
+        <v>8.7935653744648068</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.799326041288285</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>13.786399070197392</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4650,9 +4645,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="str">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4660,17 +4655,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4678,26 +4673,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4705,9 +4700,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4720,16 +4715,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5681,10 +5676,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C40" sqref="C40:H40"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5710,59 +5705,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45382</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84">
         <f>H14</f>
         <v>254199.33333333334</v>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>304779.33333333331</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5770,19 +5765,19 @@
         <f>Dashboard!G6</f>
         <v>USD</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>3.0706902789447099E-2</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5831,928 +5826,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>3814213</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>3646119</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="197">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>3446055</v>
       </c>
-      <c r="F6" s="199">
+      <c r="F6" s="197">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>3156163</v>
       </c>
-      <c r="G6" s="199">
+      <c r="G6" s="197">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>3070485</v>
       </c>
-      <c r="H6" s="199">
+      <c r="H6" s="197">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v>3280381</v>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>4.6102170554499278E-2</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="91">
         <f t="shared" si="1"/>
         <v>5.8055950935199885E-2</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="91">
         <f t="shared" si="1"/>
         <v>9.1849502069443201E-2</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="91">
         <f t="shared" si="1"/>
         <v>2.7903735077683178E-2</v>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="91">
         <f t="shared" si="1"/>
         <v>-6.3985250493768908E-2</v>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>2963493</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>2930208</v>
       </c>
-      <c r="E8" s="198">
+      <c r="E8" s="196">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>2744148</v>
       </c>
-      <c r="F8" s="198">
+      <c r="F8" s="196">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>2432869</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="196">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>2398222</v>
       </c>
-      <c r="H8" s="198">
+      <c r="H8" s="196">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v>2528935</v>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>850720</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>715911</v>
       </c>
-      <c r="E9" s="150">
+      <c r="E9" s="149">
         <f t="shared" si="2"/>
         <v>701907</v>
       </c>
-      <c r="F9" s="150">
+      <c r="F9" s="149">
         <f t="shared" si="2"/>
         <v>723294</v>
       </c>
-      <c r="G9" s="150">
+      <c r="G9" s="149">
         <f t="shared" si="2"/>
         <v>672263</v>
       </c>
-      <c r="H9" s="150">
+      <c r="H9" s="149">
         <f t="shared" si="2"/>
         <v>751446</v>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>541794</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>556427</v>
       </c>
-      <c r="E10" s="198">
+      <c r="E10" s="196">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>543403</v>
       </c>
-      <c r="F10" s="198">
+      <c r="F10" s="196">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>467260</v>
       </c>
-      <c r="G10" s="198">
+      <c r="G10" s="196">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>452634</v>
       </c>
-      <c r="H10" s="198">
+      <c r="H10" s="196">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v>486140</v>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>4146.666666666667</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>4613.333333333333</v>
       </c>
-      <c r="E12" s="198">
+      <c r="E12" s="196">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>7790.666666666667</v>
       </c>
-      <c r="F12" s="198">
+      <c r="F12" s="196">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>9544</v>
       </c>
-      <c r="G12" s="198">
+      <c r="G12" s="196">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>9048</v>
       </c>
-      <c r="H12" s="198">
+      <c r="H12" s="196">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>11106.666666666666</v>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>7.9906217438127689E-2</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>4.2475483292417682E-2</v>
       </c>
-      <c r="E13" s="226">
+      <c r="E13" s="224">
         <f t="shared" si="3"/>
         <v>4.3735034215453134E-2</v>
       </c>
-      <c r="F13" s="226">
+      <c r="F13" s="224">
         <f t="shared" si="3"/>
         <v>7.8097994305110358E-2</v>
       </c>
-      <c r="G13" s="226">
+      <c r="G13" s="224">
         <f t="shared" si="3"/>
         <v>6.858232494215083E-2</v>
       </c>
-      <c r="H13" s="226">
+      <c r="H13" s="224">
         <f t="shared" si="3"/>
         <v>7.749079553055982E-2</v>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>304779.33333333331</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>154870.66666666666</v>
       </c>
-      <c r="E14" s="227">
+      <c r="E14" s="225">
         <f t="shared" si="4"/>
         <v>150713.33333333334</v>
       </c>
-      <c r="F14" s="227">
+      <c r="F14" s="225">
         <f t="shared" si="4"/>
         <v>246490</v>
       </c>
-      <c r="G14" s="227">
+      <c r="G14" s="225">
         <f t="shared" si="4"/>
         <v>210581</v>
       </c>
-      <c r="H14" s="227">
+      <c r="H14" s="225">
         <f t="shared" si="4"/>
         <v>254199.33333333334</v>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.96796036262515817</v>
       </c>
-      <c r="D15" s="229">
+      <c r="D15" s="227">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>2.7584376520546603E-2</v>
       </c>
-      <c r="E15" s="229">
+      <c r="E15" s="227">
         <f t="shared" si="5"/>
         <v>-0.38856207824522965</v>
       </c>
-      <c r="F15" s="229">
+      <c r="F15" s="227">
         <f t="shared" si="5"/>
         <v>0.17052345653216577</v>
       </c>
-      <c r="G15" s="229">
+      <c r="G15" s="227">
         <f t="shared" si="5"/>
         <v>-0.17159106108329686</v>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-70259</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="196">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>-27525</v>
       </c>
-      <c r="E16" s="198">
+      <c r="E16" s="196">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v>233698</v>
       </c>
-      <c r="F16" s="198">
+      <c r="F16" s="196">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v>42431</v>
       </c>
-      <c r="G16" s="198">
+      <c r="G16" s="196">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v>-81917</v>
       </c>
-      <c r="H16" s="198">
+      <c r="H16" s="196">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v>-17970</v>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>31560</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>21677</v>
       </c>
-      <c r="E17" s="198">
+      <c r="E17" s="196">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>20063</v>
       </c>
-      <c r="F17" s="198">
+      <c r="F17" s="196">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>13516</v>
       </c>
-      <c r="G17" s="198">
+      <c r="G17" s="196">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>19614</v>
       </c>
-      <c r="H17" s="198">
+      <c r="H17" s="196">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v>18362</v>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>7.2072535015742428E-2</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="150">
         <f t="shared" si="6"/>
         <v>7.5203250360177498E-2</v>
       </c>
-      <c r="E18" s="151">
+      <c r="E18" s="150">
         <f t="shared" si="6"/>
         <v>8.2205594513146185E-2</v>
       </c>
-      <c r="F18" s="151">
+      <c r="F18" s="150">
         <f t="shared" si="6"/>
         <v>7.953676663721107E-2</v>
       </c>
-      <c r="G18" s="151">
+      <c r="G18" s="150">
         <f t="shared" si="6"/>
         <v>7.983787577532539E-2</v>
       </c>
-      <c r="H18" s="151">
+      <c r="H18" s="150">
         <f t="shared" si="6"/>
         <v>6.2301299757558652E-2</v>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>274900</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="196">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>274200</v>
       </c>
-      <c r="E19" s="198">
+      <c r="E19" s="196">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v>283285</v>
       </c>
-      <c r="F19" s="198">
+      <c r="F19" s="196">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v>251031</v>
       </c>
-      <c r="G19" s="198">
+      <c r="G19" s="196">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v>245141</v>
       </c>
-      <c r="H19" s="198">
+      <c r="H19" s="196">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v>204372</v>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>4.8476579572247276E-2</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>6.2148273273582126E-2</v>
       </c>
-      <c r="E20" s="151">
+      <c r="E20" s="150">
         <f t="shared" si="7"/>
         <v>9.1815133536754343E-2</v>
       </c>
-      <c r="F20" s="151">
+      <c r="F20" s="150">
         <f t="shared" si="7"/>
         <v>8.3519133834342521E-2</v>
       </c>
-      <c r="G20" s="151">
+      <c r="G20" s="150">
         <f t="shared" si="7"/>
         <v>9.1874736401578255E-2</v>
       </c>
-      <c r="H20" s="151">
+      <c r="H20" s="150">
         <f t="shared" si="7"/>
         <v>0.11931540878940586</v>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>184900</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="196">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>226600</v>
       </c>
-      <c r="E21" s="198">
+      <c r="E21" s="196">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v>316400</v>
       </c>
-      <c r="F21" s="198">
+      <c r="F21" s="196">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v>263600</v>
       </c>
-      <c r="G21" s="198">
+      <c r="G21" s="196">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v>282100</v>
       </c>
-      <c r="H21" s="198">
+      <c r="H21" s="196">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v>391400</v>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>183219.33333333331</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>85593.666666666657</v>
       </c>
-      <c r="E22" s="160">
+      <c r="E22" s="158">
         <f t="shared" si="8"/>
         <v>-136162.66666666666</v>
       </c>
-      <c r="F22" s="160">
+      <c r="F22" s="158">
         <f t="shared" si="8"/>
         <v>177974</v>
       </c>
-      <c r="G22" s="160">
+      <c r="G22" s="158">
         <f t="shared" si="8"/>
         <v>154008</v>
       </c>
-      <c r="H22" s="160">
+      <c r="H22" s="158">
         <f t="shared" si="8"/>
         <v>48809.333333333343</v>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>3.6026960214335171E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>1.7606460458366825E-2</v>
       </c>
-      <c r="E23" s="152">
+      <c r="E23" s="151">
         <f t="shared" si="9"/>
         <v>-2.9634466077877456E-2</v>
       </c>
-      <c r="F23" s="152">
+      <c r="F23" s="151">
         <f t="shared" si="9"/>
         <v>4.2292017237386029E-2</v>
       </c>
-      <c r="G23" s="152">
+      <c r="G23" s="151">
         <f t="shared" si="9"/>
         <v>3.7618161300250613E-2</v>
       </c>
-      <c r="H23" s="152">
+      <c r="H23" s="151">
         <f t="shared" si="9"/>
         <v>1.1159374475099083E-2</v>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>137414.5</v>
       </c>
@@ -6796,63 +6791,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>1.1405711481768512</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v>Turn</v>
       </c>
-      <c r="F25" s="230">
+      <c r="F25" s="228">
         <f t="shared" si="10"/>
         <v>0.15561529271206689</v>
       </c>
-      <c r="G25" s="230">
+      <c r="G25" s="228">
         <f t="shared" si="10"/>
         <v>2.1552981670172366</v>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6898,11 +6893,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41729</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6949,266 +6944,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>788933</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>589038</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>259</v>
+      <c r="B30" s="93" t="s">
+        <v>257</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>1858363</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>34140</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>394340</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7255,169 +7250,169 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>2677574</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>44886</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
-        <v>3255193</v>
+        <v>3773967</v>
       </c>
       <c r="D37" s="65" t="str">
         <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
@@ -7459,63 +7454,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
-        <v>9.3628652228403456E-2</v>
-      </c>
-      <c r="D38" s="154" t="e">
+        <v>8.0758346146994217E-2</v>
+      </c>
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="e">
+      <c r="E38" s="153" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7528,372 +7523,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.77696054205677556</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.80365122476803419</v>
       </c>
-      <c r="E40" s="155">
+      <c r="E40" s="154">
         <f t="shared" si="34"/>
         <v>0.79631578718273499</v>
       </c>
-      <c r="F40" s="155">
+      <c r="F40" s="154">
         <f t="shared" si="34"/>
         <v>0.77083122766473089</v>
       </c>
-      <c r="G40" s="155">
+      <c r="G40" s="154">
         <f t="shared" si="34"/>
         <v>0.7810564129119667</v>
       </c>
-      <c r="H40" s="155">
+      <c r="H40" s="154">
         <f t="shared" si="34"/>
         <v>0.77092721851516632</v>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.14204607870614464</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.15260801965048315</v>
       </c>
-      <c r="E41" s="152">
+      <c r="E41" s="151">
         <f t="shared" si="35"/>
         <v>0.15768842923284743</v>
       </c>
-      <c r="F41" s="152">
+      <c r="F41" s="151">
         <f t="shared" si="35"/>
         <v>0.14804685309345555</v>
       </c>
-      <c r="G41" s="152">
+      <c r="G41" s="151">
         <f t="shared" si="35"/>
         <v>0.14741449640691942</v>
       </c>
-      <c r="H41" s="152">
+      <c r="H41" s="151">
         <f t="shared" si="35"/>
         <v>0.14819620038038264</v>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152">
+      <c r="E42" s="151">
         <f t="shared" si="36"/>
         <v>6.7816096957245317E-2</v>
       </c>
-      <c r="F42" s="152">
+      <c r="F42" s="151">
         <f t="shared" si="36"/>
         <v>1.344385571974578E-2</v>
       </c>
-      <c r="G42" s="152">
+      <c r="G42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H42" s="152">
+      <c r="H42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>8.274315042185636E-3</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>5.9452255946665479E-3</v>
       </c>
-      <c r="E43" s="152">
+      <c r="E43" s="151">
         <f t="shared" si="37"/>
         <v>5.8220196717696029E-3</v>
       </c>
-      <c r="F43" s="152">
+      <c r="F43" s="151">
         <f t="shared" si="37"/>
         <v>4.2824150717184128E-3</v>
       </c>
-      <c r="G43" s="152">
+      <c r="G43" s="151">
         <f t="shared" si="37"/>
         <v>6.387915915563828E-3</v>
       </c>
-      <c r="H43" s="152">
+      <c r="H43" s="151">
         <f t="shared" si="37"/>
         <v>5.5975205319138237E-3</v>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.0871617989521474E-3</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>1.2652722890649846E-3</v>
       </c>
-      <c r="E44" s="152">
+      <c r="E44" s="151">
         <f t="shared" si="38"/>
         <v>2.2607493689644148E-3</v>
       </c>
-      <c r="F44" s="152">
+      <c r="F44" s="151">
         <f t="shared" si="38"/>
         <v>3.0239249367032058E-3</v>
       </c>
-      <c r="G44" s="152">
+      <c r="G44" s="151">
         <f t="shared" si="38"/>
         <v>2.9467657389630627E-3</v>
       </c>
-      <c r="H44" s="152">
+      <c r="H44" s="151">
         <f t="shared" si="38"/>
         <v>3.3857855738911626E-3</v>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>2.3595955443495159E-2</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>1.3054977086595363E-2</v>
       </c>
-      <c r="E45" s="152">
+      <c r="E45" s="151">
         <f t="shared" si="39"/>
         <v>9.6095390236081556E-3</v>
       </c>
-      <c r="F45" s="152">
+      <c r="F45" s="151">
         <f t="shared" si="39"/>
         <v>3.9823671971314532E-3</v>
       </c>
-      <c r="G45" s="152">
+      <c r="G45" s="151">
         <f t="shared" si="39"/>
         <v>1.2036860626252855E-2</v>
       </c>
-      <c r="H45" s="152">
+      <c r="H45" s="151">
         <f t="shared" si="39"/>
         <v>5.7014109031847213E-2</v>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>4.8035946952446888E-2</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>2.347528061115577E-2</v>
       </c>
-      <c r="E46" s="152">
+      <c r="E46" s="151">
         <f t="shared" si="40"/>
         <v>-3.9512621437169937E-2</v>
       </c>
-      <c r="F46" s="152">
+      <c r="F46" s="151">
         <f t="shared" si="40"/>
         <v>5.6389356316514705E-2</v>
       </c>
-      <c r="G46" s="152">
+      <c r="G46" s="151">
         <f t="shared" si="40"/>
         <v>5.0157548400334151E-2</v>
       </c>
-      <c r="H46" s="152">
+      <c r="H46" s="151">
         <f t="shared" si="40"/>
         <v>1.4879165966798778E-2</v>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>245</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>263</v>
+      <c r="B47" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>260</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7905,216 +7900,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C48" s="269">
+      <c r="B48" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>0.84088756082811555</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="e">
+      <c r="E48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="269" t="e">
+      <c r="F48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G48" s="269" t="e">
+      <c r="G48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H48" s="269" t="e">
+      <c r="H48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>252</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>250</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0.20684031017669963</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0.15443238225028336</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>243</v>
-      </c>
-      <c r="C51" s="152">
+      <c r="B51" s="93" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51" s="151">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>-0.41797446666745985</v>
       </c>
-      <c r="D51" s="152">
+      <c r="D51" s="151">
         <f t="shared" si="44"/>
         <v>-0.13758097408829176</v>
       </c>
-      <c r="E51" s="152">
+      <c r="E51" s="151">
         <f t="shared" si="44"/>
         <v>0.80615539580257478</v>
       </c>
-      <c r="F51" s="152">
+      <c r="F51" s="151">
         <f t="shared" si="44"/>
         <v>0.4952379840799272</v>
       </c>
-      <c r="G51" s="152">
+      <c r="G51" s="151">
         <f t="shared" si="44"/>
         <v>0.39027423104775699</v>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>246</v>
+      <c r="B52" s="101" t="s">
+        <v>244</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8130,350 +8125,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>247</v>
-      </c>
-      <c r="C53" s="155">
+      <c r="B53" s="94" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>0.58040665026873173</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>0.42760299975105798</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.17225256432181468</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>0.25325471900179536</v>
       </c>
-      <c r="E55" s="152">
+      <c r="E55" s="151">
         <f t="shared" si="47"/>
         <v>-0.14734582166428389</v>
       </c>
-      <c r="F55" s="152">
+      <c r="F55" s="151">
         <f t="shared" si="47"/>
         <v>7.5943677166327661E-2</v>
       </c>
-      <c r="G55" s="152">
+      <c r="G55" s="151">
         <f t="shared" si="47"/>
         <v>0.12735702041452393</v>
       </c>
-      <c r="H55" s="152">
+      <c r="H55" s="151">
         <f t="shared" si="47"/>
         <v>0.37619854126259999</v>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>249</v>
-      </c>
-      <c r="C58" s="271">
+      <c r="B58" s="266" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>0.11576735767144961</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="e">
+      <c r="E58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="271" t="e">
+      <c r="F58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="271" t="e">
+      <c r="G58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="271" t="e">
+      <c r="H58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>250</v>
-      </c>
-      <c r="C59" s="271">
+      <c r="B59" s="266" t="s">
+        <v>248</v>
+      </c>
+      <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>6.959401696415729E-2</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="e">
+      <c r="E59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="271" t="e">
+      <c r="F59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="271" t="e">
+      <c r="G59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="271" t="e">
+      <c r="H59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9752,7 +9747,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9769,8 +9764,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I106" sqref="I106"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9788,38 +9783,38 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>2677574</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
-        <v>Error!</v>
-      </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+        <v/>
+      </c>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>2632688</v>
       </c>
@@ -9827,28 +9822,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>44886</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -9861,7 +9856,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in USD</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>-193034.75</v>
@@ -9870,16 +9865,16 @@
         <f>1-D6/D3</f>
         <v>1.0720931522340746</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
         <v>1.1969324146349545</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9887,7 +9882,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9897,287 +9892,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
         <v>1.1429333255242431</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45565</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>687658</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>618892.20000000007</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>14082</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>16276</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>788933</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>473359.8</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>6517</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>3910.2</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>3782</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>4993</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>2496.5</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>34140</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>65078</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>39046.799999999996</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>589038</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>294519</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10188,21 +10183,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10215,45 +10210,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>8754</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>7878.6</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10261,17 +10256,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10281,19 +10276,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0.73909802927366042</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>1096162.2</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="112">
         <f>E24/$E$28</f>
         <v>0.7611692523958874</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10303,17 +10298,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0.59287437028157153</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>41543.299999999996</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="112">
         <f>E25/$E$28</f>
         <v>2.8847448491708678E-2</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10322,7 +10317,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10332,17 +10327,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0.5</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>294519</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="112">
         <f>E26/$E$28</f>
         <v>0.20451244081066139</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10355,7 +10350,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10365,17 +10360,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0.9</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>7878.6</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="112">
         <f>E27/$E$28</f>
         <v>5.4708583017424239E-3</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10402,12 +10397,12 @@
         <f>SUM(E24:E27)</f>
         <v>1440103.1</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>1297633</v>
       </c>
@@ -10417,171 +10412,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="87">
         <v>0</v>
       </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>342402</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>23429</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>14057.4</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>51938</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>19731</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>9865.5</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>394340</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>2308</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>230.8</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10589,25 +10584,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>17334</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>3466.8</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10615,26 +10610,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10642,113 +10637,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>1508433</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>150843.30000000002</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>172447</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>8622.35</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>92250</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>83025</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>30260</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10756,17 +10751,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10776,16 +10771,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0.6</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>14057.4</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10795,16 +10790,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0.45811062207904168</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>10096.299999999999</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10814,14 +10809,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0.10113608434315331</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>154310.1</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -10834,7 +10829,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10844,14 +10839,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0.31071427360598325</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>91647.35</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10864,13 +10859,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>1866192</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="81">
         <f>E48/C48</f>
         <v>0.14473920689832559</v>
       </c>
@@ -10878,12 +10873,12 @@
         <f>SUM(E30:E42)</f>
         <v>270111.15000000002</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>560730</v>
       </c>
@@ -10894,63 +10889,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
-        <v>4017163</v>
+        <f>Inputs!C41+Inputs!C37</f>
+        <v>4535937</v>
       </c>
       <c r="D49" s="56">
         <f>E49/C49</f>
-        <v>0.4257268749114736</v>
-      </c>
-      <c r="E49" s="88">
+        <v>0.37703659684867757</v>
+      </c>
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>1710214.25</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>1858363</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>44886</v>
       </c>
@@ -10958,45 +10953,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>1</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>44886</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>428480</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11004,61 +10999,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11072,35 +11067,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>34027.199999999997</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>687658</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0.90000000000000013</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>618892.20000000007</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11114,29 +11109,29 @@
         <f>E61+E62</f>
         <v>652919.4</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>428480</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11150,9 +11145,9 @@
         <f>E63-E64</f>
         <v>224439.40000000002</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11160,100 +11155,100 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
-        <v>3255193</v>
+        <v>3773967</v>
       </c>
       <c r="D68" s="29">
         <f t="shared" si="2"/>
-        <v>0.32480250786973308</v>
+        <v>0.28015476817894808</v>
       </c>
       <c r="E68" s="68">
         <f>E49-E63</f>
         <v>1057294.8500000001</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>1429883</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>1825310</v>
+        <v>2344084</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="2"/>
-        <v>-0.204123217426081</v>
+        <v>-0.15894829280861944</v>
       </c>
       <c r="E70" s="68">
   